--- a/sources/Tests/Indicators.xlsx
+++ b/sources/Tests/Indicators.xlsx
@@ -934,7 +934,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G113" sqref="G113"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,7 +946,7 @@
     <col min="5" max="5" width="2.5703125" style="11" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="14"/>
     <col min="7" max="7" width="2.140625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="17"/>
     <col min="10" max="10" width="2.28515625" style="11" customWidth="1"/>
   </cols>
@@ -1448,7 +1448,7 @@
         <v>0.18181818181818182</v>
       </c>
       <c r="I16" s="17">
-        <f t="shared" si="1"/>
+        <f>H16*(C16-I15)+I15</f>
         <v>1115.7739002495539</v>
       </c>
       <c r="J16" s="11" t="s">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="G113" s="14"/>
       <c r="H113" s="14">
-        <f t="shared" ref="G113:I113" si="9">COUNTIF(H2:H112, "&gt;0")</f>
+        <f t="shared" ref="H113:I113" si="9">COUNTIF(H2:H112, "&gt;0")</f>
         <v>111</v>
       </c>
       <c r="I113" s="14">

--- a/sources/Tests/Indicators.xlsx
+++ b/sources/Tests/Indicators.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="S&amp;P 500 (^GSPC)" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -930,11 +930,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J113"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,7 +946,7 @@
     <col min="5" max="5" width="2.5703125" style="11" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="14"/>
     <col min="7" max="7" width="2.140625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="17"/>
     <col min="10" max="10" width="2.28515625" style="11" customWidth="1"/>
   </cols>
@@ -1273,7 +1273,7 @@
         <v>0.18181818181818182</v>
       </c>
       <c r="I11" s="17">
-        <f t="shared" ref="I11:I42" si="1">H11*(C11-I10)+I10</f>
+        <f t="shared" ref="I11:I43" si="1">H11*(C11-I10)+I10</f>
         <v>296.16909090909093</v>
       </c>
       <c r="J11" s="11" t="s">
@@ -1297,14 +1297,14 @@
         <v>6</v>
       </c>
       <c r="F12" s="14">
-        <f t="shared" ref="F12:F75" si="2">AVERAGE(C3:C12)</f>
+        <f t="shared" ref="F12:F70" si="2">AVERAGE(C3:C12)</f>
         <v>1622.6830000000002</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" ref="H12:H75" si="3">2/(10+1)</f>
+        <f t="shared" ref="H12:H76" si="3">2/(10+1)</f>
         <v>0.18181818181818182</v>
       </c>
       <c r="I12" s="17">
@@ -1507,7 +1507,7 @@
         <v>6</v>
       </c>
       <c r="F18" s="14">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(C9:C18)</f>
         <v>1601.0530000000003</v>
       </c>
       <c r="G18" s="11" t="s">
@@ -1857,7 +1857,7 @@
         <v>6</v>
       </c>
       <c r="F28" s="14">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(C19:C28)</f>
         <v>1645.9450000000004</v>
       </c>
       <c r="G28" s="11" t="s">
@@ -1876,35 +1876,26 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>41471</v>
-      </c>
       <c r="B29" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="2">
-        <v>1676.26</v>
-      </c>
-      <c r="D29">
-        <v>3081710000</v>
+        <v>0</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>6</v>
       </c>
       <c r="F29" s="14">
-        <f t="shared" si="2"/>
-        <v>1652.075</v>
+        <v>0</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>6</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
+        <v>0</v>
       </c>
       <c r="I29" s="17">
-        <f t="shared" si="1"/>
-        <v>1620.8116586907099</v>
+        <v>0</v>
       </c>
       <c r="J29" s="11" t="s">
         <v>8</v>
@@ -1912,2920 +1903,2959 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
+        <v>41471</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1676.26</v>
+      </c>
+      <c r="D30">
+        <v>3081710000</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="14">
+        <f>AVERAGE(C20:C28,C30)</f>
+        <v>1652.075</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I30" s="17">
+        <f>H30*(C30-I28)+I28</f>
+        <v>1620.8116586907099</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>41472</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="2">
+      <c r="B31" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2">
         <v>1680.91</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>3153440000</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="14">
-        <f t="shared" si="2"/>
+      <c r="E31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="14">
+        <f>AVERAGE(C21:C28,C30:C31)</f>
         <v>1658.7580000000003</v>
       </c>
-      <c r="G30" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I30" s="17">
+      <c r="G31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I31" s="17">
         <f t="shared" si="1"/>
         <v>1631.7386298378535</v>
       </c>
-      <c r="J30" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="J31" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>41473</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="2">
+      <c r="B32" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="2">
         <v>1689.37</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>3452370000</v>
       </c>
-      <c r="E31" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="14">
-        <f t="shared" si="2"/>
+      <c r="E32" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="14">
+        <f>AVERAGE(C22:C28,C30:C32)</f>
         <v>1666.154</v>
       </c>
-      <c r="G31" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I31" s="17">
+      <c r="G32" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I32" s="17">
         <f t="shared" si="1"/>
         <v>1642.2170607764256</v>
       </c>
-      <c r="J31" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="J32" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>41474</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="2">
+      <c r="B33" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="2">
         <v>1692.09</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>3302580000</v>
       </c>
-      <c r="E32" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="14">
-        <f t="shared" si="2"/>
+      <c r="E33" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="14">
+        <f>AVERAGE(C23:C28,C30:C33)</f>
         <v>1672.1740000000002</v>
       </c>
-      <c r="G32" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I32" s="17">
+      <c r="G33" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I33" s="17">
         <f t="shared" si="1"/>
         <v>1651.2848679079846</v>
       </c>
-      <c r="J32" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="J33" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>41477</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="2">
+      <c r="B34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="2">
         <v>1695.53</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <v>2779130000</v>
       </c>
-      <c r="E33" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" s="14">
-        <f t="shared" si="2"/>
+      <c r="E34" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="14">
+        <f>AVERAGE(C24:C28,C30:C34)</f>
         <v>1677.6809999999998</v>
       </c>
-      <c r="G33" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I33" s="17">
+      <c r="G34" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I34" s="17">
         <f t="shared" si="1"/>
         <v>1659.3294373792601</v>
       </c>
-      <c r="J33" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="J34" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>41478</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="2">
+      <c r="B35" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="2">
         <v>1692.39</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>3096180000</v>
       </c>
-      <c r="E34" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" s="14">
-        <f t="shared" si="2"/>
+      <c r="E35" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="14">
+        <f>AVERAGE(C25:C28,C30:C35)</f>
         <v>1681.6880000000001</v>
       </c>
-      <c r="G34" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H34" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I34" s="17">
+      <c r="G35" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I35" s="17">
         <f t="shared" si="1"/>
         <v>1665.3404487648493</v>
       </c>
-      <c r="J34" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="J35" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>41479</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="2">
+      <c r="B36" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2">
         <v>1685.94</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>3336120000</v>
       </c>
-      <c r="E35" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="14">
-        <f t="shared" si="2"/>
+      <c r="E36" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="14">
+        <f>AVERAGE(C26:C28,C30:C36)</f>
         <v>1685.02</v>
       </c>
-      <c r="G35" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H35" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I35" s="17">
+      <c r="G36" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I36" s="17">
         <f t="shared" si="1"/>
         <v>1669.0858217166949</v>
       </c>
-      <c r="J35" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="J36" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>41480</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="2">
+      <c r="B37" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="2">
         <v>1690.25</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>3322500000</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="14">
-        <f t="shared" si="2"/>
+      <c r="E37" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="14">
+        <f>AVERAGE(C27:C28,C30:C37)</f>
         <v>1686.5430000000001</v>
       </c>
-      <c r="G36" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H36" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I36" s="17">
+      <c r="G37" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I37" s="17">
         <f t="shared" si="1"/>
         <v>1672.9338541318414</v>
       </c>
-      <c r="J36" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="J37" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>41481</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="2">
+      <c r="B38" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="2">
         <v>1691.65</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <v>2762770000</v>
       </c>
-      <c r="E37" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" s="14">
-        <f t="shared" si="2"/>
+      <c r="E38" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="14">
+        <f>AVERAGE(C28:C28,C30:C38)</f>
         <v>1687.6889999999999</v>
       </c>
-      <c r="G37" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H37" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I37" s="17">
+      <c r="G38" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I38" s="17">
         <f t="shared" si="1"/>
         <v>1676.3367897442338</v>
       </c>
-      <c r="J37" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="J38" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>41484</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="2">
+      <c r="B39" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="2">
         <v>1685.33</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <v>2840520000</v>
       </c>
-      <c r="E38" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" s="14">
-        <f t="shared" si="2"/>
+      <c r="E39" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="14">
+        <f>AVERAGE(C30:C39)</f>
         <v>1687.9720000000002</v>
       </c>
-      <c r="G38" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H38" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I38" s="17">
+      <c r="G39" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I39" s="17">
         <f t="shared" si="1"/>
         <v>1677.9719188816457</v>
       </c>
-      <c r="J38" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="J39" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>41485</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="2">
+      <c r="B40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="2">
         <v>1685.96</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <v>3320530000</v>
       </c>
-      <c r="E39" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F39" s="14">
+      <c r="E40" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="14">
         <f t="shared" si="2"/>
         <v>1688.9419999999998</v>
       </c>
-      <c r="G39" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I39" s="17">
+      <c r="G40" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I40" s="17">
         <f t="shared" si="1"/>
         <v>1679.424297266801</v>
       </c>
-      <c r="J39" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="J40" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>41486</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="2">
+      <c r="B41" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="2">
         <v>1685.73</v>
       </c>
-      <c r="D40">
+      <c r="D41">
         <v>3847390000</v>
       </c>
-      <c r="E40" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="14">
+      <c r="E41" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="14">
         <f t="shared" si="2"/>
         <v>1689.4239999999998</v>
       </c>
-      <c r="G40" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H40" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I40" s="17">
+      <c r="G41" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I41" s="17">
         <f t="shared" si="1"/>
         <v>1680.5707886728371</v>
       </c>
-      <c r="J40" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="J41" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>41487</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="2">
+      <c r="B42" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2">
         <v>1706.87</v>
       </c>
-      <c r="D41">
+      <c r="D42">
         <v>3775170000</v>
       </c>
-      <c r="E41" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" s="14">
+      <c r="E42" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="14">
         <f t="shared" si="2"/>
         <v>1691.1739999999998</v>
       </c>
-      <c r="G41" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H41" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I41" s="17">
+      <c r="G42" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I42" s="17">
         <f t="shared" si="1"/>
         <v>1685.352463459594</v>
       </c>
-      <c r="J41" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="J42" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>41488</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="2">
+      <c r="B43" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="2">
         <v>1709.67</v>
       </c>
-      <c r="D42">
+      <c r="D43">
         <v>3136630000</v>
       </c>
-      <c r="E42" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="14">
+      <c r="E43" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="14">
         <f t="shared" si="2"/>
         <v>1692.932</v>
       </c>
-      <c r="G42" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I42" s="17">
+      <c r="G43" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I43" s="17">
         <f t="shared" si="1"/>
         <v>1689.7738337396679</v>
       </c>
-      <c r="J42" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="J43" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>41491</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="2">
+      <c r="B44" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2">
         <v>1707.14</v>
       </c>
-      <c r="D43">
+      <c r="D44">
         <v>2529300000</v>
       </c>
-      <c r="E43" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" s="14">
+      <c r="E44" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="14">
         <f t="shared" si="2"/>
         <v>1694.0930000000001</v>
       </c>
-      <c r="G43" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H43" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I43" s="17">
-        <f t="shared" ref="I43:I74" si="4">H43*(C43-I42)+I42</f>
+      <c r="G44" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I44" s="17">
+        <f t="shared" ref="I44:I75" si="4">H44*(C44-I43)+I43</f>
         <v>1692.9313185142737</v>
       </c>
-      <c r="J43" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="J44" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>41492</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="2">
+      <c r="B45" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="2">
         <v>1697.37</v>
       </c>
-      <c r="D44">
+      <c r="D45">
         <v>3141210000</v>
       </c>
-      <c r="E44" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="14">
+      <c r="E45" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="14">
         <f t="shared" si="2"/>
         <v>1694.5909999999999</v>
       </c>
-      <c r="G44" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H44" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I44" s="17">
+      <c r="G45" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I45" s="17">
         <f t="shared" si="4"/>
         <v>1693.7383515116785</v>
       </c>
-      <c r="J44" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="J45" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>41493</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="2">
+      <c r="B46" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="2">
         <v>1690.91</v>
       </c>
-      <c r="D45">
+      <c r="D46">
         <v>3010230000</v>
       </c>
-      <c r="E45" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F45" s="14">
+      <c r="E46" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="14">
         <f t="shared" si="2"/>
         <v>1695.0880000000002</v>
       </c>
-      <c r="G45" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H45" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I45" s="17">
+      <c r="G46" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I46" s="17">
         <f t="shared" si="4"/>
         <v>1693.2241057822823</v>
       </c>
-      <c r="J45" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="J46" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>41494</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="2">
+      <c r="B47" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="2">
         <v>1697.48</v>
       </c>
-      <c r="D46">
+      <c r="D47">
         <v>3271660000</v>
       </c>
-      <c r="E46" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" s="14">
+      <c r="E47" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="14">
         <f t="shared" si="2"/>
         <v>1695.8110000000001</v>
       </c>
-      <c r="G46" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H46" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I46" s="17">
+      <c r="G47" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I47" s="17">
         <f t="shared" si="4"/>
         <v>1693.9979047309582</v>
       </c>
-      <c r="J46" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="J47" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>41495</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="2">
+      <c r="B48" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="2">
         <v>1691.42</v>
       </c>
-      <c r="D47">
+      <c r="D48">
         <v>2957670000</v>
       </c>
-      <c r="E47" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F47" s="14">
+      <c r="E48" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="14">
         <f t="shared" si="2"/>
         <v>1695.7879999999998</v>
       </c>
-      <c r="G47" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H47" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I47" s="17">
+      <c r="G48" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I48" s="17">
         <f t="shared" si="4"/>
         <v>1693.5291947798748</v>
       </c>
-      <c r="J47" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+      <c r="J48" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>41498</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="2">
+      <c r="B49" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="2">
         <v>1689.47</v>
       </c>
-      <c r="D48">
+      <c r="D49">
         <v>2789160000</v>
       </c>
-      <c r="E48" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" s="14">
+      <c r="E49" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="14">
         <f t="shared" si="2"/>
         <v>1696.2019999999998</v>
       </c>
-      <c r="G48" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H48" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I48" s="17">
+      <c r="G49" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I49" s="17">
         <f t="shared" si="4"/>
         <v>1692.7911593653521</v>
       </c>
-      <c r="J48" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+      <c r="J49" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>41499</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="2">
+      <c r="B50" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="2">
         <v>1694.16</v>
       </c>
-      <c r="D49">
+      <c r="D50">
         <v>3035560000</v>
       </c>
-      <c r="E49" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="14">
+      <c r="E50" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="14">
         <f t="shared" si="2"/>
         <v>1697.0220000000002</v>
       </c>
-      <c r="G49" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H49" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I49" s="17">
+      <c r="G50" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I50" s="17">
         <f t="shared" si="4"/>
         <v>1693.0400394807427</v>
       </c>
-      <c r="J49" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+      <c r="J50" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>41500</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="2">
+      <c r="B51" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="2">
         <v>1685.39</v>
       </c>
-      <c r="D50">
+      <c r="D51">
         <v>2871430000</v>
       </c>
-      <c r="E50" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" s="14">
+      <c r="E51" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="14">
         <f t="shared" si="2"/>
         <v>1696.9880000000001</v>
       </c>
-      <c r="G50" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H50" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I50" s="17">
+      <c r="G51" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I51" s="17">
         <f t="shared" si="4"/>
         <v>1691.6491232115168</v>
       </c>
-      <c r="J50" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+      <c r="J51" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>41501</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="2">
+      <c r="B52" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="2">
         <v>1661.32</v>
       </c>
-      <c r="D51">
+      <c r="D52">
         <v>3426690000</v>
       </c>
-      <c r="E51" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51" s="14">
+      <c r="E52" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="14">
         <f t="shared" si="2"/>
         <v>1692.4329999999998</v>
       </c>
-      <c r="G51" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H51" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I51" s="17">
+      <c r="G52" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I52" s="17">
         <f t="shared" si="4"/>
         <v>1686.1347371730592</v>
       </c>
-      <c r="J51" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+      <c r="J52" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>41502</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="2">
+      <c r="B53" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="2">
         <v>1655.83</v>
       </c>
-      <c r="D52">
+      <c r="D53">
         <v>3211450000</v>
       </c>
-      <c r="E52" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" s="14">
+      <c r="E53" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="14">
         <f t="shared" si="2"/>
         <v>1687.0489999999998</v>
       </c>
-      <c r="G52" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H52" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I52" s="17">
+      <c r="G53" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I53" s="17">
         <f t="shared" si="4"/>
         <v>1680.6247849597758</v>
       </c>
-      <c r="J52" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+      <c r="J53" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>41505</v>
       </c>
-      <c r="B53" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="2">
+      <c r="B54" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="2">
         <v>1646.06</v>
       </c>
-      <c r="D53">
+      <c r="D54">
         <v>2904530000</v>
       </c>
-      <c r="E53" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" s="14">
+      <c r="E54" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" s="14">
         <f t="shared" si="2"/>
         <v>1680.941</v>
       </c>
-      <c r="G53" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H53" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I53" s="17">
+      <c r="G54" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I54" s="17">
         <f t="shared" si="4"/>
         <v>1674.3402786034528</v>
       </c>
-      <c r="J53" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+      <c r="J54" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>41506</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="2">
+      <c r="B55" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="2">
         <v>1652.35</v>
       </c>
-      <c r="D54">
+      <c r="D55">
         <v>2994090000</v>
       </c>
-      <c r="E54" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F54" s="14">
+      <c r="E55" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="14">
         <f t="shared" si="2"/>
         <v>1676.4389999999999</v>
       </c>
-      <c r="G54" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H54" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I54" s="17">
+      <c r="G55" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I55" s="17">
         <f t="shared" si="4"/>
         <v>1670.3420461300977</v>
       </c>
-      <c r="J54" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+      <c r="J55" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>41507</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="2">
+      <c r="B56" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="2">
         <v>1642.8</v>
       </c>
-      <c r="D55">
+      <c r="D56">
         <v>2932180000</v>
       </c>
-      <c r="E55" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55" s="14">
+      <c r="E56" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="14">
         <f t="shared" si="2"/>
         <v>1671.6279999999999</v>
       </c>
-      <c r="G55" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H55" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I55" s="17">
+      <c r="G56" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I56" s="17">
         <f t="shared" si="4"/>
         <v>1665.3344013791709</v>
       </c>
-      <c r="J55" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+      <c r="J56" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>41508</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="2">
+      <c r="B57" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="2">
         <v>1656.96</v>
       </c>
-      <c r="D56">
+      <c r="D57">
         <v>2537460000</v>
       </c>
-      <c r="E56" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" s="14">
+      <c r="E57" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="14">
         <f t="shared" si="2"/>
         <v>1667.5759999999998</v>
       </c>
-      <c r="G56" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H56" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I56" s="17">
+      <c r="G57" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I57" s="17">
         <f t="shared" si="4"/>
         <v>1663.8117829465943</v>
       </c>
-      <c r="J56" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+      <c r="J57" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>41509</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="2">
+      <c r="B58" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="2">
         <v>1663.5</v>
       </c>
-      <c r="D57">
+      <c r="D58">
         <v>2582670000</v>
       </c>
-      <c r="E57" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" s="14">
+      <c r="E58" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" s="14">
         <f t="shared" si="2"/>
         <v>1664.7840000000001</v>
       </c>
-      <c r="G57" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H57" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I57" s="17">
+      <c r="G58" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I58" s="17">
         <f t="shared" si="4"/>
         <v>1663.7550951381227</v>
       </c>
-      <c r="J57" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+      <c r="J58" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>41512</v>
       </c>
-      <c r="B58" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="2">
+      <c r="B59" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="2">
         <v>1656.78</v>
       </c>
-      <c r="D58">
+      <c r="D59">
         <v>2430670000</v>
       </c>
-      <c r="E58" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" s="14">
+      <c r="E59" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="14">
         <f t="shared" si="2"/>
         <v>1661.5149999999999</v>
       </c>
-      <c r="G58" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H58" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I58" s="17">
+      <c r="G59" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I59" s="17">
         <f t="shared" si="4"/>
         <v>1662.4868960221004</v>
       </c>
-      <c r="J58" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+      <c r="J59" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>41513</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="2">
+      <c r="B60" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="2">
         <v>1630.48</v>
       </c>
-      <c r="D59">
+      <c r="D60">
         <v>3219190000</v>
       </c>
-      <c r="E59" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" s="14">
+      <c r="E60" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="14">
         <f t="shared" si="2"/>
         <v>1655.1470000000002</v>
       </c>
-      <c r="G59" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H59" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I59" s="17">
+      <c r="G60" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I60" s="17">
         <f t="shared" si="4"/>
         <v>1656.6674603817185</v>
       </c>
-      <c r="J59" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+      <c r="J60" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>41514</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="2">
+      <c r="B61" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="2">
         <v>1634.96</v>
       </c>
-      <c r="D60">
+      <c r="D61">
         <v>2784010000</v>
       </c>
-      <c r="E60" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F60" s="14">
+      <c r="E61" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" s="14">
         <f t="shared" si="2"/>
         <v>1650.104</v>
       </c>
-      <c r="G60" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H60" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I60" s="17">
+      <c r="G61" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I61" s="17">
         <f t="shared" si="4"/>
         <v>1652.7206494032241</v>
       </c>
-      <c r="J60" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+      <c r="J61" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>41515</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="2">
+      <c r="B62" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="2">
         <v>1638.17</v>
       </c>
-      <c r="D61">
+      <c r="D62">
         <v>2527550000</v>
       </c>
-      <c r="E61" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61" s="14">
+      <c r="E62" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" s="14">
         <f t="shared" si="2"/>
         <v>1647.789</v>
       </c>
-      <c r="G61" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H61" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I61" s="17">
+      <c r="G62" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H62" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I62" s="17">
         <f t="shared" si="4"/>
         <v>1650.0750767844561</v>
       </c>
-      <c r="J61" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+      <c r="J62" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>41516</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="2">
+      <c r="B63" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="2">
         <v>1632.97</v>
       </c>
-      <c r="D62">
+      <c r="D63">
         <v>2734300000</v>
       </c>
-      <c r="E62" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F62" s="14">
+      <c r="E63" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" s="14">
         <f t="shared" si="2"/>
         <v>1645.5029999999999</v>
       </c>
-      <c r="G62" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H62" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I62" s="17">
+      <c r="G63" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I63" s="17">
         <f t="shared" si="4"/>
         <v>1646.9650628236459</v>
       </c>
-      <c r="J62" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+      <c r="J63" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>41520</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="2">
+      <c r="B64" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="2">
         <v>1639.77</v>
       </c>
-      <c r="D63">
+      <c r="D64">
         <v>3731610000</v>
       </c>
-      <c r="E63" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F63" s="14">
+      <c r="E64" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" s="14">
         <f t="shared" si="2"/>
         <v>1644.8739999999998</v>
       </c>
-      <c r="G63" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H63" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I63" s="17">
+      <c r="G64" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I64" s="17">
         <f t="shared" si="4"/>
         <v>1645.6568695829831</v>
       </c>
-      <c r="J63" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+      <c r="J64" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>41521</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="2">
+      <c r="B65" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="2">
         <v>1653.08</v>
       </c>
-      <c r="D64">
+      <c r="D65">
         <v>3312150000</v>
       </c>
-      <c r="E64" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F64" s="14">
+      <c r="E65" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" s="14">
         <f t="shared" si="2"/>
         <v>1644.9470000000001</v>
       </c>
-      <c r="G64" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H64" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I64" s="17">
+      <c r="G65" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I65" s="17">
         <f t="shared" si="4"/>
         <v>1647.0065296588043</v>
       </c>
-      <c r="J64" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+      <c r="J65" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>41522</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" s="2">
+      <c r="B66" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="2">
         <v>1655.08</v>
       </c>
-      <c r="D65">
+      <c r="D66">
         <v>2957110000</v>
       </c>
-      <c r="E65" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" s="14">
+      <c r="E66" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66" s="14">
         <f t="shared" si="2"/>
         <v>1646.175</v>
       </c>
-      <c r="G65" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H65" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I65" s="17">
+      <c r="G66" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I66" s="17">
         <f t="shared" si="4"/>
         <v>1648.4744333572035</v>
       </c>
-      <c r="J65" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+      <c r="J66" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>41523</v>
       </c>
-      <c r="B66" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="2">
+      <c r="B67" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="2">
         <v>1655.17</v>
       </c>
-      <c r="D66">
+      <c r="D67">
         <v>3123880000</v>
       </c>
-      <c r="E66" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F66" s="14">
+      <c r="E67" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" s="14">
         <f t="shared" si="2"/>
         <v>1645.9959999999999</v>
       </c>
-      <c r="G66" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H66" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I66" s="17">
+      <c r="G67" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I67" s="17">
         <f t="shared" si="4"/>
         <v>1649.6918091104392</v>
       </c>
-      <c r="J66" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+      <c r="J67" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>41526</v>
       </c>
-      <c r="B67" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="2">
+      <c r="B68" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="2">
         <v>1671.71</v>
       </c>
-      <c r="D67">
+      <c r="D68">
         <v>3102780000</v>
       </c>
-      <c r="E67" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F67" s="14">
+      <c r="E68" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68" s="14">
         <f t="shared" si="2"/>
         <v>1646.8170000000002</v>
       </c>
-      <c r="G67" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H67" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I67" s="17">
+      <c r="G68" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I68" s="17">
         <f t="shared" si="4"/>
         <v>1653.6951165449047</v>
       </c>
-      <c r="J67" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+      <c r="J68" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>41527</v>
       </c>
-      <c r="B68" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="2">
+      <c r="B69" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="2">
         <v>1683.99</v>
       </c>
-      <c r="D68">
+      <c r="D69">
         <v>3691800000</v>
       </c>
-      <c r="E68" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F68" s="14">
+      <c r="E69" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" s="14">
         <f t="shared" si="2"/>
         <v>1649.538</v>
       </c>
-      <c r="G68" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H68" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I68" s="17">
+      <c r="G69" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I69" s="17">
         <f t="shared" si="4"/>
         <v>1659.203277173104</v>
       </c>
-      <c r="J68" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+      <c r="J69" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>41528</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="2">
+      <c r="B70" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="2">
         <v>1689.13</v>
       </c>
-      <c r="D69">
+      <c r="D70">
         <v>3135460000</v>
       </c>
-      <c r="E69" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F69" s="14">
+      <c r="E70" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70" s="14">
         <f t="shared" si="2"/>
         <v>1655.4029999999998</v>
       </c>
-      <c r="G69" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H69" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I69" s="17">
+      <c r="G70" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H70" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I70" s="17">
         <f t="shared" si="4"/>
         <v>1664.6444995052668</v>
       </c>
-      <c r="J69" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>41529</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" s="2">
-        <v>1683.42</v>
-      </c>
-      <c r="D70">
-        <v>3106290000</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F70" s="14">
-        <f t="shared" si="2"/>
-        <v>1660.2489999999998</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H70" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I70" s="17">
-        <f t="shared" si="4"/>
-        <v>1668.0582268679457</v>
-      </c>
       <c r="J70" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
+        <v>41529</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1683.42</v>
+      </c>
+      <c r="D71">
+        <v>3106290000</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" s="14">
+        <f>AVERAGE(C62:C70,C71)</f>
+        <v>1660.2489999999998</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H71" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I71" s="17">
+        <f>H71*(C71-I70)+I70</f>
+        <v>1668.0582268679457</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>41530</v>
       </c>
-      <c r="B71" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="2">
+      <c r="B72" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="2">
         <v>1687.99</v>
       </c>
-      <c r="D71">
+      <c r="D72">
         <v>2736500000</v>
       </c>
-      <c r="E71" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F71" s="14">
-        <f t="shared" si="2"/>
+      <c r="E72" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" s="14">
+        <f>AVERAGE(C63:C72)</f>
         <v>1665.2309999999998</v>
       </c>
-      <c r="G71" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H71" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I71" s="17">
+      <c r="G72" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H72" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I72" s="17">
         <f t="shared" si="4"/>
         <v>1671.6821856192282</v>
       </c>
-      <c r="J71" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
+      <c r="J72" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>41533</v>
       </c>
-      <c r="B72" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" s="2">
+      <c r="B73" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="2">
         <v>1697.6</v>
       </c>
-      <c r="D72">
+      <c r="D73">
         <v>3079800000</v>
       </c>
-      <c r="E72" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F72" s="14">
-        <f t="shared" si="2"/>
+      <c r="E73" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" s="14">
+        <f>AVERAGE(C64:C73)</f>
         <v>1671.694</v>
       </c>
-      <c r="G72" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H72" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I72" s="17">
+      <c r="G73" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I73" s="17">
         <f t="shared" si="4"/>
         <v>1676.3945155066413</v>
       </c>
-      <c r="J72" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
+      <c r="J73" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>41534</v>
       </c>
-      <c r="B73" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" s="2">
+      <c r="B74" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="2">
         <v>1704.76</v>
       </c>
-      <c r="D73">
+      <c r="D74">
         <v>2774240000</v>
       </c>
-      <c r="E73" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F73" s="14">
-        <f t="shared" si="2"/>
+      <c r="E74" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" s="14">
+        <f>AVERAGE(C65:C74)</f>
         <v>1678.193</v>
       </c>
-      <c r="G73" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H73" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I73" s="17">
+      <c r="G74" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I74" s="17">
         <f t="shared" si="4"/>
         <v>1681.5518763236155</v>
       </c>
-      <c r="J73" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+      <c r="J74" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>41535</v>
       </c>
-      <c r="B74" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" s="2">
+      <c r="B75" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="2">
         <v>1725.52</v>
       </c>
-      <c r="D74">
+      <c r="D75">
         <v>3989760000</v>
       </c>
-      <c r="E74" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F74" s="14">
-        <f t="shared" si="2"/>
+      <c r="E75" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" s="14">
+        <f>AVERAGE(C66:C75)</f>
         <v>1685.4369999999999</v>
       </c>
-      <c r="G74" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H74" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I74" s="17">
+      <c r="G75" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H75" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I75" s="17">
         <f t="shared" si="4"/>
         <v>1689.5460806284127</v>
       </c>
-      <c r="J74" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>41536</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="2">
-        <v>1722.34</v>
-      </c>
-      <c r="D75">
-        <v>3740130000</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F75" s="14">
-        <f t="shared" si="2"/>
-        <v>1692.163</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H75" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I75" s="17">
-        <f t="shared" ref="I75:I106" si="5">H75*(C75-I74)+I74</f>
-        <v>1695.5086114232467</v>
-      </c>
       <c r="J75" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
+        <v>41536</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="2">
+        <v>1722.34</v>
+      </c>
+      <c r="D76">
+        <v>3740130000</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76" s="14">
+        <f>AVERAGE(C67:C76)</f>
+        <v>1692.163</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H76" s="3">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I76" s="17">
+        <f t="shared" ref="I76:I107" si="5">H76*(C76-I75)+I75</f>
+        <v>1695.5086114232467</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>41537</v>
       </c>
-      <c r="B76" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="2">
+      <c r="B77" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="2">
         <v>1709.91</v>
       </c>
-      <c r="D76">
+      <c r="D77">
         <v>5074030000</v>
       </c>
-      <c r="E76" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F76" s="14">
-        <f t="shared" ref="F76:F112" si="6">AVERAGE(C67:C76)</f>
+      <c r="E77" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" s="14">
+        <f>AVERAGE(C68:C77)</f>
         <v>1697.6370000000002</v>
       </c>
-      <c r="G76" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H76" s="3">
-        <f t="shared" ref="H76:H112" si="7">2/(10+1)</f>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I76" s="17">
+      <c r="G77" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H77" s="3">
+        <f t="shared" ref="H77:H113" si="6">2/(10+1)</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I77" s="17">
         <f t="shared" si="5"/>
         <v>1698.1270457099292</v>
       </c>
-      <c r="J76" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
+      <c r="J77" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>41540</v>
       </c>
-      <c r="B77" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" s="2">
+      <c r="B78" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="2">
         <v>1701.84</v>
       </c>
-      <c r="D77">
+      <c r="D78">
         <v>3126950000</v>
       </c>
-      <c r="E77" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F77" s="14">
+      <c r="E78" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="14">
+        <f>AVERAGE(C69:C78)</f>
+        <v>1700.65</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H78" s="3">
         <f t="shared" si="6"/>
-        <v>1700.65</v>
-      </c>
-      <c r="G77" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H77" s="3">
-        <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I77" s="17">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I78" s="17">
         <f t="shared" si="5"/>
         <v>1698.8021283081239</v>
       </c>
-      <c r="J77" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
+      <c r="J78" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>41541</v>
       </c>
-      <c r="B78" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="2">
+      <c r="B79" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="2">
         <v>1697.42</v>
       </c>
-      <c r="D78">
+      <c r="D79">
         <v>3268930000</v>
       </c>
-      <c r="E78" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" s="14">
+      <c r="E79" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79" s="14">
+        <f>AVERAGE(C70:C79)</f>
+        <v>1701.9929999999999</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79" s="3">
         <f t="shared" si="6"/>
-        <v>1701.9929999999999</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H78" s="3">
-        <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I78" s="17">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I79" s="17">
         <f t="shared" si="5"/>
         <v>1698.5508322521014</v>
       </c>
-      <c r="J78" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
+      <c r="J79" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>41542</v>
       </c>
-      <c r="B79" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" s="2">
+      <c r="B80" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="2">
         <v>1692.77</v>
       </c>
-      <c r="D79">
+      <c r="D80">
         <v>3148730000</v>
       </c>
-      <c r="E79" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F79" s="14">
+      <c r="E80" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" s="14">
+        <f t="shared" ref="F80:F113" si="7">AVERAGE(C71:C80)</f>
+        <v>1702.357</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H80" s="3">
         <f t="shared" si="6"/>
-        <v>1702.357</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H79" s="3">
-        <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I79" s="17">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I80" s="17">
         <f t="shared" si="5"/>
         <v>1697.4997718426284</v>
       </c>
-      <c r="J79" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
+      <c r="J80" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>41543</v>
       </c>
-      <c r="B80" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" s="2">
+      <c r="B81" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="2">
         <v>1698.67</v>
       </c>
-      <c r="D80">
+      <c r="D81">
         <v>2813930000</v>
       </c>
-      <c r="E80" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F80" s="14">
+      <c r="E81" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" s="14">
+        <f t="shared" si="7"/>
+        <v>1703.8820000000001</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H81" s="3">
         <f t="shared" si="6"/>
-        <v>1703.8820000000001</v>
-      </c>
-      <c r="G80" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H80" s="3">
-        <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I80" s="17">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I81" s="17">
         <f t="shared" si="5"/>
         <v>1697.7125405985141</v>
       </c>
-      <c r="J80" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
+      <c r="J81" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>41544</v>
       </c>
-      <c r="B81" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" s="2">
+      <c r="B82" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="2">
         <v>1691.75</v>
       </c>
-      <c r="D81">
+      <c r="D82">
         <v>2951700000</v>
       </c>
-      <c r="E81" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F81" s="14">
+      <c r="E82" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" s="14">
+        <f t="shared" si="7"/>
+        <v>1704.2580000000003</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H82" s="3">
         <f t="shared" si="6"/>
-        <v>1704.2580000000003</v>
-      </c>
-      <c r="G81" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H81" s="3">
-        <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I81" s="17">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I82" s="17">
         <f t="shared" si="5"/>
         <v>1696.6284423078753</v>
       </c>
-      <c r="J81" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
+      <c r="J82" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>41547</v>
       </c>
-      <c r="B82" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" s="2">
+      <c r="B83" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="2">
         <v>1681.55</v>
       </c>
-      <c r="D82">
+      <c r="D83">
         <v>3308630000</v>
       </c>
-      <c r="E82" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F82" s="14">
+      <c r="E83" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" s="14">
+        <f t="shared" si="7"/>
+        <v>1702.6529999999998</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H83" s="3">
         <f t="shared" si="6"/>
-        <v>1702.6529999999998</v>
-      </c>
-      <c r="G82" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H82" s="3">
-        <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I82" s="17">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I83" s="17">
         <f t="shared" si="5"/>
         <v>1693.886907342807</v>
       </c>
-      <c r="J82" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
+      <c r="J83" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>41548</v>
       </c>
-      <c r="B83" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" s="2">
+      <c r="B84" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="2">
         <v>1695</v>
       </c>
-      <c r="D83">
+      <c r="D84">
         <v>3238690000</v>
       </c>
-      <c r="E83" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F83" s="14">
+      <c r="E84" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84" s="14">
+        <f t="shared" si="7"/>
+        <v>1701.6769999999997</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H84" s="3">
         <f t="shared" si="6"/>
-        <v>1701.6769999999997</v>
-      </c>
-      <c r="G83" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H83" s="3">
-        <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I83" s="17">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I84" s="17">
         <f t="shared" si="5"/>
         <v>1694.0892878259331</v>
       </c>
-      <c r="J83" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
+      <c r="J84" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>41549</v>
       </c>
-      <c r="B84" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" s="2">
+      <c r="B85" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="2">
         <v>1693.87</v>
       </c>
-      <c r="D84">
+      <c r="D85">
         <v>3148600000</v>
       </c>
-      <c r="E84" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F84" s="14">
+      <c r="E85" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85" s="14">
+        <f t="shared" si="7"/>
+        <v>1698.5119999999999</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H85" s="3">
         <f t="shared" si="6"/>
-        <v>1698.5119999999999</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H84" s="3">
-        <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I84" s="17">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I85" s="17">
         <f t="shared" si="5"/>
         <v>1694.0494173121269</v>
       </c>
-      <c r="J84" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
+      <c r="J85" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>41550</v>
       </c>
-      <c r="B85" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" s="2">
+      <c r="B86" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="2">
         <v>1678.66</v>
       </c>
-      <c r="D85">
+      <c r="D86">
         <v>3279650000</v>
       </c>
-      <c r="E85" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F85" s="14">
+      <c r="E86" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F86" s="14">
+        <f t="shared" si="7"/>
+        <v>1694.1439999999998</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H86" s="3">
         <f t="shared" si="6"/>
-        <v>1694.1439999999998</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H85" s="3">
-        <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I85" s="17">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I86" s="17">
         <f t="shared" si="5"/>
         <v>1691.2513414371947</v>
       </c>
-      <c r="J85" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
+      <c r="J86" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>41551</v>
       </c>
-      <c r="B86" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" s="2">
+      <c r="B87" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="2">
         <v>1690.5</v>
       </c>
-      <c r="D86">
+      <c r="D87">
         <v>2880270000</v>
       </c>
-      <c r="E86" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F86" s="14">
+      <c r="E87" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F87" s="14">
+        <f t="shared" si="7"/>
+        <v>1692.203</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H87" s="3">
         <f t="shared" si="6"/>
-        <v>1692.203</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H86" s="3">
-        <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I86" s="17">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I87" s="17">
         <f t="shared" si="5"/>
         <v>1691.1147339031593</v>
       </c>
-      <c r="J86" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
+      <c r="J87" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>41554</v>
       </c>
-      <c r="B87" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" s="2">
+      <c r="B88" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="2">
         <v>1676.12</v>
       </c>
-      <c r="D87">
+      <c r="D88">
         <v>2678490000</v>
       </c>
-      <c r="E87" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F87" s="14">
+      <c r="E88" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F88" s="14">
+        <f t="shared" si="7"/>
+        <v>1689.6309999999999</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H88" s="3">
         <f t="shared" si="6"/>
-        <v>1689.6309999999999</v>
-      </c>
-      <c r="G87" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H87" s="3">
-        <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I87" s="17">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I88" s="17">
         <f t="shared" si="5"/>
         <v>1688.3884186480393</v>
       </c>
-      <c r="J87" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
+      <c r="J88" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>41555</v>
       </c>
-      <c r="B88" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" s="2">
+      <c r="B89" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="2">
         <v>1655.45</v>
       </c>
-      <c r="D88">
+      <c r="D89">
         <v>3569230000</v>
       </c>
-      <c r="E88" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F88" s="14">
+      <c r="E89" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" s="14">
+        <f t="shared" si="7"/>
+        <v>1685.434</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H89" s="3">
         <f t="shared" si="6"/>
-        <v>1685.434</v>
-      </c>
-      <c r="G88" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H88" s="3">
-        <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I88" s="17">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I89" s="17">
         <f t="shared" si="5"/>
         <v>1682.3996152574866</v>
       </c>
-      <c r="J88" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
+      <c r="J89" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>41556</v>
       </c>
-      <c r="B89" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" s="2">
+      <c r="B90" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="2">
         <v>1656.4</v>
       </c>
-      <c r="D89">
+      <c r="D90">
         <v>3577840000</v>
       </c>
-      <c r="E89" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F89" s="14">
+      <c r="E90" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F90" s="14">
+        <f t="shared" si="7"/>
+        <v>1681.797</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H90" s="3">
         <f t="shared" si="6"/>
-        <v>1681.797</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H89" s="3">
-        <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I89" s="17">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I90" s="17">
         <f t="shared" si="5"/>
         <v>1677.6724124833981</v>
       </c>
-      <c r="J89" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
+      <c r="J90" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>41557</v>
       </c>
-      <c r="B90" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" s="2">
+      <c r="B91" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="2">
         <v>1692.56</v>
       </c>
-      <c r="D90">
+      <c r="D91">
         <v>3362300000</v>
       </c>
-      <c r="E90" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F90" s="14">
+      <c r="E91" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F91" s="14">
+        <f t="shared" si="7"/>
+        <v>1681.1860000000001</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H91" s="3">
         <f t="shared" si="6"/>
-        <v>1681.1860000000001</v>
-      </c>
-      <c r="G90" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H90" s="3">
-        <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I90" s="17">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I91" s="17">
         <f t="shared" si="5"/>
         <v>1680.3792465773258</v>
       </c>
-      <c r="J90" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
+      <c r="J91" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>41558</v>
       </c>
-      <c r="B91" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" s="2">
+      <c r="B92" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="2">
         <v>1703.2</v>
       </c>
-      <c r="D91">
+      <c r="D92">
         <v>2944670000</v>
       </c>
-      <c r="E91" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F91" s="14">
+      <c r="E92" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F92" s="14">
+        <f t="shared" si="7"/>
+        <v>1682.3310000000001</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H92" s="3">
         <f t="shared" si="6"/>
-        <v>1682.3310000000001</v>
-      </c>
-      <c r="G91" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H91" s="3">
-        <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I91" s="17">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I92" s="17">
         <f t="shared" si="5"/>
         <v>1684.5284744723574</v>
       </c>
-      <c r="J91" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
+      <c r="J92" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>41561</v>
       </c>
-      <c r="B92" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" s="2">
+      <c r="B93" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="2">
         <v>1710.14</v>
       </c>
-      <c r="D92">
+      <c r="D93">
         <v>2580580000</v>
       </c>
-      <c r="E92" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F92" s="14">
+      <c r="E93" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F93" s="14">
+        <f t="shared" si="7"/>
+        <v>1685.19</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H93" s="3">
         <f t="shared" si="6"/>
-        <v>1685.19</v>
-      </c>
-      <c r="G92" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H92" s="3">
-        <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I92" s="17">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I93" s="17">
         <f t="shared" si="5"/>
         <v>1689.1851154773833</v>
       </c>
-      <c r="J92" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
+      <c r="J93" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>41562</v>
       </c>
-      <c r="B93" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" s="2">
+      <c r="B94" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="2">
         <v>1698.06</v>
       </c>
-      <c r="D93">
+      <c r="D94">
         <v>3327740000</v>
       </c>
-      <c r="E93" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F93" s="14">
+      <c r="E94" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F94" s="14">
+        <f t="shared" si="7"/>
+        <v>1685.4959999999999</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H94" s="3">
         <f t="shared" si="6"/>
-        <v>1685.4959999999999</v>
-      </c>
-      <c r="G93" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H93" s="3">
-        <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I93" s="17">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I94" s="17">
         <f t="shared" si="5"/>
         <v>1690.7987308451318</v>
       </c>
-      <c r="J93" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
+      <c r="J94" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>41563</v>
       </c>
-      <c r="B94" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" s="2">
+      <c r="B95" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="2">
         <v>1721.54</v>
       </c>
-      <c r="D94">
+      <c r="D95">
         <v>3486180000</v>
       </c>
-      <c r="E94" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F94" s="14">
+      <c r="E95" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F95" s="14">
+        <f t="shared" si="7"/>
+        <v>1688.2629999999997</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H95" s="3">
         <f t="shared" si="6"/>
-        <v>1688.2629999999997</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H94" s="3">
-        <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I94" s="17">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I95" s="17">
         <f t="shared" si="5"/>
         <v>1696.3880525096533</v>
       </c>
-      <c r="J94" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
+      <c r="J95" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>41564</v>
       </c>
-      <c r="B95" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" s="2">
+      <c r="B96" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="2">
         <v>1733.15</v>
       </c>
-      <c r="D95">
+      <c r="D96">
         <v>3453590000</v>
       </c>
-      <c r="E95" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F95" s="14">
+      <c r="E96" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F96" s="14">
+        <f t="shared" si="7"/>
+        <v>1693.712</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H96" s="3">
         <f t="shared" si="6"/>
-        <v>1693.712</v>
-      </c>
-      <c r="G95" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H95" s="3">
-        <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I95" s="17">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I96" s="17">
         <f t="shared" si="5"/>
         <v>1703.0720429624437</v>
       </c>
-      <c r="J95" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
+      <c r="J96" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
         <v>41565</v>
       </c>
-      <c r="B96" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" s="2">
+      <c r="B97" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="2">
         <v>1744.5</v>
       </c>
-      <c r="D96">
+      <c r="D97">
         <v>3664890000</v>
       </c>
-      <c r="E96" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F96" s="14">
+      <c r="E97" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97" s="14">
+        <f t="shared" si="7"/>
+        <v>1699.1119999999996</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H97" s="3">
         <f t="shared" si="6"/>
-        <v>1699.1119999999996</v>
-      </c>
-      <c r="G96" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H96" s="3">
-        <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I96" s="17">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I97" s="17">
         <f t="shared" si="5"/>
         <v>1710.6043987874539</v>
       </c>
-      <c r="J96" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
+      <c r="J97" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>41568</v>
       </c>
-      <c r="B97" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" s="2">
+      <c r="B98" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="2">
         <v>1744.66</v>
       </c>
-      <c r="D97">
+      <c r="D98">
         <v>3052710000</v>
       </c>
-      <c r="E97" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F97" s="14">
+      <c r="E98" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" s="14">
+        <f t="shared" si="7"/>
+        <v>1705.9659999999999</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H98" s="3">
         <f t="shared" si="6"/>
-        <v>1705.9659999999999</v>
-      </c>
-      <c r="G97" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H97" s="3">
-        <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I97" s="17">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I98" s="17">
         <f t="shared" si="5"/>
         <v>1716.7963262806441</v>
       </c>
-      <c r="J97" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
+      <c r="J98" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>41569</v>
       </c>
-      <c r="B98" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" s="2">
+      <c r="B99" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="2">
         <v>1754.67</v>
       </c>
-      <c r="D98">
+      <c r="D99">
         <v>3850840000</v>
       </c>
-      <c r="E98" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F98" s="14">
+      <c r="E99" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F99" s="14">
+        <f t="shared" si="7"/>
+        <v>1715.8880000000001</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H99" s="3">
         <f t="shared" si="6"/>
-        <v>1715.8880000000001</v>
-      </c>
-      <c r="G98" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H98" s="3">
-        <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I98" s="17">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I99" s="17">
         <f t="shared" si="5"/>
         <v>1723.6824487750723</v>
       </c>
-      <c r="J98" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>41570</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" s="2">
-        <v>1746.38</v>
-      </c>
-      <c r="D99">
-        <v>3713380000</v>
-      </c>
-      <c r="E99" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F99" s="14">
-        <f t="shared" si="6"/>
-        <v>1724.886</v>
-      </c>
-      <c r="G99" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H99" s="3">
-        <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I99" s="17">
-        <f t="shared" si="5"/>
-        <v>1727.8092762705137</v>
-      </c>
       <c r="J99" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
+        <v>41570</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="2">
+        <v>1746.38</v>
+      </c>
+      <c r="D100">
+        <v>3713380000</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F100" s="14">
+        <f>AVERAGE(C91:C99,C100)</f>
+        <v>1724.886</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H100" s="3">
+        <f t="shared" si="6"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I100" s="17">
+        <f>H100*(C100-I99)+I99</f>
+        <v>1727.8092762705137</v>
+      </c>
+      <c r="J100" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
         <v>41571</v>
       </c>
-      <c r="B100" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" s="2">
+      <c r="B101" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="2">
         <v>1752.07</v>
       </c>
-      <c r="D100">
+      <c r="D101">
         <v>3671700000</v>
       </c>
-      <c r="E100" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F100" s="14">
+      <c r="E101" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F101" s="14">
+        <f>AVERAGE(C92:C101)</f>
+        <v>1730.837</v>
+      </c>
+      <c r="G101" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H101" s="3">
         <f t="shared" si="6"/>
-        <v>1730.837</v>
-      </c>
-      <c r="G100" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H100" s="3">
-        <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I100" s="17">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I101" s="17">
         <f t="shared" si="5"/>
         <v>1732.2203169486022</v>
       </c>
-      <c r="J100" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
+      <c r="J101" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
         <v>41572</v>
       </c>
-      <c r="B101" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" s="2">
+      <c r="B102" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="2">
         <v>1759.77</v>
       </c>
-      <c r="D101">
+      <c r="D102">
         <v>3175720000</v>
       </c>
-      <c r="E101" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F101" s="14">
+      <c r="E102" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F102" s="14">
+        <f>AVERAGE(C93:C102)</f>
+        <v>1736.4939999999999</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H102" s="3">
         <f t="shared" si="6"/>
-        <v>1736.4939999999999</v>
-      </c>
-      <c r="G101" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H101" s="3">
-        <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I101" s="17">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I102" s="17">
         <f t="shared" si="5"/>
         <v>1737.2293502306745</v>
       </c>
-      <c r="J101" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
+      <c r="J102" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
         <v>41575</v>
       </c>
-      <c r="B102" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" s="2">
+      <c r="B103" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="2">
         <v>1762.11</v>
       </c>
-      <c r="D102">
+      <c r="D103">
         <v>3282300000</v>
       </c>
-      <c r="E102" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F102" s="14">
+      <c r="E103" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F103" s="14">
+        <f>AVERAGE(C94:C103)</f>
+        <v>1741.691</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H103" s="3">
         <f t="shared" si="6"/>
-        <v>1741.691</v>
-      </c>
-      <c r="G102" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H102" s="3">
-        <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I102" s="17">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I103" s="17">
         <f t="shared" si="5"/>
         <v>1741.7531047341881</v>
       </c>
-      <c r="J102" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
+      <c r="J103" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
         <v>41576</v>
       </c>
-      <c r="B103" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" s="2">
+      <c r="B104" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="2">
         <v>1771.95</v>
       </c>
-      <c r="D103">
+      <c r="D104">
         <v>3358460000</v>
       </c>
-      <c r="E103" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F103" s="14">
+      <c r="E104" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F104" s="14">
+        <f>AVERAGE(C95:C104)</f>
+        <v>1749.0800000000004</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H104" s="3">
         <f t="shared" si="6"/>
-        <v>1749.0800000000004</v>
-      </c>
-      <c r="G103" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H103" s="3">
-        <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I103" s="17">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I104" s="17">
         <f t="shared" si="5"/>
         <v>1747.243449327972</v>
       </c>
-      <c r="J103" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
+      <c r="J104" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
         <v>41577</v>
       </c>
-      <c r="B104" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" s="2">
+      <c r="B105" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="2">
         <v>1763.31</v>
       </c>
-      <c r="D104">
+      <c r="D105">
         <v>3523040000</v>
       </c>
-      <c r="E104" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F104" s="14">
+      <c r="E105" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F105" s="14">
+        <f>AVERAGE(C96:C105)</f>
+        <v>1753.2570000000003</v>
+      </c>
+      <c r="G105" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H105" s="3">
         <f t="shared" si="6"/>
-        <v>1753.2570000000003</v>
-      </c>
-      <c r="G104" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H104" s="3">
-        <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I104" s="17">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I105" s="17">
         <f t="shared" si="5"/>
         <v>1750.1646403592499</v>
       </c>
-      <c r="J104" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
+      <c r="J105" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
         <v>41578</v>
       </c>
-      <c r="B105" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" s="2">
+      <c r="B106" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" s="2">
         <v>1756.54</v>
       </c>
-      <c r="D105">
+      <c r="D106">
         <v>3826530000</v>
       </c>
-      <c r="E105" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F105" s="14">
+      <c r="E106" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F106" s="14">
+        <f>AVERAGE(C97:C106)</f>
+        <v>1755.5960000000002</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H106" s="3">
         <f t="shared" si="6"/>
-        <v>1755.5960000000002</v>
-      </c>
-      <c r="G105" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H105" s="3">
-        <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I105" s="17">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I106" s="17">
         <f t="shared" si="5"/>
         <v>1751.3237966575682</v>
       </c>
-      <c r="J105" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
+      <c r="J106" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
         <v>41579</v>
       </c>
-      <c r="B106" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" s="2">
+      <c r="B107" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="2">
         <v>1761.64</v>
       </c>
-      <c r="D106">
+      <c r="D107">
         <v>3686290000</v>
       </c>
-      <c r="E106" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F106" s="14">
+      <c r="E107" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F107" s="14">
+        <f>AVERAGE(C98:C107)</f>
+        <v>1757.31</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H107" s="3">
         <f t="shared" si="6"/>
-        <v>1757.31</v>
-      </c>
-      <c r="G106" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H106" s="3">
-        <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I106" s="17">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I107" s="17">
         <f t="shared" si="5"/>
         <v>1753.1994699925558</v>
       </c>
-      <c r="J106" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>41582</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" s="2">
-        <v>1767.93</v>
-      </c>
-      <c r="D107">
-        <v>3194870000</v>
-      </c>
-      <c r="E107" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F107" s="14">
-        <f t="shared" si="6"/>
-        <v>1759.6369999999999</v>
-      </c>
-      <c r="G107" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H107" s="3">
-        <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I107" s="17">
-        <f t="shared" ref="I107:I112" si="8">H107*(C107-I106)+I106</f>
-        <v>1755.8777481757274</v>
-      </c>
       <c r="J107" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
+        <v>41582</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="2">
+        <v>1767.93</v>
+      </c>
+      <c r="D108">
+        <v>3194870000</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F108" s="14">
+        <f>AVERAGE(C99:C108)</f>
+        <v>1759.6369999999999</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H108" s="3">
+        <f t="shared" si="6"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I108" s="17">
+        <f t="shared" ref="I108:I113" si="8">H108*(C108-I107)+I107</f>
+        <v>1755.8777481757274</v>
+      </c>
+      <c r="J108" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
         <v>41583</v>
       </c>
-      <c r="B108" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" s="2">
+      <c r="B109" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" s="2">
         <v>1762.97</v>
       </c>
-      <c r="D108">
+      <c r="D109">
         <v>3516680000</v>
       </c>
-      <c r="E108" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F108" s="14">
+      <c r="E109" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F109" s="14">
+        <f t="shared" si="7"/>
+        <v>1760.4669999999999</v>
+      </c>
+      <c r="G109" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H109" s="3">
         <f t="shared" si="6"/>
-        <v>1760.4669999999999</v>
-      </c>
-      <c r="G108" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H108" s="3">
-        <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I108" s="17">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I109" s="17">
         <f t="shared" si="8"/>
         <v>1757.1672485074134</v>
       </c>
-      <c r="J108" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
+      <c r="J109" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
         <v>41584</v>
       </c>
-      <c r="B109" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" s="2">
+      <c r="B110" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" s="2">
         <v>1770.49</v>
       </c>
-      <c r="D109">
+      <c r="D110">
         <v>3322100000</v>
       </c>
-      <c r="E109" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F109" s="14">
+      <c r="E110" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F110" s="14">
+        <f t="shared" si="7"/>
+        <v>1762.8779999999999</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H110" s="3">
         <f t="shared" si="6"/>
-        <v>1762.8779999999999</v>
-      </c>
-      <c r="G109" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H109" s="3">
-        <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I109" s="17">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I110" s="17">
         <f t="shared" si="8"/>
         <v>1759.5895669606109</v>
       </c>
-      <c r="J109" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
+      <c r="J110" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
         <v>41585</v>
       </c>
-      <c r="B110" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C110" s="2">
+      <c r="B111" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" s="2">
         <v>1747.15</v>
       </c>
-      <c r="D110">
+      <c r="D111">
         <v>4143200000</v>
       </c>
-      <c r="E110" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F110" s="14">
+      <c r="E111" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F111" s="14">
+        <f t="shared" si="7"/>
+        <v>1762.386</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H111" s="3">
         <f t="shared" si="6"/>
-        <v>1762.386</v>
-      </c>
-      <c r="G110" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H110" s="3">
-        <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I110" s="17">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I111" s="17">
         <f t="shared" si="8"/>
         <v>1757.327827513227</v>
       </c>
-      <c r="J110" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
+      <c r="J111" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
         <v>41586</v>
       </c>
-      <c r="B111" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" s="2">
+      <c r="B112" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" s="2">
         <v>1770.61</v>
       </c>
-      <c r="D111">
+      <c r="D112">
         <v>3837170000</v>
       </c>
-      <c r="E111" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F111" s="14">
+      <c r="E112" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F112" s="14">
+        <f t="shared" si="7"/>
+        <v>1763.4699999999998</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H112" s="3">
         <f t="shared" si="6"/>
-        <v>1763.4699999999998</v>
-      </c>
-      <c r="G111" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H111" s="3">
-        <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I111" s="17">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I112" s="17">
         <f t="shared" si="8"/>
         <v>1759.7427679653676</v>
       </c>
-      <c r="J111" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
+      <c r="J112" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
         <v>41589</v>
       </c>
-      <c r="B112" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" s="2">
+      <c r="B113" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" s="2">
         <v>1771.89</v>
       </c>
-      <c r="D112">
+      <c r="D113">
         <v>2534060000</v>
       </c>
-      <c r="E112" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F112" s="14">
+      <c r="E113" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F113" s="14">
+        <f t="shared" si="7"/>
+        <v>1764.4479999999999</v>
+      </c>
+      <c r="G113" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H113" s="3">
         <f t="shared" si="6"/>
-        <v>1764.4479999999999</v>
-      </c>
-      <c r="G112" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H112" s="3">
-        <f t="shared" si="7"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="I112" s="17">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I113" s="17">
         <f t="shared" si="8"/>
         <v>1761.9513556080281</v>
       </c>
-      <c r="J112" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F113" s="14">
-        <f>COUNTIF(F2:F112, "&gt;0")</f>
+      <c r="J113" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C114" s="2">
+        <f>COUNT(C2:C113)</f>
+        <v>112</v>
+      </c>
+      <c r="F114" s="14">
+        <f>COUNTIF(F2:F113, "&gt;0")</f>
         <v>102</v>
       </c>
-      <c r="G113" s="14"/>
-      <c r="H113" s="14">
-        <f t="shared" ref="H113:I113" si="9">COUNTIF(H2:H112, "&gt;0")</f>
+      <c r="G114" s="14"/>
+      <c r="H114" s="14">
+        <f t="shared" ref="H114:I114" si="9">COUNTIF(H2:H113, "&gt;0")</f>
         <v>111</v>
       </c>
-      <c r="I113" s="14">
+      <c r="I114" s="14">
         <f t="shared" si="9"/>
         <v>102</v>
       </c>

--- a/sources/Tests/Indicators.xlsx
+++ b/sources/Tests/Indicators.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -57,6 +57,9 @@
   <si>
     <t>http://finance.yahoo.com/echarts?s=^GSPC+Interactive#symbol=^gspc;range=1y;compare=;indicator=bollinger+sma%2810%29+ema%2810%29;charttype=area;crosshair=on;ohlcvalues=0;logscale=off;source=undefined;</t>
   </si>
+  <si>
+    <t>StDevP</t>
+  </si>
 </sst>
 </file>
 
@@ -67,7 +70,7 @@
     <numFmt numFmtId="167" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="168" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,8 +254,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,6 +482,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -630,7 +660,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -658,14 +688,17 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="168" fontId="23" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="18" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="18" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -991,13 +1024,13 @@
   <dimension ref="A1:I113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="34" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="37" customWidth="1"/>
     <col min="2" max="2" width="2" style="7" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="2.5703125" style="9" customWidth="1"/>
@@ -1009,7 +1042,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="21"/>
@@ -1020,7 +1053,7 @@
       <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6"/>
@@ -1041,7 +1074,7 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34">
+      <c r="A3" s="37">
         <v>41435</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1071,7 +1104,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34">
+      <c r="A4" s="37">
         <v>41436</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1101,7 +1134,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34">
+      <c r="A5" s="37">
         <v>41437</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1131,7 +1164,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34">
+      <c r="A6" s="37">
         <v>41438</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1161,7 +1194,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34">
+      <c r="A7" s="37">
         <v>41439</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1191,7 +1224,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
+      <c r="A8" s="37">
         <v>41442</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1221,7 +1254,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
+      <c r="A9" s="37">
         <v>41443</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1251,7 +1284,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="34">
+      <c r="A10" s="37">
         <v>41444</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1281,7 +1314,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="34">
+      <c r="A11" s="37">
         <v>41445</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1311,7 +1344,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="34">
+      <c r="A12" s="37">
         <v>41446</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1343,7 +1376,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="34">
+      <c r="A13" s="37">
         <v>41449</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1375,7 +1408,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
+      <c r="A14" s="37">
         <v>41450</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1407,7 +1440,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="34">
+      <c r="A15" s="37">
         <v>41451</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1439,7 +1472,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="34">
+      <c r="A16" s="37">
         <v>41452</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1471,7 +1504,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="34">
+      <c r="A17" s="37">
         <v>41453</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -1503,7 +1536,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="34">
+      <c r="A18" s="37">
         <v>41456</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1535,7 +1568,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="34">
+      <c r="A19" s="37">
         <v>41457</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -1567,7 +1600,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="34">
+      <c r="A20" s="37">
         <v>41458</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -1599,7 +1632,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="34">
+      <c r="A21" s="37">
         <v>41460</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -1631,7 +1664,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="34">
+      <c r="A22" s="37">
         <v>41463</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -1663,7 +1696,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="34">
+      <c r="A23" s="37">
         <v>41464</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -1695,7 +1728,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="34">
+      <c r="A24" s="37">
         <v>41465</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -1727,7 +1760,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="34">
+      <c r="A25" s="37">
         <v>41466</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -1759,7 +1792,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="34">
+      <c r="A26" s="37">
         <v>41467</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -1791,7 +1824,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="34">
+      <c r="A27" s="37">
         <v>41470</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -1849,7 +1882,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="34">
+      <c r="A29" s="37">
         <v>41471</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -1881,7 +1914,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="34">
+      <c r="A30" s="37">
         <v>41472</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -1913,7 +1946,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="34">
+      <c r="A31" s="37">
         <v>41473</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -1945,7 +1978,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="34">
+      <c r="A32" s="37">
         <v>41474</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -1977,7 +2010,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="34">
+      <c r="A33" s="37">
         <v>41477</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -2009,7 +2042,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="34">
+      <c r="A34" s="37">
         <v>41478</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -2041,7 +2074,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="34">
+      <c r="A35" s="37">
         <v>41479</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -2073,7 +2106,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="34">
+      <c r="A36" s="37">
         <v>41480</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -2105,7 +2138,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="34">
+      <c r="A37" s="37">
         <v>41481</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -2137,7 +2170,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="34">
+      <c r="A38" s="37">
         <v>41484</v>
       </c>
       <c r="B38" s="7" t="s">
@@ -2169,7 +2202,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="34">
+      <c r="A39" s="37">
         <v>41485</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -2201,7 +2234,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="34">
+      <c r="A40" s="37">
         <v>41486</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -2233,7 +2266,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="34">
+      <c r="A41" s="37">
         <v>41487</v>
       </c>
       <c r="B41" s="7" t="s">
@@ -2265,7 +2298,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="34">
+      <c r="A42" s="37">
         <v>41488</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -2297,7 +2330,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="34">
+      <c r="A43" s="37">
         <v>41491</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -2329,7 +2362,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="34">
+      <c r="A44" s="37">
         <v>41492</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -2361,7 +2394,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="34">
+      <c r="A45" s="37">
         <v>41493</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -2393,7 +2426,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="34">
+      <c r="A46" s="37">
         <v>41494</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -2425,7 +2458,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="34">
+      <c r="A47" s="37">
         <v>41495</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -2457,7 +2490,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="34">
+      <c r="A48" s="37">
         <v>41498</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -2489,7 +2522,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="34">
+      <c r="A49" s="37">
         <v>41499</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -2521,7 +2554,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="34">
+      <c r="A50" s="37">
         <v>41500</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -2553,7 +2586,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="34">
+      <c r="A51" s="37">
         <v>41501</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -2585,7 +2618,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="34">
+      <c r="A52" s="37">
         <v>41502</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -2617,7 +2650,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="34">
+      <c r="A53" s="37">
         <v>41505</v>
       </c>
       <c r="B53" s="7" t="s">
@@ -2649,7 +2682,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="34">
+      <c r="A54" s="37">
         <v>41506</v>
       </c>
       <c r="B54" s="7" t="s">
@@ -2681,7 +2714,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="34">
+      <c r="A55" s="37">
         <v>41507</v>
       </c>
       <c r="B55" s="7" t="s">
@@ -2713,7 +2746,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="34">
+      <c r="A56" s="37">
         <v>41508</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -2745,7 +2778,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="34">
+      <c r="A57" s="37">
         <v>41509</v>
       </c>
       <c r="B57" s="7" t="s">
@@ -2777,7 +2810,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="34">
+      <c r="A58" s="37">
         <v>41512</v>
       </c>
       <c r="B58" s="7" t="s">
@@ -2809,7 +2842,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="34">
+      <c r="A59" s="37">
         <v>41513</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -2841,7 +2874,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="34">
+      <c r="A60" s="37">
         <v>41514</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -2873,7 +2906,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="34">
+      <c r="A61" s="37">
         <v>41515</v>
       </c>
       <c r="B61" s="7" t="s">
@@ -2905,7 +2938,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="34">
+      <c r="A62" s="37">
         <v>41516</v>
       </c>
       <c r="B62" s="7" t="s">
@@ -2937,7 +2970,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="34">
+      <c r="A63" s="37">
         <v>41520</v>
       </c>
       <c r="B63" s="7" t="s">
@@ -2969,7 +3002,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="34">
+      <c r="A64" s="37">
         <v>41521</v>
       </c>
       <c r="B64" s="7" t="s">
@@ -3001,7 +3034,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="34">
+      <c r="A65" s="37">
         <v>41522</v>
       </c>
       <c r="B65" s="7" t="s">
@@ -3033,7 +3066,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="34">
+      <c r="A66" s="37">
         <v>41523</v>
       </c>
       <c r="B66" s="7" t="s">
@@ -3065,7 +3098,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="34">
+      <c r="A67" s="37">
         <v>41526</v>
       </c>
       <c r="B67" s="7" t="s">
@@ -3097,7 +3130,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="34">
+      <c r="A68" s="37">
         <v>41527</v>
       </c>
       <c r="B68" s="7" t="s">
@@ -3129,7 +3162,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="34">
+      <c r="A69" s="37">
         <v>41528</v>
       </c>
       <c r="B69" s="7" t="s">
@@ -3161,7 +3194,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="34">
+      <c r="A70" s="37">
         <v>41529</v>
       </c>
       <c r="B70" s="7" t="s">
@@ -3193,7 +3226,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="34">
+      <c r="A71" s="37">
         <v>41530</v>
       </c>
       <c r="B71" s="7" t="s">
@@ -3225,7 +3258,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="34">
+      <c r="A72" s="37">
         <v>41533</v>
       </c>
       <c r="B72" s="7" t="s">
@@ -3257,7 +3290,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="34">
+      <c r="A73" s="37">
         <v>41534</v>
       </c>
       <c r="B73" s="7" t="s">
@@ -3289,7 +3322,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="34">
+      <c r="A74" s="37">
         <v>41535</v>
       </c>
       <c r="B74" s="7" t="s">
@@ -3321,7 +3354,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="34">
+      <c r="A75" s="37">
         <v>41536</v>
       </c>
       <c r="B75" s="7" t="s">
@@ -3353,7 +3386,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="34">
+      <c r="A76" s="37">
         <v>41537</v>
       </c>
       <c r="B76" s="7" t="s">
@@ -3385,7 +3418,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="34">
+      <c r="A77" s="37">
         <v>41540</v>
       </c>
       <c r="B77" s="7" t="s">
@@ -3417,7 +3450,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="34">
+      <c r="A78" s="37">
         <v>41541</v>
       </c>
       <c r="B78" s="7" t="s">
@@ -3449,7 +3482,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="34">
+      <c r="A79" s="37">
         <v>41542</v>
       </c>
       <c r="B79" s="7" t="s">
@@ -3481,7 +3514,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="34">
+      <c r="A80" s="37">
         <v>41543</v>
       </c>
       <c r="B80" s="7" t="s">
@@ -3513,7 +3546,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="34">
+      <c r="A81" s="37">
         <v>41544</v>
       </c>
       <c r="B81" s="7" t="s">
@@ -3545,7 +3578,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="34">
+      <c r="A82" s="37">
         <v>41547</v>
       </c>
       <c r="B82" s="7" t="s">
@@ -3577,7 +3610,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="34">
+      <c r="A83" s="37">
         <v>41548</v>
       </c>
       <c r="B83" s="7" t="s">
@@ -3609,7 +3642,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="34">
+      <c r="A84" s="37">
         <v>41549</v>
       </c>
       <c r="B84" s="7" t="s">
@@ -3641,7 +3674,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="34">
+      <c r="A85" s="37">
         <v>41550</v>
       </c>
       <c r="B85" s="7" t="s">
@@ -3673,7 +3706,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="34">
+      <c r="A86" s="37">
         <v>41551</v>
       </c>
       <c r="B86" s="7" t="s">
@@ -3705,7 +3738,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="34">
+      <c r="A87" s="37">
         <v>41554</v>
       </c>
       <c r="B87" s="7" t="s">
@@ -3737,7 +3770,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="34">
+      <c r="A88" s="37">
         <v>41555</v>
       </c>
       <c r="B88" s="7" t="s">
@@ -3769,7 +3802,7 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="34">
+      <c r="A89" s="37">
         <v>41556</v>
       </c>
       <c r="B89" s="7" t="s">
@@ -3801,7 +3834,7 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="34">
+      <c r="A90" s="37">
         <v>41557</v>
       </c>
       <c r="B90" s="7" t="s">
@@ -3833,7 +3866,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="34">
+      <c r="A91" s="37">
         <v>41558</v>
       </c>
       <c r="B91" s="7" t="s">
@@ -3865,7 +3898,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="34">
+      <c r="A92" s="37">
         <v>41561</v>
       </c>
       <c r="B92" s="7" t="s">
@@ -3897,7 +3930,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="34">
+      <c r="A93" s="37">
         <v>41562</v>
       </c>
       <c r="B93" s="7" t="s">
@@ -3929,7 +3962,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="34">
+      <c r="A94" s="37">
         <v>41563</v>
       </c>
       <c r="B94" s="7" t="s">
@@ -3961,7 +3994,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="34">
+      <c r="A95" s="37">
         <v>41564</v>
       </c>
       <c r="B95" s="7" t="s">
@@ -3993,7 +4026,7 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="34">
+      <c r="A96" s="37">
         <v>41565</v>
       </c>
       <c r="B96" s="7" t="s">
@@ -4025,7 +4058,7 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="34">
+      <c r="A97" s="37">
         <v>41568</v>
       </c>
       <c r="B97" s="7" t="s">
@@ -4057,7 +4090,7 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="34">
+      <c r="A98" s="37">
         <v>41569</v>
       </c>
       <c r="B98" s="7" t="s">
@@ -4089,7 +4122,7 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="34">
+      <c r="A99" s="37">
         <v>41570</v>
       </c>
       <c r="B99" s="7" t="s">
@@ -4121,7 +4154,7 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="34">
+      <c r="A100" s="37">
         <v>41571</v>
       </c>
       <c r="B100" s="7" t="s">
@@ -4153,7 +4186,7 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="34">
+      <c r="A101" s="37">
         <v>41572</v>
       </c>
       <c r="B101" s="7" t="s">
@@ -4185,7 +4218,7 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="34">
+      <c r="A102" s="37">
         <v>41575</v>
       </c>
       <c r="B102" s="7" t="s">
@@ -4217,7 +4250,7 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="34">
+      <c r="A103" s="37">
         <v>41576</v>
       </c>
       <c r="B103" s="7" t="s">
@@ -4249,7 +4282,7 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="34">
+      <c r="A104" s="37">
         <v>41577</v>
       </c>
       <c r="B104" s="7" t="s">
@@ -4281,7 +4314,7 @@
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="34">
+      <c r="A105" s="37">
         <v>41578</v>
       </c>
       <c r="B105" s="7" t="s">
@@ -4313,7 +4346,7 @@
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="34">
+      <c r="A106" s="37">
         <v>41579</v>
       </c>
       <c r="B106" s="7" t="s">
@@ -4345,7 +4378,7 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="34">
+      <c r="A107" s="37">
         <v>41582</v>
       </c>
       <c r="B107" s="7" t="s">
@@ -4377,7 +4410,7 @@
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="34">
+      <c r="A108" s="37">
         <v>41583</v>
       </c>
       <c r="B108" s="7" t="s">
@@ -4409,7 +4442,7 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="34">
+      <c r="A109" s="37">
         <v>41584</v>
       </c>
       <c r="B109" s="7" t="s">
@@ -4441,7 +4474,7 @@
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="34">
+      <c r="A110" s="37">
         <v>41585</v>
       </c>
       <c r="B110" s="7" t="s">
@@ -4473,7 +4506,7 @@
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="34">
+      <c r="A111" s="37">
         <v>41586</v>
       </c>
       <c r="B111" s="7" t="s">
@@ -4505,7 +4538,7 @@
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="34">
+      <c r="A112" s="37">
         <v>41589</v>
       </c>
       <c r="B112" s="7" t="s">
@@ -4569,15 +4602,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J113"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:J112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="34" customWidth="1"/>
     <col min="2" max="2" width="2" style="7" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="2.140625" style="9" customWidth="1"/>
@@ -4587,9 +4620,10 @@
     <col min="8" max="8" width="2.140625" style="9" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="12"/>
     <col min="10" max="10" width="2.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>10</v>
       </c>
@@ -4601,9 +4635,10 @@
       <c r="H1" s="24"/>
       <c r="I1" s="25"/>
       <c r="J1" s="26"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="K1" s="35"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6"/>
@@ -4622,9 +4657,12 @@
       <c r="I2" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="30">
+      <c r="K2" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="34">
         <v>41435</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -4655,8 +4693,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="34">
         <v>41436</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -4687,8 +4725,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="30">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="34">
         <v>41437</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -4719,8 +4757,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="34">
         <v>41438</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -4751,8 +4789,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="34">
         <v>41439</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -4783,8 +4821,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="34">
         <v>41442</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -4815,8 +4853,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="34">
         <v>41443</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -4847,8 +4885,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="34">
         <v>41444</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -4879,8 +4917,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="34">
         <v>41445</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -4911,8 +4949,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="34">
         <v>41446</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -4943,8 +4981,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="34">
         <v>41449</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -4975,8 +5013,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="34">
         <v>41450</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -5007,8 +5045,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="34">
         <v>41451</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -5039,8 +5077,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="34">
         <v>41452</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -5071,8 +5109,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="30">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="34">
         <v>41453</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -5103,8 +5141,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="30">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="34">
         <v>41456</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -5135,8 +5173,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="34">
         <v>41457</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -5167,8 +5205,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="30">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="34">
         <v>41458</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -5199,8 +5237,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="30">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="34">
         <v>41460</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -5231,8 +5269,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="30">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="34">
         <v>41463</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -5245,29 +5283,33 @@
         <v>5</v>
       </c>
       <c r="E22" s="18">
-        <f>AVERAGE(C3:C22)</f>
-        <v>1617.2804999999998</v>
+        <f>ROUND(AVERAGE(C3:C22),2)</f>
+        <v>1617.28</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G22" s="12">
         <f>E22+(2*STDEVP(C3:C22))</f>
-        <v>1658.228786154612</v>
+        <v>1658.2282861546121</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I22" s="12">
         <f>E22-(2*STDEVP(C3:C22))</f>
-        <v>1576.3322138453877</v>
+        <v>1576.3317138453879</v>
       </c>
       <c r="J22" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
+      <c r="K22" s="31">
+        <f>STDEVP(C3:C22)</f>
+        <v>20.474143077306067</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="34">
         <v>41464</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -5280,29 +5322,33 @@
         <v>5</v>
       </c>
       <c r="E23" s="18">
-        <f t="shared" ref="E23:E86" si="0">AVERAGE(C4:C23)</f>
-        <v>1617.7559999999999</v>
+        <f t="shared" ref="E23:E72" si="0">ROUND(AVERAGE(C4:C23),2)</f>
+        <v>1617.76</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G23" s="12">
         <f t="shared" ref="G23:G86" si="1">E23+(2*STDEVP(C4:C23))</f>
-        <v>1660.0769165307179</v>
+        <v>1660.080916530718</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I23" s="12">
         <f t="shared" ref="I23:I86" si="2">E23-(2*STDEVP(C4:C23))</f>
-        <v>1575.4350834692818</v>
+        <v>1575.439083469282</v>
       </c>
       <c r="J23" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="30">
+      <c r="K23" s="31">
+        <f t="shared" ref="K23:K86" si="3">STDEVP(C4:C23)</f>
+        <v>21.160458265358997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="34">
         <v>41465</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -5316,28 +5362,32 @@
       </c>
       <c r="E24" s="18">
         <f t="shared" si="0"/>
-        <v>1619.0805</v>
+        <v>1619.08</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="12">
         <f t="shared" si="1"/>
-        <v>1663.9482801880147</v>
+        <v>1663.9477801880146</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="12">
         <f t="shared" si="2"/>
-        <v>1574.2127198119854</v>
+        <v>1574.2122198119853</v>
       </c>
       <c r="J24" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="30">
+      <c r="K24" s="31">
+        <f t="shared" si="3"/>
+        <v>22.43389009400731</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="34">
         <v>41466</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -5351,28 +5401,32 @@
       </c>
       <c r="E25" s="18">
         <f t="shared" si="0"/>
-        <v>1622.2054999999998</v>
+        <v>1622.21</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G25" s="12">
         <f t="shared" si="1"/>
-        <v>1673.1102414196357</v>
+        <v>1673.1147414196359</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I25" s="12">
         <f t="shared" si="2"/>
-        <v>1571.3007585803639</v>
+        <v>1571.3052585803641</v>
       </c>
       <c r="J25" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="30">
+      <c r="K25" s="31">
+        <f t="shared" si="3"/>
+        <v>25.452370709817966</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="34">
         <v>41467</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -5386,28 +5440,32 @@
       </c>
       <c r="E26" s="18">
         <f t="shared" si="0"/>
-        <v>1624.3969999999997</v>
+        <v>1624.4</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="12">
         <f t="shared" si="1"/>
-        <v>1681.004883585239</v>
+        <v>1681.0078835852394</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I26" s="12">
         <f t="shared" si="2"/>
-        <v>1567.7891164147604</v>
+        <v>1567.7921164147608</v>
       </c>
       <c r="J26" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="30">
+      <c r="K26" s="31">
+        <f t="shared" si="3"/>
+        <v>28.303941792619622</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="34">
         <v>41470</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -5421,28 +5479,32 @@
       </c>
       <c r="E27" s="18">
         <f t="shared" si="0"/>
-        <v>1627.1855</v>
+        <v>1627.19</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G27" s="12">
         <f t="shared" si="1"/>
-        <v>1689.2133380970997</v>
+        <v>1689.2178380970997</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I27" s="12">
         <f t="shared" si="2"/>
-        <v>1565.1576619029004</v>
+        <v>1565.1621619029004</v>
       </c>
       <c r="J27" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="30">
+      <c r="K27" s="31">
+        <f t="shared" si="3"/>
+        <v>31.013919048549791</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="34">
         <v>41471</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -5456,28 +5518,32 @@
       </c>
       <c r="E28" s="18">
         <f t="shared" si="0"/>
-        <v>1629.0464999999999</v>
+        <v>1629.05</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G28" s="12">
         <f t="shared" si="1"/>
-        <v>1694.5228689509429</v>
+        <v>1694.5263689509429</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I28" s="12">
         <f t="shared" si="2"/>
-        <v>1563.570131049057</v>
+        <v>1563.573631049057</v>
       </c>
       <c r="J28" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="30">
+      <c r="K28" s="31">
+        <f t="shared" si="3"/>
+        <v>32.738184475471449</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="34">
         <v>41472</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -5491,28 +5557,32 @@
       </c>
       <c r="E29" s="18">
         <f t="shared" si="0"/>
-        <v>1630.5014999999999</v>
+        <v>1630.5</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G29" s="12">
         <f t="shared" si="1"/>
-        <v>1699.1529088056463</v>
+        <v>1699.1514088056465</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I29" s="12">
         <f t="shared" si="2"/>
-        <v>1561.8500911943534</v>
+        <v>1561.8485911943535</v>
       </c>
       <c r="J29" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="30">
+      <c r="K29" s="31">
+        <f t="shared" si="3"/>
+        <v>34.325704402823263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="34">
         <v>41473</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -5526,28 +5596,32 @@
       </c>
       <c r="E30" s="18">
         <f t="shared" si="0"/>
-        <v>1633.5234999999998</v>
+        <v>1633.52</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G30" s="12">
         <f t="shared" si="1"/>
-        <v>1706.7975890833859</v>
+        <v>1706.7940890833861</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I30" s="12">
         <f t="shared" si="2"/>
-        <v>1560.2494109166137</v>
+        <v>1560.2459109166139</v>
       </c>
       <c r="J30" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="30">
+      <c r="K30" s="31">
+        <f t="shared" si="3"/>
+        <v>36.637044541693037</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="34">
         <v>41474</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -5561,28 +5635,32 @@
       </c>
       <c r="E31" s="18">
         <f t="shared" si="0"/>
-        <v>1638.7184999999997</v>
+        <v>1638.72</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G31" s="12">
         <f t="shared" si="1"/>
-        <v>1713.1236192526426</v>
+        <v>1713.1251192526429</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I31" s="12">
         <f t="shared" si="2"/>
-        <v>1564.3133807473569</v>
+        <v>1564.3148807473572</v>
       </c>
       <c r="J31" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="30">
+      <c r="K31" s="31">
+        <f t="shared" si="3"/>
+        <v>37.20255962632141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="34">
         <v>41477</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -5596,28 +5674,32 @@
       </c>
       <c r="E32" s="18">
         <f t="shared" si="0"/>
-        <v>1643.8734999999997</v>
+        <v>1643.87</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G32" s="12">
         <f t="shared" si="1"/>
-        <v>1719.0187588723995</v>
+        <v>1719.0152588723997</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I32" s="12">
         <f t="shared" si="2"/>
-        <v>1568.7282411275999</v>
+        <v>1568.7247411276001</v>
       </c>
       <c r="J32" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="30">
+      <c r="K32" s="31">
+        <f t="shared" si="3"/>
+        <v>37.572629436199961</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="34">
         <v>41478</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -5631,28 +5713,32 @@
       </c>
       <c r="E33" s="18">
         <f t="shared" si="0"/>
-        <v>1649.8384999999998</v>
+        <v>1649.84</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="12">
         <f t="shared" si="1"/>
-        <v>1720.359379255721</v>
+        <v>1720.3608792557211</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I33" s="12">
         <f t="shared" si="2"/>
-        <v>1579.3176207442787</v>
+        <v>1579.3191207442787</v>
       </c>
       <c r="J33" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="30">
+      <c r="K33" s="31">
+        <f t="shared" si="3"/>
+        <v>35.260439627860563</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="34">
         <v>41479</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -5666,28 +5752,32 @@
       </c>
       <c r="E34" s="18">
         <f t="shared" si="0"/>
-        <v>1654.7339999999997</v>
+        <v>1654.73</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G34" s="12">
         <f t="shared" si="1"/>
-        <v>1720.8697411389633</v>
+        <v>1720.8657411389636</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I34" s="12">
         <f t="shared" si="2"/>
-        <v>1588.5982588610361</v>
+        <v>1588.5942588610365</v>
       </c>
       <c r="J34" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="30">
+      <c r="K34" s="31">
+        <f t="shared" si="3"/>
+        <v>33.067870569481791</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="34">
         <v>41480</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -5701,28 +5791,32 @@
       </c>
       <c r="E35" s="18">
         <f t="shared" si="0"/>
-        <v>1659.0834999999995</v>
+        <v>1659.08</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G35" s="12">
         <f t="shared" si="1"/>
-        <v>1722.4919093082292</v>
+        <v>1722.4884093082296</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I35" s="12">
         <f t="shared" si="2"/>
-        <v>1595.6750906917698</v>
+        <v>1595.6715906917702</v>
       </c>
       <c r="J35" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="30">
+      <c r="K35" s="31">
+        <f t="shared" si="3"/>
+        <v>31.704204654114875</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="34">
         <v>41481</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -5736,28 +5830,32 @@
       </c>
       <c r="E36" s="18">
         <f t="shared" si="0"/>
-        <v>1663.0059999999999</v>
+        <v>1663.01</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G36" s="12">
         <f t="shared" si="1"/>
-        <v>1724.244375354021</v>
+        <v>1724.2483753540212</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I36" s="12">
         <f t="shared" si="2"/>
-        <v>1601.7676246459787</v>
+        <v>1601.7716246459788</v>
       </c>
       <c r="J36" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="30">
+      <c r="K36" s="31">
+        <f t="shared" si="3"/>
+        <v>30.619187677010636</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="34">
         <v>41484</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -5771,28 +5869,32 @@
       </c>
       <c r="E37" s="18">
         <f t="shared" si="0"/>
-        <v>1666.9585</v>
+        <v>1666.96</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G37" s="12">
         <f t="shared" si="1"/>
-        <v>1723.0276891416311</v>
+        <v>1723.0291891416312</v>
       </c>
       <c r="H37" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I37" s="12">
         <f t="shared" si="2"/>
-        <v>1610.8893108583688</v>
+        <v>1610.8908108583689</v>
       </c>
       <c r="J37" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="30">
+      <c r="K37" s="31">
+        <f t="shared" si="3"/>
+        <v>28.034594570815532</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="34">
         <v>41485</v>
       </c>
       <c r="B38" s="7" t="s">
@@ -5806,28 +5908,32 @@
       </c>
       <c r="E38" s="18">
         <f t="shared" si="0"/>
-        <v>1670.5084999999999</v>
+        <v>1670.51</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G38" s="12">
         <f t="shared" si="1"/>
-        <v>1721.7411709336923</v>
+        <v>1721.7426709336924</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I38" s="12">
         <f t="shared" si="2"/>
-        <v>1619.2758290663076</v>
+        <v>1619.2773290663076</v>
       </c>
       <c r="J38" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="30">
+      <c r="K38" s="31">
+        <f t="shared" si="3"/>
+        <v>25.616335466846149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="34">
         <v>41486</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -5841,28 +5947,32 @@
       </c>
       <c r="E39" s="18">
         <f t="shared" si="0"/>
-        <v>1674.0909999999999</v>
+        <v>1674.09</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G39" s="12">
         <f t="shared" si="1"/>
-        <v>1718.6213608339299</v>
+        <v>1718.6203608339299</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I39" s="12">
         <f t="shared" si="2"/>
-        <v>1629.5606391660699</v>
+        <v>1629.5596391660699</v>
       </c>
       <c r="J39" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="30">
+      <c r="K39" s="31">
+        <f t="shared" si="3"/>
+        <v>22.265180416964952</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="34">
         <v>41487</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -5876,28 +5986,32 @@
       </c>
       <c r="E40" s="18">
         <f t="shared" si="0"/>
-        <v>1678.664</v>
+        <v>1678.66</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G40" s="12">
         <f t="shared" si="1"/>
-        <v>1716.419851678912</v>
+        <v>1716.4158516789121</v>
       </c>
       <c r="H40" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I40" s="12">
         <f t="shared" si="2"/>
-        <v>1640.908148321088</v>
+        <v>1640.9041483210881</v>
       </c>
       <c r="J40" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="30">
+      <c r="K40" s="31">
+        <f t="shared" si="3"/>
+        <v>18.877925839455976</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="34">
         <v>41488</v>
       </c>
       <c r="B41" s="7" t="s">
@@ -5911,28 +6025,32 @@
       </c>
       <c r="E41" s="18">
         <f t="shared" si="0"/>
-        <v>1682.5529999999999</v>
+        <v>1682.55</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G41" s="12">
         <f t="shared" si="1"/>
-        <v>1716.0152181571993</v>
+        <v>1716.0122181571992</v>
       </c>
       <c r="H41" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I41" s="12">
         <f t="shared" si="2"/>
-        <v>1649.0907818428004</v>
+        <v>1649.0877818428007</v>
       </c>
       <c r="J41" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="30">
+      <c r="K41" s="31">
+        <f t="shared" si="3"/>
+        <v>16.731109078599673</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="34">
         <v>41491</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -5946,28 +6064,32 @@
       </c>
       <c r="E42" s="18">
         <f t="shared" si="0"/>
-        <v>1685.8869999999995</v>
+        <v>1685.89</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G42" s="12">
         <f t="shared" si="1"/>
-        <v>1714.9007519807415</v>
+        <v>1714.9037519807421</v>
       </c>
       <c r="H42" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I42" s="12">
         <f t="shared" si="2"/>
-        <v>1656.8732480192575</v>
+        <v>1656.8762480192581</v>
       </c>
       <c r="J42" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="30">
+      <c r="K42" s="31">
+        <f t="shared" si="3"/>
+        <v>14.506875990370935</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="34">
         <v>41492</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -5981,28 +6103,32 @@
       </c>
       <c r="E43" s="18">
         <f t="shared" si="0"/>
-        <v>1688.1395</v>
+        <v>1688.14</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G43" s="12">
         <f t="shared" si="1"/>
-        <v>1713.0899697150173</v>
+        <v>1713.0904697150174</v>
       </c>
       <c r="H43" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I43" s="12">
         <f t="shared" si="2"/>
-        <v>1663.1890302849827</v>
+        <v>1663.1895302849828</v>
       </c>
       <c r="J43" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="30">
+      <c r="K43" s="31">
+        <f t="shared" si="3"/>
+        <v>12.47523485750871</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="34">
         <v>41493</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -6016,28 +6142,32 @@
       </c>
       <c r="E44" s="18">
         <f t="shared" si="0"/>
-        <v>1690.0539999999996</v>
+        <v>1690.05</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G44" s="12">
         <f t="shared" si="1"/>
-        <v>1708.9503715035451</v>
+        <v>1708.9463715035454</v>
       </c>
       <c r="H44" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I44" s="12">
         <f t="shared" si="2"/>
-        <v>1671.1576284964542</v>
+        <v>1671.1536284964545</v>
       </c>
       <c r="J44" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="30">
+      <c r="K44" s="31">
+        <f t="shared" si="3"/>
+        <v>9.4481857517726642</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="34">
         <v>41494</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -6051,28 +6181,32 @@
       </c>
       <c r="E45" s="18">
         <f t="shared" si="0"/>
-        <v>1691.1770000000001</v>
+        <v>1691.18</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G45" s="12">
         <f t="shared" si="1"/>
-        <v>1709.0054380695562</v>
+        <v>1709.0084380695562</v>
       </c>
       <c r="H45" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I45" s="12">
         <f t="shared" si="2"/>
-        <v>1673.348561930444</v>
+        <v>1673.3515619304439</v>
       </c>
       <c r="J45" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="30">
+      <c r="K45" s="31">
+        <f t="shared" si="3"/>
+        <v>8.9142190347780854</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="34">
         <v>41495</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -6086,28 +6220,32 @@
       </c>
       <c r="E46" s="18">
         <f t="shared" si="0"/>
-        <v>1691.7384999999999</v>
+        <v>1691.74</v>
       </c>
       <c r="F46" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G46" s="12">
         <f t="shared" si="1"/>
-        <v>1708.8399926541515</v>
+        <v>1708.8414926541516</v>
       </c>
       <c r="H46" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I46" s="12">
         <f t="shared" si="2"/>
-        <v>1674.6370073458484</v>
+        <v>1674.6385073458484</v>
       </c>
       <c r="J46" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="30">
+      <c r="K46" s="31">
+        <f t="shared" si="3"/>
+        <v>8.5507463270757817</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="34">
         <v>41498</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -6121,28 +6259,32 @@
       </c>
       <c r="E47" s="18">
         <f t="shared" si="0"/>
-        <v>1692.087</v>
+        <v>1692.09</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G47" s="12">
         <f t="shared" si="1"/>
-        <v>1708.6982758089196</v>
+        <v>1708.7012758089195</v>
       </c>
       <c r="H47" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I47" s="12">
         <f t="shared" si="2"/>
-        <v>1675.4757241910804</v>
+        <v>1675.4787241910803</v>
       </c>
       <c r="J47" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="30">
+      <c r="K47" s="31">
+        <f t="shared" si="3"/>
+        <v>8.3056379044598359</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="34">
         <v>41499</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -6156,28 +6298,32 @@
       </c>
       <c r="E48" s="18">
         <f t="shared" si="0"/>
-        <v>1692.982</v>
+        <v>1692.98</v>
       </c>
       <c r="F48" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G48" s="12">
         <f t="shared" si="1"/>
-        <v>1707.9316175201909</v>
+        <v>1707.929617520191</v>
       </c>
       <c r="H48" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I48" s="12">
         <f t="shared" si="2"/>
-        <v>1678.032382479809</v>
+        <v>1678.0303824798091</v>
       </c>
       <c r="J48" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="30">
+      <c r="K48" s="31">
+        <f t="shared" si="3"/>
+        <v>7.4748087600954678</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="34">
         <v>41500</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -6191,28 +6337,32 @@
       </c>
       <c r="E49" s="18">
         <f t="shared" si="0"/>
-        <v>1693.2060000000001</v>
+        <v>1693.21</v>
       </c>
       <c r="F49" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G49" s="12">
         <f t="shared" si="1"/>
-        <v>1707.5472487601326</v>
+        <v>1707.5512487601325</v>
       </c>
       <c r="H49" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I49" s="12">
         <f t="shared" si="2"/>
-        <v>1678.8647512398677</v>
+        <v>1678.8687512398676</v>
       </c>
       <c r="J49" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="30">
+      <c r="K49" s="31">
+        <f t="shared" si="3"/>
+        <v>7.1706243800662133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="34">
         <v>41501</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -6226,28 +6376,32 @@
       </c>
       <c r="E50" s="18">
         <f t="shared" si="0"/>
-        <v>1691.8035</v>
+        <v>1691.8</v>
       </c>
       <c r="F50" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G50" s="12">
         <f t="shared" si="1"/>
-        <v>1711.758544750639</v>
+        <v>1711.7550447506389</v>
       </c>
       <c r="H50" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I50" s="12">
         <f t="shared" si="2"/>
-        <v>1671.848455249361</v>
+        <v>1671.844955249361</v>
       </c>
       <c r="J50" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="30">
+      <c r="K50" s="31">
+        <f t="shared" si="3"/>
+        <v>9.9775223753194435</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="34">
         <v>41502</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -6261,28 +6415,32 @@
       </c>
       <c r="E51" s="18">
         <f t="shared" si="0"/>
-        <v>1689.9904999999999</v>
+        <v>1689.99</v>
       </c>
       <c r="F51" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G51" s="12">
         <f t="shared" si="1"/>
-        <v>1715.3648582973046</v>
+        <v>1715.3643582973048</v>
       </c>
       <c r="H51" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I51" s="12">
         <f t="shared" si="2"/>
-        <v>1664.6161417026951</v>
+        <v>1664.6156417026953</v>
       </c>
       <c r="J51" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="30">
+      <c r="K51" s="31">
+        <f t="shared" si="3"/>
+        <v>12.687179148652412</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="34">
         <v>41505</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -6296,28 +6454,32 @@
       </c>
       <c r="E52" s="18">
         <f t="shared" si="0"/>
-        <v>1687.5169999999998</v>
+        <v>1687.52</v>
       </c>
       <c r="F52" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G52" s="12">
         <f t="shared" si="1"/>
-        <v>1719.1275331179338</v>
+        <v>1719.130533117934</v>
       </c>
       <c r="H52" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I52" s="12">
         <f t="shared" si="2"/>
-        <v>1655.9064668820658</v>
+        <v>1655.909466882066</v>
       </c>
       <c r="J52" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="30">
+      <c r="K52" s="31">
+        <f t="shared" si="3"/>
+        <v>15.805266558967009</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="34">
         <v>41506</v>
       </c>
       <c r="B53" s="7" t="s">
@@ -6331,28 +6493,32 @@
       </c>
       <c r="E53" s="18">
         <f t="shared" si="0"/>
-        <v>1685.5150000000001</v>
+        <v>1685.52</v>
       </c>
       <c r="F53" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G53" s="12">
         <f t="shared" si="1"/>
-        <v>1720.526257332464</v>
+        <v>1720.5312573324638</v>
       </c>
       <c r="H53" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I53" s="12">
         <f t="shared" si="2"/>
-        <v>1650.5037426675362</v>
+        <v>1650.5087426675361</v>
       </c>
       <c r="J53" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="30">
+      <c r="K53" s="31">
+        <f t="shared" si="3"/>
+        <v>17.505628666231932</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="34">
         <v>41507</v>
       </c>
       <c r="B54" s="7" t="s">
@@ -6366,28 +6532,32 @@
       </c>
       <c r="E54" s="18">
         <f t="shared" si="0"/>
-        <v>1683.3579999999997</v>
+        <v>1683.36</v>
       </c>
       <c r="F54" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G54" s="12">
         <f t="shared" si="1"/>
-        <v>1723.0071571663254</v>
+        <v>1723.0091571663256</v>
       </c>
       <c r="H54" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I54" s="12">
         <f t="shared" si="2"/>
-        <v>1643.708842833674</v>
+        <v>1643.7108428336742</v>
       </c>
       <c r="J54" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="30">
+      <c r="K54" s="31">
+        <f t="shared" si="3"/>
+        <v>19.824578583162907</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="34">
         <v>41508</v>
       </c>
       <c r="B55" s="7" t="s">
@@ -6401,28 +6571,32 @@
       </c>
       <c r="E55" s="18">
         <f t="shared" si="0"/>
-        <v>1681.6934999999999</v>
+        <v>1681.69</v>
       </c>
       <c r="F55" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G55" s="12">
         <f t="shared" si="1"/>
-        <v>1722.8133780518619</v>
+        <v>1722.8098780518621</v>
       </c>
       <c r="H55" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I55" s="12">
         <f t="shared" si="2"/>
-        <v>1640.5736219481378</v>
+        <v>1640.570121948138</v>
       </c>
       <c r="J55" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="30">
+      <c r="K55" s="31">
+        <f t="shared" si="3"/>
+        <v>20.559939025931019</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="34">
         <v>41509</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -6436,28 +6610,32 @@
       </c>
       <c r="E56" s="18">
         <f t="shared" si="0"/>
-        <v>1680.2859999999996</v>
+        <v>1680.29</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G56" s="12">
         <f t="shared" si="1"/>
-        <v>1721.8707863527031</v>
+        <v>1721.8747863527035</v>
       </c>
       <c r="H56" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I56" s="12">
         <f t="shared" si="2"/>
-        <v>1638.7012136472961</v>
+        <v>1638.7052136472964</v>
       </c>
       <c r="J56" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="30">
+      <c r="K56" s="31">
+        <f t="shared" si="3"/>
+        <v>20.792393176351805</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="34">
         <v>41512</v>
       </c>
       <c r="B57" s="7" t="s">
@@ -6471,28 +6649,32 @@
       </c>
       <c r="E57" s="18">
         <f t="shared" si="0"/>
-        <v>1678.8584999999996</v>
+        <v>1678.86</v>
       </c>
       <c r="F57" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G57" s="12">
         <f t="shared" si="1"/>
-        <v>1721.5967902208308</v>
+        <v>1721.5982902208311</v>
       </c>
       <c r="H57" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I57" s="12">
         <f t="shared" si="2"/>
-        <v>1636.1202097791684</v>
+        <v>1636.1217097791687</v>
       </c>
       <c r="J57" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="30">
+      <c r="K57" s="31">
+        <f t="shared" si="3"/>
+        <v>21.369145110415655</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="34">
         <v>41513</v>
       </c>
       <c r="B58" s="7" t="s">
@@ -6506,28 +6688,32 @@
       </c>
       <c r="E58" s="18">
         <f t="shared" si="0"/>
-        <v>1676.0845000000002</v>
+        <v>1676.08</v>
       </c>
       <c r="F58" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G58" s="12">
         <f t="shared" si="1"/>
-        <v>1723.5586059842101</v>
+        <v>1723.5541059842099</v>
       </c>
       <c r="H58" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I58" s="12">
         <f t="shared" si="2"/>
-        <v>1628.6103940157902</v>
+        <v>1628.60589401579</v>
       </c>
       <c r="J58" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="30">
+      <c r="K58" s="31">
+        <f t="shared" si="3"/>
+        <v>23.73705299210501</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="34">
         <v>41514</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -6541,28 +6727,32 @@
       </c>
       <c r="E59" s="18">
         <f t="shared" si="0"/>
-        <v>1673.5459999999998</v>
+        <v>1673.55</v>
       </c>
       <c r="F59" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G59" s="12">
         <f t="shared" si="1"/>
-        <v>1724.0202763791615</v>
+        <v>1724.0242763791616</v>
       </c>
       <c r="H59" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I59" s="12">
         <f t="shared" si="2"/>
-        <v>1623.0717236208382</v>
+        <v>1623.0757236208383</v>
       </c>
       <c r="J59" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="30">
+      <c r="K59" s="31">
+        <f t="shared" si="3"/>
+        <v>25.237138189580872</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="34">
         <v>41515</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -6576,28 +6766,32 @@
       </c>
       <c r="E60" s="18">
         <f t="shared" si="0"/>
-        <v>1670.1109999999996</v>
+        <v>1670.11</v>
       </c>
       <c r="F60" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G60" s="12">
         <f t="shared" si="1"/>
-        <v>1720.3966853985303</v>
+        <v>1720.3956853985305</v>
       </c>
       <c r="H60" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I60" s="12">
         <f t="shared" si="2"/>
-        <v>1619.825314601469</v>
+        <v>1619.8243146014693</v>
       </c>
       <c r="J60" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="30">
+      <c r="K60" s="31">
+        <f t="shared" si="3"/>
+        <v>25.142842699265358</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="34">
         <v>41516</v>
       </c>
       <c r="B61" s="7" t="s">
@@ -6611,28 +6805,32 @@
       </c>
       <c r="E61" s="18">
         <f t="shared" si="0"/>
-        <v>1666.2759999999998</v>
+        <v>1666.28</v>
       </c>
       <c r="F61" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G61" s="12">
         <f t="shared" si="1"/>
-        <v>1715.5987040621253</v>
+        <v>1715.6027040621254</v>
       </c>
       <c r="H61" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I61" s="12">
         <f t="shared" si="2"/>
-        <v>1616.9532959378744</v>
+        <v>1616.9572959378745</v>
       </c>
       <c r="J61" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="30">
+      <c r="K61" s="31">
+        <f t="shared" si="3"/>
+        <v>24.661352031062712</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="34">
         <v>41520</v>
       </c>
       <c r="B62" s="7" t="s">
@@ -6646,28 +6844,32 @@
       </c>
       <c r="E62" s="18">
         <f t="shared" si="0"/>
-        <v>1662.9074999999998</v>
+        <v>1662.91</v>
       </c>
       <c r="F62" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G62" s="12">
         <f t="shared" si="1"/>
-        <v>1709.7463970301392</v>
+        <v>1709.7488970301395</v>
       </c>
       <c r="H62" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I62" s="12">
         <f t="shared" si="2"/>
-        <v>1616.0686029698604</v>
+        <v>1616.0711029698607</v>
       </c>
       <c r="J62" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="30">
+      <c r="K62" s="31">
+        <f t="shared" si="3"/>
+        <v>23.4194485150697</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="34">
         <v>41521</v>
       </c>
       <c r="B63" s="7" t="s">
@@ -6681,28 +6883,32 @@
       </c>
       <c r="E63" s="18">
         <f t="shared" si="0"/>
-        <v>1660.6929999999998</v>
+        <v>1660.69</v>
       </c>
       <c r="F63" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G63" s="12">
         <f t="shared" si="1"/>
-        <v>1704.9202473029916</v>
+        <v>1704.9172473029919</v>
       </c>
       <c r="H63" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I63" s="12">
         <f t="shared" si="2"/>
-        <v>1616.4657526970079</v>
+        <v>1616.4627526970082</v>
       </c>
       <c r="J63" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="30">
+      <c r="K63" s="31">
+        <f t="shared" si="3"/>
+        <v>22.113623651495949</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="34">
         <v>41522</v>
       </c>
       <c r="B64" s="7" t="s">
@@ -6716,28 +6922,32 @@
       </c>
       <c r="E64" s="18">
         <f t="shared" si="0"/>
-        <v>1658.9014999999999</v>
+        <v>1658.9</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G64" s="12">
         <f t="shared" si="1"/>
-        <v>1700.9360007226207</v>
+        <v>1700.9345007226209</v>
       </c>
       <c r="H64" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I64" s="12">
         <f t="shared" si="2"/>
-        <v>1616.8669992773791</v>
+        <v>1616.8654992773793</v>
       </c>
       <c r="J64" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="30">
+      <c r="K64" s="31">
+        <f t="shared" si="3"/>
+        <v>21.017250361310371</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="34">
         <v>41523</v>
       </c>
       <c r="B65" s="7" t="s">
@@ -6751,28 +6961,32 @@
       </c>
       <c r="E65" s="18">
         <f t="shared" si="0"/>
-        <v>1656.7859999999996</v>
+        <v>1656.79</v>
       </c>
       <c r="F65" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G65" s="12">
         <f t="shared" si="1"/>
-        <v>1694.9189591823133</v>
+        <v>1694.9229591823137</v>
       </c>
       <c r="H65" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I65" s="12">
         <f t="shared" si="2"/>
-        <v>1618.6530408176859</v>
+        <v>1618.6570408176863</v>
       </c>
       <c r="J65" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="30">
+      <c r="K65" s="31">
+        <f t="shared" si="3"/>
+        <v>19.066479591156853</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="34">
         <v>41526</v>
       </c>
       <c r="B66" s="7" t="s">
@@ -6786,28 +7000,32 @@
       </c>
       <c r="E66" s="18">
         <f t="shared" si="0"/>
-        <v>1655.8004999999998</v>
+        <v>1655.8</v>
       </c>
       <c r="F66" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G66" s="12">
         <f t="shared" si="1"/>
-        <v>1691.2247868523841</v>
+        <v>1691.2242868523842</v>
       </c>
       <c r="H66" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I66" s="12">
         <f t="shared" si="2"/>
-        <v>1620.3762131476155</v>
+        <v>1620.3757131476157</v>
       </c>
       <c r="J66" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="30">
+      <c r="K66" s="31">
+        <f t="shared" si="3"/>
+        <v>17.712143426192117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="34">
         <v>41527</v>
       </c>
       <c r="B67" s="7" t="s">
@@ -6821,28 +7039,32 @@
       </c>
       <c r="E67" s="18">
         <f t="shared" si="0"/>
-        <v>1655.5264999999995</v>
+        <v>1655.53</v>
       </c>
       <c r="F67" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G67" s="12">
         <f t="shared" si="1"/>
-        <v>1689.9762072701637</v>
+        <v>1689.9797072701642</v>
       </c>
       <c r="H67" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I67" s="12">
         <f t="shared" si="2"/>
-        <v>1621.0767927298352</v>
+        <v>1621.0802927298357</v>
       </c>
       <c r="J67" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="30">
+      <c r="K67" s="31">
+        <f t="shared" si="3"/>
+        <v>17.224853635082084</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="34">
         <v>41528</v>
       </c>
       <c r="B68" s="7" t="s">
@@ -6856,28 +7078,32 @@
       </c>
       <c r="E68" s="18">
         <f t="shared" si="0"/>
-        <v>1655.2750000000001</v>
+        <v>1655.28</v>
       </c>
       <c r="F68" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G68" s="12">
         <f t="shared" si="1"/>
-        <v>1688.649524715717</v>
+        <v>1688.6545247157169</v>
       </c>
       <c r="H68" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I68" s="12">
         <f t="shared" si="2"/>
-        <v>1621.9004752842832</v>
+        <v>1621.9054752842831</v>
       </c>
       <c r="J68" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="30">
+      <c r="K68" s="31">
+        <f t="shared" si="3"/>
+        <v>16.687262357858483</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="34">
         <v>41529</v>
       </c>
       <c r="B69" s="7" t="s">
@@ -6891,28 +7117,32 @@
       </c>
       <c r="E69" s="18">
         <f t="shared" si="0"/>
-        <v>1655.1765</v>
+        <v>1655.18</v>
       </c>
       <c r="F69" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G69" s="12">
         <f t="shared" si="1"/>
-        <v>1688.2047553429636</v>
+        <v>1688.2082553429636</v>
       </c>
       <c r="H69" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I69" s="12">
         <f t="shared" si="2"/>
-        <v>1622.1482446570365</v>
+        <v>1622.1517446570365</v>
       </c>
       <c r="J69" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="30">
+      <c r="K69" s="31">
+        <f t="shared" si="3"/>
+        <v>16.514127671481788</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="34">
         <v>41530</v>
       </c>
       <c r="B70" s="7" t="s">
@@ -6926,28 +7156,32 @@
       </c>
       <c r="E70" s="18">
         <f t="shared" si="0"/>
-        <v>1656.5099999999998</v>
+        <v>1656.51</v>
       </c>
       <c r="F70" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G70" s="12">
         <f t="shared" si="1"/>
-        <v>1692.4481329509476</v>
+        <v>1692.4481329509479</v>
       </c>
       <c r="H70" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I70" s="12">
         <f t="shared" si="2"/>
-        <v>1620.5718670490519</v>
+        <v>1620.5718670490521</v>
       </c>
       <c r="J70" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="30">
+      <c r="K70" s="31">
+        <f t="shared" si="3"/>
+        <v>17.969066475473916</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="34">
         <v>41533</v>
       </c>
       <c r="B71" s="7" t="s">
@@ -6961,28 +7195,32 @@
       </c>
       <c r="E71" s="18">
         <f t="shared" si="0"/>
-        <v>1658.5985000000001</v>
+        <v>1658.6</v>
       </c>
       <c r="F71" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G71" s="12">
         <f t="shared" si="1"/>
-        <v>1698.744324328316</v>
+        <v>1698.7458243283158</v>
       </c>
       <c r="H71" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I71" s="12">
         <f t="shared" si="2"/>
-        <v>1618.4526756716841</v>
+        <v>1618.454175671684</v>
       </c>
       <c r="J71" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="30">
+      <c r="K71" s="31">
+        <f t="shared" si="3"/>
+        <v>20.072912164157948</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="34">
         <v>41534</v>
       </c>
       <c r="B72" s="7" t="s">
@@ -6996,27 +7234,31 @@
       </c>
       <c r="E72" s="18">
         <f t="shared" si="0"/>
-        <v>1661.5335</v>
+        <v>1661.53</v>
       </c>
       <c r="F72" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G72" s="12">
         <f t="shared" si="1"/>
-        <v>1705.9403050077913</v>
+        <v>1705.9368050077912</v>
       </c>
       <c r="H72" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I72" s="12">
         <f t="shared" si="2"/>
-        <v>1617.1266949922087</v>
+        <v>1617.1231949922087</v>
       </c>
       <c r="J72" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72" s="31">
+        <f t="shared" si="3"/>
+        <v>22.203402503895656</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
         <v>6</v>
       </c>
@@ -7044,9 +7286,12 @@
       <c r="J73" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="30">
+      <c r="K73" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="34">
         <v>41535</v>
       </c>
       <c r="B74" s="7" t="s">
@@ -7058,30 +7303,34 @@
       <c r="D74" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E74" s="31">
-        <f>AVERAGE(C54:C$72,C$74:C74)</f>
-        <v>1665.1919999999998</v>
+      <c r="E74" s="29">
+        <f>ROUND(AVERAGE(C54:C$72,C$74:C74), 2)</f>
+        <v>1665.19</v>
       </c>
       <c r="F74" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G74" s="15">
         <f>E74+(2*STDEVP(C54:C$72,C$74:C74))</f>
-        <v>1717.3495780112532</v>
+        <v>1717.3475780112535</v>
       </c>
       <c r="H74" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I74" s="15">
         <f>E74-(2*STDEVP(C54:C$72,C$74:C74))</f>
-        <v>1613.0344219887463</v>
+        <v>1613.0324219887466</v>
       </c>
       <c r="J74" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="30">
+      <c r="K74" s="31">
+        <f>STDEVP(C54:C$72,C$74:C74)</f>
+        <v>26.078789005626774</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="34">
         <v>41536</v>
       </c>
       <c r="B75" s="7" t="s">
@@ -7093,30 +7342,34 @@
       <c r="D75" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E75" s="31">
-        <f>AVERAGE(C55:C$72,C$74:C75)</f>
-        <v>1669.1689999999999</v>
+      <c r="E75" s="29">
+        <f>ROUND(AVERAGE(C55:C$72,C$74:C75), 2)</f>
+        <v>1669.17</v>
       </c>
       <c r="F75" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G75" s="15">
         <f>E75+(2*STDEVP(C55:C$72,C$74:C75))</f>
-        <v>1725.8262614587043</v>
+        <v>1725.8272614587045</v>
       </c>
       <c r="H75" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I75" s="15">
         <f>E75-(2*STDEVP(C55:C$72,C$74:C75))</f>
-        <v>1612.5117385412955</v>
+        <v>1612.5127385412957</v>
       </c>
       <c r="J75" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="30">
+      <c r="K75" s="31">
+        <f>STDEVP(C55:C$72,C$74:C75)</f>
+        <v>28.328630729352227</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="34">
         <v>41537</v>
       </c>
       <c r="B76" s="7" t="s">
@@ -7128,30 +7381,34 @@
       <c r="D76" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E76" s="31">
-        <f>AVERAGE(C56:C$72,C$74:C76)</f>
-        <v>1671.8165000000001</v>
+      <c r="E76" s="29">
+        <f>ROUND(AVERAGE(C56:C$72,C$74:C76), 2)</f>
+        <v>1671.82</v>
       </c>
       <c r="F76" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G76" s="15">
         <f>E76+(2*STDEVP(C56:C$72,C$74:C76))</f>
-        <v>1730.8432916373574</v>
+        <v>1730.8467916373572</v>
       </c>
       <c r="H76" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I76" s="15">
         <f>E76-(2*STDEVP(C56:C$72,C$74:C76))</f>
-        <v>1612.7897083626428</v>
+        <v>1612.7932083626426</v>
       </c>
       <c r="J76" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="30">
+      <c r="K76" s="31">
+        <f>STDEVP(C56:C$72,C$74:C76)</f>
+        <v>29.513395818678671</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="34">
         <v>41540</v>
       </c>
       <c r="B77" s="7" t="s">
@@ -7163,30 +7420,34 @@
       <c r="D77" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E77" s="31">
-        <f>AVERAGE(C57:C$72,C$74:C77)</f>
-        <v>1673.7335000000003</v>
+      <c r="E77" s="29">
+        <f>ROUND(AVERAGE(C57:C$72,C$74:C77), 2)</f>
+        <v>1673.73</v>
       </c>
       <c r="F77" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G77" s="15">
         <f>E77+(2*STDEVP(C57:C$72,C$74:C77))</f>
-        <v>1734.0320227928514</v>
+        <v>1734.0285227928512</v>
       </c>
       <c r="H77" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I77" s="15">
         <f>E77-(2*STDEVP(C57:C$72,C$74:C77))</f>
-        <v>1613.4349772071491</v>
+        <v>1613.4314772071489</v>
       </c>
       <c r="J77" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="30">
+      <c r="K77" s="31">
+        <f>STDEVP(C57:C$72,C$74:C77)</f>
+        <v>30.149261396425612</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="34">
         <v>41541</v>
       </c>
       <c r="B78" s="7" t="s">
@@ -7198,30 +7459,34 @@
       <c r="D78" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E78" s="31">
-        <f>AVERAGE(C58:C$72,C$74:C78)</f>
-        <v>1675.7655</v>
+      <c r="E78" s="29">
+        <f>ROUND(AVERAGE(C58:C$72,C$74:C78), 2)</f>
+        <v>1675.77</v>
       </c>
       <c r="F78" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G78" s="15">
         <f>E78+(2*STDEVP(C58:C$72,C$74:C78))</f>
-        <v>1736.3800327376198</v>
+        <v>1736.3845327376198</v>
       </c>
       <c r="H78" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I78" s="15">
         <f>E78-(2*STDEVP(C58:C$72,C$74:C78))</f>
-        <v>1615.1509672623802</v>
+        <v>1615.1554672623802</v>
       </c>
       <c r="J78" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="30">
+      <c r="K78" s="31">
+        <f>STDEVP(C58:C$72,C$74:C78)</f>
+        <v>30.307266368809962</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="34">
         <v>41542</v>
       </c>
       <c r="B79" s="7" t="s">
@@ -7233,30 +7498,34 @@
       <c r="D79" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E79" s="31">
-        <f>AVERAGE(C59:C$72,C$74:C79)</f>
-        <v>1678.8799999999997</v>
+      <c r="E79" s="29">
+        <f>ROUND(AVERAGE(C59:C$72,C$74:C79), 2)</f>
+        <v>1678.88</v>
       </c>
       <c r="F79" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G79" s="15">
         <f>E79+(2*STDEVP(C59:C$72,C$74:C79))</f>
-        <v>1736.1774383371539</v>
+        <v>1736.1774383371544</v>
       </c>
       <c r="H79" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I79" s="15">
         <f>E79-(2*STDEVP(C59:C$72,C$74:C79))</f>
-        <v>1621.5825616628454</v>
+        <v>1621.5825616628458</v>
       </c>
       <c r="J79" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="30">
+      <c r="K79" s="31">
+        <f>STDEVP(C59:C$72,C$74:C79)</f>
+        <v>28.648719168577145</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="34">
         <v>41543</v>
       </c>
       <c r="B80" s="7" t="s">
@@ -7268,30 +7537,34 @@
       <c r="D80" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E80" s="31">
-        <f>AVERAGE(C60:C$72,C$74:C80)</f>
-        <v>1682.0654999999999</v>
+      <c r="E80" s="29">
+        <f>ROUND(AVERAGE(C60:C$72,C$74:C80), 2)</f>
+        <v>1682.07</v>
       </c>
       <c r="F80" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G80" s="15">
         <f>E80+(2*STDEVP(C60:C$72,C$74:C80))</f>
-        <v>1736.24060811249</v>
+        <v>1736.24510811249</v>
       </c>
       <c r="H80" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I80" s="15">
         <f>E80-(2*STDEVP(C60:C$72,C$74:C80))</f>
-        <v>1627.8903918875098</v>
+        <v>1627.8948918875099</v>
       </c>
       <c r="J80" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="30">
+      <c r="K80" s="31">
+        <f>STDEVP(C60:C$72,C$74:C80)</f>
+        <v>27.087554056245086</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="34">
         <v>41544</v>
       </c>
       <c r="B81" s="7" t="s">
@@ -7303,30 +7576,34 @@
       <c r="D81" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E81" s="31">
-        <f>AVERAGE(C61:C$72,C$74:C81)</f>
-        <v>1684.7445</v>
+      <c r="E81" s="29">
+        <f>ROUND(AVERAGE(C61:C$72,C$74:C81), 2)</f>
+        <v>1684.74</v>
       </c>
       <c r="F81" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G81" s="15">
         <f>E81+(2*STDEVP(C61:C$72,C$74:C81))</f>
-        <v>1735.1392328497732</v>
+        <v>1735.1347328497732</v>
       </c>
       <c r="H81" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I81" s="15">
         <f>E81-(2*STDEVP(C61:C$72,C$74:C81))</f>
-        <v>1634.3497671502269</v>
+        <v>1634.3452671502268</v>
       </c>
       <c r="J81" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="30">
+      <c r="K81" s="31">
+        <f>STDEVP(C61:C$72,C$74:C81)</f>
+        <v>25.197366424886546</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="34">
         <v>41547</v>
       </c>
       <c r="B82" s="7" t="s">
@@ -7338,30 +7615,34 @@
       <c r="D82" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E82" s="31">
-        <f>AVERAGE(C62:C$72,C$74:C82)</f>
-        <v>1687.1735000000001</v>
+      <c r="E82" s="29">
+        <f>ROUND(AVERAGE(C62:C$72,C$74:C82), 2)</f>
+        <v>1687.17</v>
       </c>
       <c r="F82" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G82" s="15">
         <f>E82+(2*STDEVP(C62:C$72,C$74:C82))</f>
-        <v>1731.692598497162</v>
+        <v>1731.6890984971619</v>
       </c>
       <c r="H82" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I82" s="15">
         <f>E82-(2*STDEVP(C62:C$72,C$74:C82))</f>
-        <v>1642.6544015028383</v>
+        <v>1642.6509015028382</v>
       </c>
       <c r="J82" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="30">
+      <c r="K82" s="31">
+        <f>STDEVP(C62:C$72,C$74:C82)</f>
+        <v>22.259549248580932</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="34">
         <v>41548</v>
       </c>
       <c r="B83" s="7" t="s">
@@ -7373,30 +7654,34 @@
       <c r="D83" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="31">
-        <f>AVERAGE(C63:C$72,C$74:C83)</f>
-        <v>1689.9349999999999</v>
+      <c r="E83" s="29">
+        <f>ROUND(AVERAGE(C63:C$72,C$74:C83), 2)</f>
+        <v>1689.94</v>
       </c>
       <c r="F83" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G83" s="15">
         <f>E83+(2*STDEVP(C63:C$72,C$74:C83))</f>
-        <v>1728.848738704987</v>
+        <v>1728.8537387049871</v>
       </c>
       <c r="H83" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I83" s="15">
         <f>E83-(2*STDEVP(C63:C$72,C$74:C83))</f>
-        <v>1651.0212612950129</v>
+        <v>1651.026261295013</v>
       </c>
       <c r="J83" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="30">
+      <c r="K83" s="31">
+        <f>STDEVP(C63:C$72,C$74:C83)</f>
+        <v>19.456869352493477</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="34">
         <v>41549</v>
       </c>
       <c r="B84" s="7" t="s">
@@ -7408,30 +7693,34 @@
       <c r="D84" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E84" s="31">
-        <f>AVERAGE(C64:C$72,C$74:C84)</f>
-        <v>1691.9744999999998</v>
+      <c r="E84" s="29">
+        <f>ROUND(AVERAGE(C64:C$72,C$74:C84), 2)</f>
+        <v>1691.97</v>
       </c>
       <c r="F84" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G84" s="15">
         <f>E84+(2*STDEVP(C64:C$72,C$74:C84))</f>
-        <v>1727.0327295474256</v>
+        <v>1727.0282295474258</v>
       </c>
       <c r="H84" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I84" s="15">
         <f>E84-(2*STDEVP(C64:C$72,C$74:C84))</f>
-        <v>1656.9162704525741</v>
+        <v>1656.9117704525743</v>
       </c>
       <c r="J84" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="30">
+      <c r="K84" s="31">
+        <f>STDEVP(C64:C$72,C$74:C84)</f>
+        <v>17.529114773712891</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="34">
         <v>41550</v>
       </c>
       <c r="B85" s="7" t="s">
@@ -7443,30 +7732,34 @@
       <c r="D85" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E85" s="31">
-        <f>AVERAGE(C65:C$72,C$74:C85)</f>
-        <v>1693.1535000000003</v>
+      <c r="E85" s="29">
+        <f>ROUND(AVERAGE(C65:C$72,C$74:C85), 2)</f>
+        <v>1693.15</v>
       </c>
       <c r="F85" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G85" s="15">
         <f>E85+(2*STDEVP(C65:C$72,C$74:C85))</f>
-        <v>1724.5658168677514</v>
+        <v>1724.5623168677512</v>
       </c>
       <c r="H85" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I85" s="15">
         <f>E85-(2*STDEVP(C65:C$72,C$74:C85))</f>
-        <v>1661.7411831322493</v>
+        <v>1661.737683132249</v>
       </c>
       <c r="J85" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="30">
+      <c r="K85" s="31">
+        <f>STDEVP(C65:C$72,C$74:C85)</f>
+        <v>15.706158433875524</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="34">
         <v>41551</v>
       </c>
       <c r="B86" s="7" t="s">
@@ -7478,30 +7771,34 @@
       <c r="D86" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E86" s="31">
-        <f>AVERAGE(C66:C$72,C$74:C86)</f>
-        <v>1694.9200000000005</v>
+      <c r="E86" s="29">
+        <f>ROUND(AVERAGE(C66:C$72,C$74:C86), 2)</f>
+        <v>1694.92</v>
       </c>
       <c r="F86" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G86" s="15">
         <f>E86+(2*STDEVP(C66:C$72,C$74:C86))</f>
-        <v>1721.1327930598786</v>
+        <v>1721.1327930598782</v>
       </c>
       <c r="H86" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I86" s="15">
         <f>E86-(2*STDEVP(C66:C$72,C$74:C86))</f>
-        <v>1668.7072069401224</v>
+        <v>1668.707206940122</v>
       </c>
       <c r="J86" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="30">
+      <c r="K86" s="31">
+        <f>STDEVP(C66:C$72,C$74:C86)</f>
+        <v>13.106396529939092</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="34">
         <v>41554</v>
       </c>
       <c r="B87" s="7" t="s">
@@ -7513,30 +7810,34 @@
       <c r="D87" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E87" s="31">
-        <f>AVERAGE(C67:C$72,C$74:C87)</f>
-        <v>1695.1405</v>
+      <c r="E87" s="29">
+        <f>ROUND(AVERAGE(C67:C$72,C$74:C87), 2)</f>
+        <v>1695.14</v>
       </c>
       <c r="F87" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G87" s="15">
         <f>E87+(2*STDEVP(C67:C$72,C$74:C87))</f>
-        <v>1720.6329149307201</v>
+        <v>1720.6324149307202</v>
       </c>
       <c r="H87" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I87" s="15">
         <f>E87-(2*STDEVP(C67:C$72,C$74:C87))</f>
-        <v>1669.6480850692799</v>
+        <v>1669.64758506928</v>
       </c>
       <c r="J87" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="30">
+      <c r="K87" s="31">
+        <f>STDEVP(C67:C$72,C$74:C87)</f>
+        <v>12.74620746536003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="34">
         <v>41555</v>
       </c>
       <c r="B88" s="7" t="s">
@@ -7548,30 +7849,34 @@
       <c r="D88" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E88" s="31">
-        <f>AVERAGE(C68:C$72,C$74:C88)</f>
-        <v>1693.7134999999998</v>
+      <c r="E88" s="29">
+        <f>ROUND(AVERAGE(C68:C$72,C$74:C88), 2)</f>
+        <v>1693.71</v>
       </c>
       <c r="F88" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G88" s="15">
         <f>E88+(2*STDEVP(C68:C$72,C$74:C88))</f>
-        <v>1724.2408374371232</v>
+        <v>1724.2373374371234</v>
       </c>
       <c r="H88" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I88" s="15">
         <f>E88-(2*STDEVP(C68:C$72,C$74:C88))</f>
-        <v>1663.1861625628765</v>
+        <v>1663.1826625628767</v>
       </c>
       <c r="J88" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="30">
+      <c r="K88" s="31">
+        <f>STDEVP(C68:C$72,C$74:C88)</f>
+        <v>15.263668718561719</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="34">
         <v>41556</v>
       </c>
       <c r="B89" s="7" t="s">
@@ -7583,30 +7888,34 @@
       <c r="D89" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E89" s="31">
-        <f>AVERAGE(C69:C$72,C$74:C89)</f>
-        <v>1692.0769999999998</v>
+      <c r="E89" s="29">
+        <f>ROUND(AVERAGE(C69:C$72,C$74:C89), 2)</f>
+        <v>1692.08</v>
       </c>
       <c r="F89" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G89" s="15">
         <f>E89+(2*STDEVP(C69:C$72,C$74:C89))</f>
-        <v>1726.6524763380055</v>
+        <v>1726.6554763380057</v>
       </c>
       <c r="H89" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I89" s="15">
         <f>E89-(2*STDEVP(C69:C$72,C$74:C89))</f>
-        <v>1657.501523661994</v>
+        <v>1657.5045236619942</v>
       </c>
       <c r="J89" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="30">
+      <c r="K89" s="31">
+        <f>STDEVP(C69:C$72,C$74:C89)</f>
+        <v>17.287738169002886</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="34">
         <v>41557</v>
       </c>
       <c r="B90" s="7" t="s">
@@ -7618,30 +7927,34 @@
       <c r="D90" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E90" s="31">
-        <f>AVERAGE(C70:C$72,C$74:C90)</f>
-        <v>1692.5340000000001</v>
+      <c r="E90" s="29">
+        <f>ROUND(AVERAGE(C70:C$72,C$74:C90), 2)</f>
+        <v>1692.53</v>
       </c>
       <c r="F90" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G90" s="15">
         <f>E90+(2*STDEVP(C70:C$72,C$74:C90))</f>
-        <v>1726.8805587213626</v>
+        <v>1726.8765587213625</v>
       </c>
       <c r="H90" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I90" s="15">
         <f>E90-(2*STDEVP(C70:C$72,C$74:C90))</f>
-        <v>1658.1874412786376</v>
+        <v>1658.1834412786375</v>
       </c>
       <c r="J90" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="30">
+      <c r="K90" s="31">
+        <f>STDEVP(C70:C$72,C$74:C90)</f>
+        <v>17.17327936068121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="34">
         <v>41558</v>
       </c>
       <c r="B91" s="7" t="s">
@@ -7653,30 +7966,34 @@
       <c r="D91" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="31">
-        <f>AVERAGE(C71:C$72,C$74:C91)</f>
-        <v>1693.2945</v>
+      <c r="E91" s="29">
+        <f>ROUND(AVERAGE(C71:C$72,C$74:C91), 2)</f>
+        <v>1693.29</v>
       </c>
       <c r="F91" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G91" s="15">
         <f>E91+(2*STDEVP(C71:C$72,C$74:C91))</f>
-        <v>1727.877671904844</v>
+        <v>1727.873171904844</v>
       </c>
       <c r="H91" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I91" s="15">
         <f>E91-(2*STDEVP(C71:C$72,C$74:C91))</f>
-        <v>1658.711328095156</v>
+        <v>1658.706828095156</v>
       </c>
       <c r="J91" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="30">
+      <c r="K91" s="31">
+        <f>STDEVP(C71:C$72,C$74:C91)</f>
+        <v>17.291585952422047</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="34">
         <v>41561</v>
       </c>
       <c r="B92" s="7" t="s">
@@ -7688,30 +8005,34 @@
       <c r="D92" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E92" s="31">
-        <f>AVERAGE(C72:C$72,C$74:C92)</f>
-        <v>1693.9214999999999</v>
+      <c r="E92" s="29">
+        <f>ROUND(AVERAGE(C72:C$72,C$74:C92), 2)</f>
+        <v>1693.92</v>
       </c>
       <c r="F92" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G92" s="15">
         <f>E92+(2*STDEVP(C72:C$72,C$74:C92))</f>
-        <v>1729.2410409228376</v>
+        <v>1729.2395409228377</v>
       </c>
       <c r="H92" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I92" s="15">
         <f>E92-(2*STDEVP(C72:C$72,C$74:C92))</f>
-        <v>1658.6019590771623</v>
+        <v>1658.6004590771624</v>
       </c>
       <c r="J92" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="30">
+      <c r="K92" s="31">
+        <f>STDEVP(C72:C$72,C$74:C92)</f>
+        <v>17.659770461418791</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="34">
         <v>41562</v>
       </c>
       <c r="B93" s="7" t="s">
@@ -7724,29 +8045,33 @@
         <v>5</v>
       </c>
       <c r="E93" s="18">
-        <f t="shared" ref="E87:E112" si="3">AVERAGE(C74:C93)</f>
-        <v>1693.5864999999999</v>
+        <f>ROUND(AVERAGE(C74:C93),2)</f>
+        <v>1693.59</v>
       </c>
       <c r="F93" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G93" s="12">
         <f t="shared" ref="G87:G112" si="4">E93+(2*STDEVP(C74:C93))</f>
-        <v>1728.6143730584658</v>
+        <v>1728.6178730584659</v>
       </c>
       <c r="H93" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I93" s="12">
         <f t="shared" ref="I87:I112" si="5">E93-(2*STDEVP(C74:C93))</f>
-        <v>1658.5586269415339</v>
+        <v>1658.562126941534</v>
       </c>
       <c r="J93" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="30">
+      <c r="K93" s="31">
+        <f t="shared" ref="K87:K112" si="6">STDEVP(C74:C93)</f>
+        <v>17.513936529232932</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="34">
         <v>41563</v>
       </c>
       <c r="B94" s="7" t="s">
@@ -7759,29 +8084,33 @@
         <v>5</v>
       </c>
       <c r="E94" s="18">
-        <f t="shared" si="3"/>
-        <v>1693.3875</v>
+        <f t="shared" ref="E94:E112" si="7">ROUND(AVERAGE(C75:C94),2)</f>
+        <v>1693.39</v>
       </c>
       <c r="F94" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G94" s="12">
         <f t="shared" si="4"/>
-        <v>1727.7258668074066</v>
+        <v>1727.7283668074067</v>
       </c>
       <c r="H94" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I94" s="12">
         <f t="shared" si="5"/>
-        <v>1659.0491331925934</v>
+        <v>1659.0516331925935</v>
       </c>
       <c r="J94" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="30">
+      <c r="K94" s="31">
+        <f t="shared" si="6"/>
+        <v>17.169183403703265</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="34">
         <v>41564</v>
       </c>
       <c r="B95" s="7" t="s">
@@ -7794,29 +8123,33 @@
         <v>5</v>
       </c>
       <c r="E95" s="18">
-        <f t="shared" si="3"/>
-        <v>1693.9280000000003</v>
+        <f t="shared" si="7"/>
+        <v>1693.93</v>
       </c>
       <c r="F95" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G95" s="12">
         <f t="shared" si="4"/>
-        <v>1730.3493770195475</v>
+        <v>1730.3513770195473</v>
       </c>
       <c r="H95" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I95" s="12">
         <f t="shared" si="5"/>
-        <v>1657.5066229804531</v>
+        <v>1657.5086229804529</v>
       </c>
       <c r="J95" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="30">
+      <c r="K95" s="31">
+        <f t="shared" si="6"/>
+        <v>18.2106885097736</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="34">
         <v>41565</v>
       </c>
       <c r="B96" s="7" t="s">
@@ -7829,29 +8162,33 @@
         <v>5</v>
       </c>
       <c r="E96" s="18">
-        <f t="shared" si="3"/>
-        <v>1695.6575000000005</v>
+        <f t="shared" si="7"/>
+        <v>1695.66</v>
       </c>
       <c r="F96" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G96" s="12">
         <f t="shared" si="4"/>
-        <v>1737.7879236271135</v>
+        <v>1737.7904236271131</v>
       </c>
       <c r="H96" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I96" s="12">
         <f t="shared" si="5"/>
-        <v>1653.5270763728874</v>
+        <v>1653.529576372887</v>
       </c>
       <c r="J96" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="30">
+      <c r="K96" s="31">
+        <f t="shared" si="6"/>
+        <v>21.065211813556491</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="34">
         <v>41568</v>
       </c>
       <c r="B97" s="7" t="s">
@@ -7864,29 +8201,33 @@
         <v>5</v>
       </c>
       <c r="E97" s="18">
-        <f t="shared" si="3"/>
-        <v>1697.7985000000003</v>
+        <f t="shared" si="7"/>
+        <v>1697.8</v>
       </c>
       <c r="F97" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G97" s="12">
         <f t="shared" si="4"/>
-        <v>1745.0133431216288</v>
+        <v>1745.0148431216285</v>
       </c>
       <c r="H97" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I97" s="12">
         <f t="shared" si="5"/>
-        <v>1650.5836568783718</v>
+        <v>1650.5851568783714</v>
       </c>
       <c r="J97" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="30">
+      <c r="K97" s="31">
+        <f t="shared" si="6"/>
+        <v>23.607421560814309</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="34">
         <v>41569</v>
       </c>
       <c r="B98" s="7" t="s">
@@ -7899,29 +8240,33 @@
         <v>5</v>
       </c>
       <c r="E98" s="18">
-        <f t="shared" si="3"/>
-        <v>1700.6610000000005</v>
+        <f t="shared" si="7"/>
+        <v>1700.66</v>
       </c>
       <c r="F98" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G98" s="12">
         <f t="shared" si="4"/>
-        <v>1753.9837028197189</v>
+        <v>1753.9827028197185</v>
       </c>
       <c r="H98" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I98" s="12">
         <f t="shared" si="5"/>
-        <v>1647.3382971802821</v>
+        <v>1647.3372971802817</v>
       </c>
       <c r="J98" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="30">
+      <c r="K98" s="31">
+        <f t="shared" si="6"/>
+        <v>26.661351409859193</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="34">
         <v>41570</v>
       </c>
       <c r="B99" s="7" t="s">
@@ -7934,29 +8279,33 @@
         <v>5</v>
       </c>
       <c r="E99" s="18">
-        <f t="shared" si="3"/>
-        <v>1703.3415</v>
+        <f t="shared" si="7"/>
+        <v>1703.34</v>
       </c>
       <c r="F99" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G99" s="12">
         <f t="shared" si="4"/>
-        <v>1760.087972410186</v>
+        <v>1760.0864724101859</v>
       </c>
       <c r="H99" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I99" s="12">
         <f t="shared" si="5"/>
-        <v>1646.595027589814</v>
+        <v>1646.5935275898139</v>
       </c>
       <c r="J99" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="30">
+      <c r="K99" s="31">
+        <f t="shared" si="6"/>
+        <v>28.373236205093015</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="34">
         <v>41571</v>
       </c>
       <c r="B100" s="7" t="s">
@@ -7969,29 +8318,33 @@
         <v>5</v>
       </c>
       <c r="E100" s="18">
-        <f t="shared" si="3"/>
-        <v>1706.0115000000005</v>
+        <f t="shared" si="7"/>
+        <v>1706.01</v>
       </c>
       <c r="F100" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G100" s="12">
         <f t="shared" si="4"/>
-        <v>1766.5274094040572</v>
+        <v>1766.5259094040566</v>
       </c>
       <c r="H100" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I100" s="12">
         <f t="shared" si="5"/>
-        <v>1645.4955905959439</v>
+        <v>1645.4940905959434</v>
       </c>
       <c r="J100" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="30">
+      <c r="K100" s="31">
+        <f t="shared" si="6"/>
+        <v>30.257954702028368</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="34">
         <v>41572</v>
       </c>
       <c r="B101" s="7" t="s">
@@ -8004,29 +8357,33 @@
         <v>5</v>
       </c>
       <c r="E101" s="18">
-        <f t="shared" si="3"/>
-        <v>1709.4125000000004</v>
+        <f t="shared" si="7"/>
+        <v>1709.41</v>
       </c>
       <c r="F101" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G101" s="12">
         <f t="shared" si="4"/>
-        <v>1773.8580217606316</v>
+        <v>1773.8555217606313</v>
       </c>
       <c r="H101" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I101" s="12">
         <f t="shared" si="5"/>
-        <v>1644.9669782393692</v>
+        <v>1644.9644782393689</v>
       </c>
       <c r="J101" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="30">
+      <c r="K101" s="31">
+        <f t="shared" si="6"/>
+        <v>32.222760880315647</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="34">
         <v>41575</v>
       </c>
       <c r="B102" s="7" t="s">
@@ -8039,29 +8396,33 @@
         <v>5</v>
       </c>
       <c r="E102" s="18">
-        <f t="shared" si="3"/>
-        <v>1713.4405000000002</v>
+        <f t="shared" si="7"/>
+        <v>1713.44</v>
       </c>
       <c r="F102" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G102" s="12">
         <f t="shared" si="4"/>
-        <v>1780.436527188185</v>
+        <v>1780.4360271881849</v>
       </c>
       <c r="H102" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I102" s="12">
         <f t="shared" si="5"/>
-        <v>1646.4444728118153</v>
+        <v>1646.4439728118152</v>
       </c>
       <c r="J102" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="30">
+      <c r="K102" s="31">
+        <f t="shared" si="6"/>
+        <v>33.498013594092413</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="34">
         <v>41576</v>
       </c>
       <c r="B103" s="7" t="s">
@@ -8074,29 +8435,33 @@
         <v>5</v>
       </c>
       <c r="E103" s="18">
-        <f t="shared" si="3"/>
-        <v>1717.288</v>
+        <f t="shared" si="7"/>
+        <v>1717.29</v>
       </c>
       <c r="F103" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G103" s="12">
         <f t="shared" si="4"/>
-        <v>1788.3226151112258</v>
+        <v>1788.3246151112257</v>
       </c>
       <c r="H103" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I103" s="12">
         <f t="shared" si="5"/>
-        <v>1646.2533848887742</v>
+        <v>1646.2553848887742</v>
       </c>
       <c r="J103" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="30">
+      <c r="K103" s="31">
+        <f t="shared" si="6"/>
+        <v>35.517307555612945</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="34">
         <v>41577</v>
       </c>
       <c r="B104" s="7" t="s">
@@ -8109,29 +8474,33 @@
         <v>5</v>
       </c>
       <c r="E104" s="18">
-        <f t="shared" si="3"/>
-        <v>1720.7600000000002</v>
+        <f t="shared" si="7"/>
+        <v>1720.76</v>
       </c>
       <c r="F104" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G104" s="12">
         <f t="shared" si="4"/>
-        <v>1793.6408737598558</v>
+        <v>1793.6408737598556</v>
       </c>
       <c r="H104" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I104" s="12">
         <f t="shared" si="5"/>
-        <v>1647.8791262401446</v>
+        <v>1647.8791262401444</v>
       </c>
       <c r="J104" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="30">
+      <c r="K104" s="31">
+        <f t="shared" si="6"/>
+        <v>36.440436879927766</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="34">
         <v>41578</v>
       </c>
       <c r="B105" s="7" t="s">
@@ -8144,29 +8513,33 @@
         <v>5</v>
       </c>
       <c r="E105" s="18">
-        <f t="shared" si="3"/>
-        <v>1724.654</v>
+        <f t="shared" si="7"/>
+        <v>1724.65</v>
       </c>
       <c r="F105" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G105" s="12">
         <f t="shared" si="4"/>
-        <v>1796.4351151766257</v>
+        <v>1796.4311151766258</v>
       </c>
       <c r="H105" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I105" s="12">
         <f t="shared" si="5"/>
-        <v>1652.8728848233743</v>
+        <v>1652.8688848233744</v>
       </c>
       <c r="J105" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="30">
+      <c r="K105" s="31">
+        <f t="shared" si="6"/>
+        <v>35.890557588312831</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="34">
         <v>41579</v>
       </c>
       <c r="B106" s="7" t="s">
@@ -8179,29 +8552,33 @@
         <v>5</v>
       </c>
       <c r="E106" s="18">
-        <f t="shared" si="3"/>
-        <v>1728.211</v>
+        <f t="shared" si="7"/>
+        <v>1728.21</v>
       </c>
       <c r="F106" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G106" s="12">
         <f t="shared" si="4"/>
-        <v>1799.9202267145588</v>
+        <v>1799.9192267145588</v>
       </c>
       <c r="H106" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I106" s="12">
         <f t="shared" si="5"/>
-        <v>1656.5017732854412</v>
+        <v>1656.5007732854413</v>
       </c>
       <c r="J106" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="30">
+      <c r="K106" s="31">
+        <f t="shared" si="6"/>
+        <v>35.854613357279419</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="34">
         <v>41582</v>
       </c>
       <c r="B107" s="7" t="s">
@@ -8214,29 +8591,33 @@
         <v>5</v>
       </c>
       <c r="E107" s="18">
-        <f t="shared" si="3"/>
-        <v>1732.8015000000003</v>
+        <f t="shared" si="7"/>
+        <v>1732.8</v>
       </c>
       <c r="F107" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G107" s="12">
         <f t="shared" si="4"/>
-        <v>1802.3050809940755</v>
+        <v>1802.3035809940752</v>
       </c>
       <c r="H107" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I107" s="12">
         <f t="shared" si="5"/>
-        <v>1663.297919005925</v>
+        <v>1663.2964190059247</v>
       </c>
       <c r="J107" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="30">
+      <c r="K107" s="31">
+        <f t="shared" si="6"/>
+        <v>34.751790497037689</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="34">
         <v>41583</v>
       </c>
       <c r="B108" s="7" t="s">
@@ -8249,29 +8630,33 @@
         <v>5</v>
       </c>
       <c r="E108" s="18">
-        <f t="shared" si="3"/>
-        <v>1738.1775000000002</v>
+        <f t="shared" si="7"/>
+        <v>1738.18</v>
       </c>
       <c r="F108" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G108" s="12">
         <f t="shared" si="4"/>
-        <v>1799.009391594788</v>
+        <v>1799.0118915947878</v>
       </c>
       <c r="H108" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I108" s="12">
         <f t="shared" si="5"/>
-        <v>1677.3456084052125</v>
+        <v>1677.3481084052123</v>
       </c>
       <c r="J108" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="30">
+      <c r="K108" s="31">
+        <f t="shared" si="6"/>
+        <v>30.415945797393835</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="34">
         <v>41584</v>
       </c>
       <c r="B109" s="7" t="s">
@@ -8284,29 +8669,33 @@
         <v>5</v>
       </c>
       <c r="E109" s="18">
-        <f t="shared" si="3"/>
-        <v>1743.8820000000001</v>
+        <f t="shared" si="7"/>
+        <v>1743.88</v>
       </c>
       <c r="F109" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G109" s="12">
         <f t="shared" si="4"/>
-        <v>1793.2951701472391</v>
+        <v>1793.2931701472392</v>
       </c>
       <c r="H109" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I109" s="12">
         <f t="shared" si="5"/>
-        <v>1694.468829852761</v>
+        <v>1694.4668298527611</v>
       </c>
       <c r="J109" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="30">
+      <c r="K109" s="31">
+        <f t="shared" si="6"/>
+        <v>24.706585073619546</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="34">
         <v>41585</v>
       </c>
       <c r="B110" s="7" t="s">
@@ -8319,29 +8708,33 @@
         <v>5</v>
       </c>
       <c r="E110" s="18">
-        <f t="shared" si="3"/>
-        <v>1746.6115000000002</v>
+        <f t="shared" si="7"/>
+        <v>1746.61</v>
       </c>
       <c r="F110" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G110" s="12">
         <f t="shared" si="4"/>
-        <v>1790.0534973182635</v>
+        <v>1790.0519973182631</v>
       </c>
       <c r="H110" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I110" s="12">
         <f t="shared" si="5"/>
-        <v>1703.169502681737</v>
+        <v>1703.1680026817367</v>
       </c>
       <c r="J110" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="30">
+      <c r="K110" s="31">
+        <f t="shared" si="6"/>
+        <v>21.72099865913167</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="34">
         <v>41586</v>
       </c>
       <c r="B111" s="7" t="s">
@@ -8354,29 +8747,33 @@
         <v>5</v>
       </c>
       <c r="E111" s="18">
-        <f t="shared" si="3"/>
-        <v>1749.9820000000004</v>
+        <f t="shared" si="7"/>
+        <v>1749.98</v>
       </c>
       <c r="F111" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G111" s="12">
         <f t="shared" si="4"/>
-        <v>1789.7317167788656</v>
+        <v>1789.7297167788652</v>
       </c>
       <c r="H111" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I111" s="12">
         <f t="shared" si="5"/>
-        <v>1710.2322832211353</v>
+        <v>1710.2302832211349</v>
       </c>
       <c r="J111" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="30">
+      <c r="K111" s="31">
+        <f t="shared" si="6"/>
+        <v>19.874858389432607</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="34">
         <v>41589</v>
       </c>
       <c r="B112" s="7" t="s">
@@ -8389,25 +8786,29 @@
         <v>5</v>
       </c>
       <c r="E112" s="18">
-        <f t="shared" si="3"/>
-        <v>1753.0695000000003</v>
+        <f t="shared" si="7"/>
+        <v>1753.07</v>
       </c>
       <c r="F112" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G112" s="12">
         <f t="shared" si="4"/>
-        <v>1789.4071452043886</v>
+        <v>1789.4076452043882</v>
       </c>
       <c r="H112" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I112" s="12">
         <f t="shared" si="5"/>
-        <v>1716.731854795612</v>
+        <v>1716.7323547956116</v>
       </c>
       <c r="J112" s="20" t="s">
         <v>7</v>
+      </c>
+      <c r="K112" s="31">
+        <f t="shared" si="6"/>
+        <v>18.16882260219413</v>
       </c>
     </row>
     <row r="113" spans="3:8" x14ac:dyDescent="0.25">

--- a/sources/Tests/Indicators.xlsx
+++ b/sources/Tests/Indicators.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -60,6 +60,9 @@
   <si>
     <t>StDevP</t>
   </si>
+  <si>
+    <t>SMMA</t>
+  </si>
 </sst>
 </file>
 
@@ -67,10 +70,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="168" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,8 +272,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,12 +504,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -660,7 +666,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -672,10 +678,7 @@
     <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="18" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="21" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="21" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -688,17 +691,31 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="18" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="18" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="18" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="18" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="17" fillId="25" borderId="0" xfId="34" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="26" fillId="25" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="8" fillId="4" borderId="0" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="21" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="18" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="21" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="17" fillId="25" borderId="0" xfId="34" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1021,72 +1038,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="37" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="33" customWidth="1"/>
     <col min="2" max="2" width="2" style="7" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="3" max="3" width="9.140625" style="45"/>
     <col min="4" max="4" width="2.5703125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="12"/>
+    <col min="5" max="5" width="9.140625" style="43"/>
     <col min="6" max="6" width="2.140625" style="9" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="15"/>
-    <col min="9" max="9" width="2.28515625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="40"/>
+    <col min="9" max="9" width="1.7109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="24"/>
-    </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="21"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="21"/>
+      <c r="J1"/>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="44" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="41" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="38" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37">
+      <c r="J2" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33">
         <v>41435</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="45">
         <v>1642.81</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="42">
         <v>0</v>
       </c>
       <c r="F3" s="9" t="s">
@@ -1096,27 +1119,30 @@
         <f t="shared" ref="G3:G9" si="0">2/(10+1)</f>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="39">
         <v>0</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37">
+        <v>5</v>
+      </c>
+      <c r="J3" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="33">
         <v>41436</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="45">
         <v>1626.13</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="42">
         <v>0</v>
       </c>
       <c r="F4" s="9" t="s">
@@ -1126,27 +1152,30 @@
         <f t="shared" si="0"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="39">
         <v>0</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37">
+        <v>5</v>
+      </c>
+      <c r="J4" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33">
         <v>41437</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="45">
         <v>1612.52</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="42">
         <v>0</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -1156,27 +1185,30 @@
         <f t="shared" si="0"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="39">
         <v>0</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37">
+        <v>5</v>
+      </c>
+      <c r="J5" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33">
         <v>41438</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="45">
         <v>1636.36</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="42">
         <v>0</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -1186,27 +1218,30 @@
         <f t="shared" si="0"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="39">
         <v>0</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37">
+        <v>5</v>
+      </c>
+      <c r="J6" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33">
         <v>41439</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="45">
         <v>1626.73</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="42">
         <v>0</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -1216,27 +1251,30 @@
         <f t="shared" si="0"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="39">
         <v>0</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37">
+        <v>5</v>
+      </c>
+      <c r="J7" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33">
         <v>41442</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="45">
         <v>1639.04</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="42">
         <v>0</v>
       </c>
       <c r="F8" s="9" t="s">
@@ -1246,27 +1284,30 @@
         <f t="shared" si="0"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="39">
         <v>0</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37">
+        <v>5</v>
+      </c>
+      <c r="J8" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33">
         <v>41443</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="45">
         <v>1651.81</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="42">
         <v>0</v>
       </c>
       <c r="F9" s="9" t="s">
@@ -1276,27 +1317,30 @@
         <f t="shared" si="0"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="39">
         <v>0</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="37">
+        <v>5</v>
+      </c>
+      <c r="J9" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="33">
         <v>41444</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="45">
         <v>1628.93</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="43">
         <v>0</v>
       </c>
       <c r="F10" s="9" t="s">
@@ -1306,27 +1350,30 @@
         <f>2/(10+1)</f>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="39">
         <v>0</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="37">
+        <v>5</v>
+      </c>
+      <c r="J10" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="33">
         <v>41445</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="45">
         <v>1588.19</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="43">
         <v>0</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -1336,28 +1383,31 @@
         <f t="shared" ref="G11:G75" si="1">2/(10+1)</f>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="39">
         <v>0</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="37">
+        <v>5</v>
+      </c>
+      <c r="J11" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="33">
         <v>41446</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="45">
         <v>1592.43</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="12">
-        <f>AVERAGE(C3:C12)</f>
+      <c r="E12" s="43">
+        <f t="shared" ref="E12:E27" si="2">AVERAGE(C3:C12)</f>
         <v>1624.4950000000001</v>
       </c>
       <c r="F12" s="9" t="s">
@@ -1367,29 +1417,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="40">
         <f>G12*(C12-E12)+E12</f>
         <v>1618.6650000000002</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="37">
+        <v>5</v>
+      </c>
+      <c r="J12" s="34">
+        <f>E12</f>
+        <v>1624.4950000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
         <v>41449</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="45">
         <v>1573.09</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="12">
-        <f>AVERAGE(C4:C13)</f>
+      <c r="E13" s="43">
+        <f t="shared" si="2"/>
         <v>1617.5230000000001</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -1399,29 +1453,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H13" s="15">
-        <f>G13*(C13-H12)+H12</f>
+      <c r="H13" s="40">
+        <f t="shared" ref="H13:H27" si="3">G13*(C13-H12)+H12</f>
         <v>1610.3786363636366</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="37">
+        <v>5</v>
+      </c>
+      <c r="J13" s="34">
+        <f>((J12 * COUNT(C4:C13))-J12+C13)/COUNT(C4:C13)</f>
+        <v>1619.3544999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="33">
         <v>41450</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="45">
         <v>1588.03</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="12">
-        <f>AVERAGE(C5:C14)</f>
+      <c r="E14" s="43">
+        <f t="shared" si="2"/>
         <v>1613.7130000000002</v>
       </c>
       <c r="F14" s="9" t="s">
@@ -1431,29 +1489,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H14" s="15">
-        <f>G14*(C14-H13)+H13</f>
+      <c r="H14" s="40">
+        <f t="shared" si="3"/>
         <v>1606.3152479338844</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="37">
+        <v>5</v>
+      </c>
+      <c r="J14" s="34">
+        <f>((J13 * COUNT(C5:C14))-J13+C14)/COUNT(C5:C14)</f>
+        <v>1616.2220499999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="33">
         <v>41451</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="45">
         <v>1603.26</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="12">
-        <f>AVERAGE(C6:C15)</f>
+      <c r="E15" s="43">
+        <f t="shared" si="2"/>
         <v>1612.7870000000003</v>
       </c>
       <c r="F15" s="9" t="s">
@@ -1463,29 +1525,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H15" s="15">
-        <f>G15*(C15-H14)+H14</f>
+      <c r="H15" s="40">
+        <f t="shared" si="3"/>
         <v>1605.7597483095417</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="37">
+        <v>5</v>
+      </c>
+      <c r="J15" s="34">
+        <f>((J14 * COUNT(C6:C15))-J14+C15)/COUNT(C6:C15)</f>
+        <v>1614.925845</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="33">
         <v>41452</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="45">
         <v>1613.2</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="12">
-        <f>AVERAGE(C7:C16)</f>
+      <c r="E16" s="43">
+        <f t="shared" si="2"/>
         <v>1610.4710000000002</v>
       </c>
       <c r="F16" s="9" t="s">
@@ -1495,29 +1561,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H16" s="15">
-        <f>G16*(C16-H15)+H15</f>
+      <c r="H16" s="40">
+        <f t="shared" si="3"/>
         <v>1607.1125213441705</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="37">
+        <v>5</v>
+      </c>
+      <c r="J16" s="34">
+        <f>((J15 * COUNT(C7:C16))-J15+C16)/COUNT(C7:C16)</f>
+        <v>1614.7532605000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="33">
         <v>41453</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="45">
         <v>1606.28</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="12">
-        <f>AVERAGE(C8:C17)</f>
+      <c r="E17" s="43">
+        <f t="shared" si="2"/>
         <v>1608.4260000000002</v>
       </c>
       <c r="F17" s="9" t="s">
@@ -1527,29 +1597,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H17" s="15">
-        <f>G17*(C17-H16)+H16</f>
+      <c r="H17" s="40">
+        <f t="shared" si="3"/>
         <v>1606.9611538270485</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="37">
+        <v>5</v>
+      </c>
+      <c r="J17" s="34">
+        <f>((J16 * COUNT(C8:C17))-J16+C17)/COUNT(C8:C17)</f>
+        <v>1613.9059344500001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="33">
         <v>41456</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="45">
         <v>1614.96</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="12">
-        <f>AVERAGE(C9:C18)</f>
+      <c r="E18" s="43">
+        <f t="shared" si="2"/>
         <v>1606.0180000000005</v>
       </c>
       <c r="F18" s="9" t="s">
@@ -1559,29 +1633,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H18" s="15">
-        <f>G18*(C18-H17)+H17</f>
+      <c r="H18" s="40">
+        <f t="shared" si="3"/>
         <v>1608.4154894948579</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="37">
+        <v>5</v>
+      </c>
+      <c r="J18" s="34">
+        <f>((J17 * COUNT(C9:C18))-J17+C18)/COUNT(C9:C18)</f>
+        <v>1614.0113410050003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="33">
         <v>41457</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="45">
         <v>1614.08</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="12">
-        <f>AVERAGE(C10:C19)</f>
+      <c r="E19" s="43">
+        <f t="shared" si="2"/>
         <v>1602.2450000000003</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -1591,29 +1669,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H19" s="15">
-        <f>G19*(C19-H18)+H18</f>
+      <c r="H19" s="40">
+        <f t="shared" si="3"/>
         <v>1609.4454004957927</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="37">
+        <v>5</v>
+      </c>
+      <c r="J19" s="34">
+        <f>((J18 * COUNT(C10:C19))-J18+C19)/COUNT(C10:C19)</f>
+        <v>1614.0182069045002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="33">
         <v>41458</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="45">
         <v>1615.41</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="12">
-        <f>AVERAGE(C11:C20)</f>
+      <c r="E20" s="43">
+        <f t="shared" si="2"/>
         <v>1600.8930000000003</v>
       </c>
       <c r="F20" s="9" t="s">
@@ -1623,29 +1705,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H20" s="15">
-        <f>G20*(C20-H19)+H19</f>
+      <c r="H20" s="40">
+        <f t="shared" si="3"/>
         <v>1610.5298731329212</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="37">
+        <v>5</v>
+      </c>
+      <c r="J20" s="34">
+        <f>((J19 * COUNT(C11:C20))-J19+C20)/COUNT(C11:C20)</f>
+        <v>1614.1573862140501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="33">
         <v>41460</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="45">
         <v>1631.89</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="12">
-        <f>AVERAGE(C12:C21)</f>
+      <c r="E21" s="43">
+        <f t="shared" si="2"/>
         <v>1605.2629999999999</v>
       </c>
       <c r="F21" s="9" t="s">
@@ -1655,29 +1741,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H21" s="15">
-        <f>G21*(C21-H20)+H20</f>
+      <c r="H21" s="40">
+        <f t="shared" si="3"/>
         <v>1614.4135325632992</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="37">
+        <v>5</v>
+      </c>
+      <c r="J21" s="34">
+        <f>((J20 * COUNT(C12:C21))-J20+C21)/COUNT(C12:C21)</f>
+        <v>1615.9306475926451</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="33">
         <v>41463</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="45">
         <v>1640.46</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="12">
-        <f>AVERAGE(C13:C22)</f>
+      <c r="E22" s="43">
+        <f t="shared" si="2"/>
         <v>1610.066</v>
       </c>
       <c r="F22" s="9" t="s">
@@ -1687,29 +1777,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H22" s="15">
-        <f>G22*(C22-H21)+H21</f>
+      <c r="H22" s="40">
+        <f t="shared" si="3"/>
         <v>1619.1492539154267</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="37">
+        <v>5</v>
+      </c>
+      <c r="J22" s="34">
+        <f>((J21 * COUNT(C13:C22))-J21+C22)/COUNT(C13:C22)</f>
+        <v>1618.3835828333806</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="33">
         <v>41464</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="45">
         <v>1652.32</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="12">
-        <f>AVERAGE(C14:C23)</f>
+      <c r="E23" s="43">
+        <f t="shared" si="2"/>
         <v>1617.989</v>
       </c>
       <c r="F23" s="9" t="s">
@@ -1719,29 +1813,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H23" s="15">
-        <f>G23*(C23-H22)+H22</f>
+      <c r="H23" s="40">
+        <f t="shared" si="3"/>
         <v>1625.1802986580765</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="37">
+        <v>5</v>
+      </c>
+      <c r="J23" s="34">
+        <f>((J22 * COUNT(C14:C23))-J22+C23)/COUNT(C14:C23)</f>
+        <v>1621.7772245500423</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="33">
         <v>41465</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="45">
         <v>1652.62</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="12">
-        <f>AVERAGE(C15:C24)</f>
+      <c r="E24" s="43">
+        <f t="shared" si="2"/>
         <v>1624.4479999999999</v>
       </c>
       <c r="F24" s="9" t="s">
@@ -1751,29 +1849,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H24" s="15">
-        <f>G24*(C24-H23)+H23</f>
+      <c r="H24" s="40">
+        <f t="shared" si="3"/>
         <v>1630.1693352656989</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="37">
+        <v>5</v>
+      </c>
+      <c r="J24" s="34">
+        <f>((J23 * COUNT(C15:C24))-J23+C24)/COUNT(C15:C24)</f>
+        <v>1624.8615020950378</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="33">
         <v>41466</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="45">
         <v>1675.02</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="12">
-        <f>AVERAGE(C16:C25)</f>
+      <c r="E25" s="43">
+        <f t="shared" si="2"/>
         <v>1631.6239999999998</v>
       </c>
       <c r="F25" s="9" t="s">
@@ -1783,29 +1885,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H25" s="15">
-        <f>G25*(C25-H24)+H24</f>
+      <c r="H25" s="40">
+        <f t="shared" si="3"/>
         <v>1638.3240015810263</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="37">
+        <v>5</v>
+      </c>
+      <c r="J25" s="34">
+        <f>((J24 * COUNT(C16:C25))-J24+C25)/COUNT(C16:C25)</f>
+        <v>1629.8773518855342</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="33">
         <v>41467</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="45">
         <v>1680.19</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="12">
-        <f>AVERAGE(C17:C26)</f>
+      <c r="E26" s="43">
+        <f t="shared" si="2"/>
         <v>1638.3230000000001</v>
       </c>
       <c r="F26" s="9" t="s">
@@ -1815,29 +1921,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H26" s="15">
-        <f>G26*(C26-H25)+H25</f>
+      <c r="H26" s="40">
+        <f t="shared" si="3"/>
         <v>1645.936001293567</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="37">
+        <v>5</v>
+      </c>
+      <c r="J26" s="34">
+        <f>((J25 * COUNT(C17:C26))-J25+C26)/COUNT(C17:C26)</f>
+        <v>1634.9086166969807</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="33">
         <v>41470</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="45">
         <v>1682.5</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="12">
-        <f>AVERAGE(C18:C27)</f>
+      <c r="E27" s="43">
+        <f t="shared" si="2"/>
         <v>1645.9450000000004</v>
       </c>
       <c r="F27" s="9" t="s">
@@ -1847,25 +1957,29 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H27" s="15">
-        <f>G27*(C27-H26)+H26</f>
+      <c r="H27" s="40">
+        <f t="shared" si="3"/>
         <v>1652.5840010583729</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="J27" s="34">
+        <f>((J26 * COUNT(C18:C27))-J26+C27)/COUNT(C18:C27)</f>
+        <v>1639.6677550272827</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="45">
         <v>0</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="43">
         <v>0</v>
       </c>
       <c r="F28" s="9" t="s">
@@ -1874,27 +1988,30 @@
       <c r="G28" s="2">
         <v>0</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="40">
         <v>0</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="37">
+        <v>5</v>
+      </c>
+      <c r="J28" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="33">
         <v>41471</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="45">
         <v>1676.26</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="36">
         <f>AVERAGE(C19:C$27,C$29:C29)</f>
         <v>1652.075</v>
       </c>
@@ -1905,28 +2022,32 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H29" s="27">
+      <c r="H29" s="36">
         <f>G29*(C29-H27)+H27</f>
         <v>1656.8887281386687</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="37">
+        <v>5</v>
+      </c>
+      <c r="J29" s="34">
+        <f>((J27 * COUNT(C19:C$27,C$29:C29))-J27+C29)/COUNT(C19:C$27,C$29:C29)</f>
+        <v>1643.3269795245542</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="33">
         <v>41472</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="45">
         <v>1680.91</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="36">
         <f>AVERAGE(C20:C$27,C$29:C30)</f>
         <v>1658.7580000000003</v>
       </c>
@@ -1937,28 +2058,32 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H30" s="15">
-        <f>G30*(C30-H29)+H29</f>
+      <c r="H30" s="40">
+        <f t="shared" ref="H30:H61" si="4">G30*(C30-H29)+H29</f>
         <v>1661.2562321134562</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="37">
+        <v>5</v>
+      </c>
+      <c r="J30" s="34">
+        <f>((J29 * COUNT(C20:C$27,C$29:C30))-J29+C30)/COUNT(C20:C$27,C$29:C30)</f>
+        <v>1647.0852815720987</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="33">
         <v>41473</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="45">
         <v>1689.37</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="36">
         <f>AVERAGE(C21:C$27,C$29:C31)</f>
         <v>1666.154</v>
       </c>
@@ -1969,28 +2094,32 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H31" s="15">
-        <f>G31*(C31-H30)+H30</f>
+      <c r="H31" s="40">
+        <f t="shared" si="4"/>
         <v>1666.3678262746459</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="37">
+        <v>5</v>
+      </c>
+      <c r="J31" s="34">
+        <f>((J30 * COUNT(C21:C$27,C$29:C31))-J30+C31)/COUNT(C21:C$27,C$29:C31)</f>
+        <v>1651.3137534148889</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="33">
         <v>41474</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="45">
         <v>1692.09</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32" s="36">
         <f>AVERAGE(C22:C$27,C$29:C32)</f>
         <v>1672.1740000000002</v>
       </c>
@@ -2001,28 +2130,32 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H32" s="15">
-        <f>G32*(C32-H31)+H31</f>
+      <c r="H32" s="40">
+        <f t="shared" si="4"/>
         <v>1671.0445851338013</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="37">
+        <v>5</v>
+      </c>
+      <c r="J32" s="34">
+        <f>((J31 * COUNT(C22:C$27,C$29:C32))-J31+C32)/COUNT(C22:C$27,C$29:C32)</f>
+        <v>1655.3913780734001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="33">
         <v>41477</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="45">
         <v>1695.53</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="36">
         <f>AVERAGE(C23:C$27,C$29:C33)</f>
         <v>1677.6809999999998</v>
       </c>
@@ -2033,28 +2166,32 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H33" s="15">
-        <f>G33*(C33-H32)+H32</f>
+      <c r="H33" s="40">
+        <f t="shared" si="4"/>
         <v>1675.4964787458375</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="37">
+        <v>5</v>
+      </c>
+      <c r="J33" s="34">
+        <f>((J32 * COUNT(C23:C$27,C$29:C33))-J32+C33)/COUNT(C23:C$27,C$29:C33)</f>
+        <v>1659.40524026606</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="33">
         <v>41478</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="45">
         <v>1692.39</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="36">
         <f>AVERAGE(C24:C$27,C$29:C34)</f>
         <v>1681.6880000000001</v>
       </c>
@@ -2065,28 +2202,32 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H34" s="15">
-        <f>G34*(C34-H33)+H33</f>
+      <c r="H34" s="40">
+        <f t="shared" si="4"/>
         <v>1678.5680280647762</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="37">
+        <v>5</v>
+      </c>
+      <c r="J34" s="34">
+        <f>((J33 * COUNT(C24:C$27,C$29:C34))-J33+C34)/COUNT(C24:C$27,C$29:C34)</f>
+        <v>1662.703716239454</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="33">
         <v>41479</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="45">
         <v>1685.94</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="27">
+      <c r="E35" s="36">
         <f>AVERAGE(C25:C$27,C$29:C35)</f>
         <v>1685.02</v>
       </c>
@@ -2097,28 +2238,32 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H35" s="15">
-        <f>G35*(C35-H34)+H34</f>
+      <c r="H35" s="40">
+        <f t="shared" si="4"/>
         <v>1679.9083865984533</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="37">
+        <v>5</v>
+      </c>
+      <c r="J35" s="34">
+        <f>((J34 * COUNT(C25:C$27,C$29:C35))-J34+C35)/COUNT(C25:C$27,C$29:C35)</f>
+        <v>1665.0273446155086</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="33">
         <v>41480</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="45">
         <v>1690.25</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E36" s="36">
         <f>AVERAGE(C26:C$27,C$29:C36)</f>
         <v>1686.5430000000001</v>
       </c>
@@ -2129,28 +2274,32 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H36" s="15">
-        <f>G36*(C36-H35)+H35</f>
+      <c r="H36" s="40">
+        <f t="shared" si="4"/>
         <v>1681.788679944189</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="37">
+        <v>5</v>
+      </c>
+      <c r="J36" s="34">
+        <f>((J35 * COUNT(C26:C$27,C$29:C36))-J35+C36)/COUNT(C26:C$27,C$29:C36)</f>
+        <v>1667.5496101539579</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="33">
         <v>41481</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="45">
         <v>1691.65</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E37" s="36">
         <f>AVERAGE(C27:C$27,C$29:C37)</f>
         <v>1687.6889999999999</v>
       </c>
@@ -2161,29 +2310,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H37" s="15">
-        <f>G37*(C37-H36)+H36</f>
+      <c r="H37" s="40">
+        <f t="shared" si="4"/>
         <v>1683.5816472270637</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="37">
+        <v>5</v>
+      </c>
+      <c r="J37" s="34">
+        <f>((J36 * COUNT(C27:C$27,C$29:C37))-J36+C37)/COUNT(C27:C$27,C$29:C37)</f>
+        <v>1669.9596491385623</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="33">
         <v>41484</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="45">
         <v>1685.33</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="12">
-        <f>AVERAGE(C29:C38)</f>
+      <c r="E38" s="43">
+        <f t="shared" ref="E38:E76" si="5">AVERAGE(C29:C38)</f>
         <v>1687.9720000000002</v>
       </c>
       <c r="F38" s="9" t="s">
@@ -2193,29 +2346,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H38" s="15">
-        <f>G38*(C38-H37)+H37</f>
+      <c r="H38" s="40">
+        <f t="shared" si="4"/>
         <v>1683.8995295494158</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="37">
+        <v>5</v>
+      </c>
+      <c r="J38" s="34">
+        <f>((J37 * COUNT(C29:C38))-J37+C38)/COUNT(C29:C38)</f>
+        <v>1671.4966842247061</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="33">
         <v>41485</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="45">
         <v>1685.96</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="12">
-        <f>AVERAGE(C30:C39)</f>
+      <c r="E39" s="43">
+        <f t="shared" si="5"/>
         <v>1688.9419999999998</v>
       </c>
       <c r="F39" s="9" t="s">
@@ -2225,29 +2382,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H39" s="15">
-        <f>G39*(C39-H38)+H38</f>
+      <c r="H39" s="40">
+        <f t="shared" si="4"/>
         <v>1684.274160540431</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="37">
+        <v>5</v>
+      </c>
+      <c r="J39" s="34">
+        <f>((J38 * COUNT(C30:C39))-J38+C39)/COUNT(C30:C39)</f>
+        <v>1672.9430158022355</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="33">
         <v>41486</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="45">
         <v>1685.73</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="12">
-        <f>AVERAGE(C31:C40)</f>
+      <c r="E40" s="43">
+        <f t="shared" si="5"/>
         <v>1689.4239999999998</v>
       </c>
       <c r="F40" s="9" t="s">
@@ -2257,29 +2418,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H40" s="15">
-        <f>G40*(C40-H39)+H39</f>
+      <c r="H40" s="40">
+        <f t="shared" si="4"/>
         <v>1684.538858623989</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="37">
+        <v>5</v>
+      </c>
+      <c r="J40" s="34">
+        <f>((J39 * COUNT(C31:C40))-J39+C40)/COUNT(C31:C40)</f>
+        <v>1674.221714222012</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="33">
         <v>41487</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="45">
         <v>1706.87</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="12">
-        <f>AVERAGE(C32:C41)</f>
+      <c r="E41" s="43">
+        <f t="shared" si="5"/>
         <v>1691.1739999999998</v>
       </c>
       <c r="F41" s="9" t="s">
@@ -2289,29 +2454,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H41" s="15">
-        <f>G41*(C41-H40)+H40</f>
+      <c r="H41" s="40">
+        <f t="shared" si="4"/>
         <v>1688.5990661469</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="37">
+        <v>5</v>
+      </c>
+      <c r="J41" s="34">
+        <f>((J40 * COUNT(C32:C41))-J40+C41)/COUNT(C32:C41)</f>
+        <v>1677.4865427998109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="33">
         <v>41488</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="45">
         <v>1709.67</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="12">
-        <f>AVERAGE(C33:C42)</f>
+      <c r="E42" s="43">
+        <f t="shared" si="5"/>
         <v>1692.932</v>
       </c>
       <c r="F42" s="9" t="s">
@@ -2321,29 +2490,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H42" s="15">
-        <f>G42*(C42-H41)+H41</f>
+      <c r="H42" s="40">
+        <f t="shared" si="4"/>
         <v>1692.4301450292819</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="37">
+        <v>5</v>
+      </c>
+      <c r="J42" s="34">
+        <f>((J41 * COUNT(C33:C42))-J41+C42)/COUNT(C33:C42)</f>
+        <v>1680.7048885198299</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="33">
         <v>41491</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="45">
         <v>1707.14</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="12">
-        <f>AVERAGE(C34:C43)</f>
+      <c r="E43" s="43">
+        <f t="shared" si="5"/>
         <v>1694.0930000000001</v>
       </c>
       <c r="F43" s="9" t="s">
@@ -2353,29 +2526,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H43" s="15">
-        <f>G43*(C43-H42)+H42</f>
+      <c r="H43" s="40">
+        <f t="shared" si="4"/>
         <v>1695.1046641148671</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="37">
+        <v>5</v>
+      </c>
+      <c r="J43" s="34">
+        <f>((J42 * COUNT(C34:C43))-J42+C43)/COUNT(C34:C43)</f>
+        <v>1683.3483996678472</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="33">
         <v>41492</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="45">
         <v>1697.37</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="12">
-        <f>AVERAGE(C35:C44)</f>
+      <c r="E44" s="43">
+        <f t="shared" si="5"/>
         <v>1694.5909999999999</v>
       </c>
       <c r="F44" s="9" t="s">
@@ -2385,29 +2562,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H44" s="15">
-        <f>G44*(C44-H43)+H43</f>
+      <c r="H44" s="40">
+        <f t="shared" si="4"/>
         <v>1695.5165433667094</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="37">
+        <v>5</v>
+      </c>
+      <c r="J44" s="34">
+        <f>((J43 * COUNT(C35:C44))-J43+C44)/COUNT(C35:C44)</f>
+        <v>1684.7505597010622</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="33">
         <v>41493</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="45">
         <v>1690.91</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="12">
-        <f>AVERAGE(C36:C45)</f>
+      <c r="E45" s="43">
+        <f t="shared" si="5"/>
         <v>1695.0880000000002</v>
       </c>
       <c r="F45" s="9" t="s">
@@ -2417,29 +2598,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H45" s="15">
-        <f>G45*(C45-H44)+H44</f>
+      <c r="H45" s="40">
+        <f t="shared" si="4"/>
         <v>1694.6789900273077</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="37">
+        <v>5</v>
+      </c>
+      <c r="J45" s="34">
+        <f>((J44 * COUNT(C36:C45))-J44+C45)/COUNT(C36:C45)</f>
+        <v>1685.3665037309561</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="33">
         <v>41494</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="45">
         <v>1697.48</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="12">
-        <f>AVERAGE(C37:C46)</f>
+      <c r="E46" s="43">
+        <f t="shared" si="5"/>
         <v>1695.8110000000001</v>
       </c>
       <c r="F46" s="9" t="s">
@@ -2449,29 +2634,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H46" s="15">
-        <f>G46*(C46-H45)+H45</f>
+      <c r="H46" s="40">
+        <f t="shared" si="4"/>
         <v>1695.1882645677972</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="37">
+        <v>5</v>
+      </c>
+      <c r="J46" s="34">
+        <f>((J45 * COUNT(C37:C46))-J45+C46)/COUNT(C37:C46)</f>
+        <v>1686.5778533578607</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="33">
         <v>41495</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="45">
         <v>1691.42</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="12">
-        <f>AVERAGE(C38:C47)</f>
+      <c r="E47" s="43">
+        <f t="shared" si="5"/>
         <v>1695.7879999999998</v>
       </c>
       <c r="F47" s="9" t="s">
@@ -2481,29 +2670,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H47" s="15">
-        <f>G47*(C47-H46)+H46</f>
+      <c r="H47" s="40">
+        <f t="shared" si="4"/>
         <v>1694.5031255554704</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="37">
+        <v>5</v>
+      </c>
+      <c r="J47" s="34">
+        <f>((J46 * COUNT(C38:C47))-J46+C47)/COUNT(C38:C47)</f>
+        <v>1687.0620680220745</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="33">
         <v>41498</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="45">
         <v>1689.47</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="12">
-        <f>AVERAGE(C39:C48)</f>
+      <c r="E48" s="43">
+        <f t="shared" si="5"/>
         <v>1696.2019999999998</v>
       </c>
       <c r="F48" s="9" t="s">
@@ -2513,29 +2706,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H48" s="15">
-        <f>G48*(C48-H47)+H47</f>
+      <c r="H48" s="40">
+        <f t="shared" si="4"/>
         <v>1693.5880118181121</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="37">
+        <v>5</v>
+      </c>
+      <c r="J48" s="34">
+        <f>((J47 * COUNT(C39:C48))-J47+C48)/COUNT(C39:C48)</f>
+        <v>1687.3028612198673</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="33">
         <v>41499</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="45">
         <v>1694.16</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="12">
-        <f>AVERAGE(C40:C49)</f>
+      <c r="E49" s="43">
+        <f t="shared" si="5"/>
         <v>1697.0220000000002</v>
       </c>
       <c r="F49" s="9" t="s">
@@ -2545,29 +2742,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H49" s="15">
-        <f>G49*(C49-H48)+H48</f>
+      <c r="H49" s="40">
+        <f t="shared" si="4"/>
         <v>1693.6920096693646</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="37">
+        <v>5</v>
+      </c>
+      <c r="J49" s="34">
+        <f>((J48 * COUNT(C40:C49))-J48+C49)/COUNT(C40:C49)</f>
+        <v>1687.9885750978806</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="33">
         <v>41500</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="45">
         <v>1685.39</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E50" s="12">
-        <f>AVERAGE(C41:C50)</f>
+      <c r="E50" s="43">
+        <f t="shared" si="5"/>
         <v>1696.9880000000001</v>
       </c>
       <c r="F50" s="9" t="s">
@@ -2577,29 +2778,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H50" s="15">
-        <f>G50*(C50-H49)+H49</f>
+      <c r="H50" s="40">
+        <f t="shared" si="4"/>
         <v>1692.1825533658437</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="37">
+        <v>5</v>
+      </c>
+      <c r="J50" s="34">
+        <f>((J49 * COUNT(C41:C50))-J49+C50)/COUNT(C41:C50)</f>
+        <v>1687.7287175880926</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="33">
         <v>41501</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="45">
         <v>1661.32</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E51" s="12">
-        <f>AVERAGE(C42:C51)</f>
+      <c r="E51" s="43">
+        <f t="shared" si="5"/>
         <v>1692.4329999999998</v>
       </c>
       <c r="F51" s="9" t="s">
@@ -2609,29 +2814,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H51" s="15">
-        <f>G51*(C51-H50)+H50</f>
+      <c r="H51" s="40">
+        <f t="shared" si="4"/>
         <v>1686.5711800265994</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="37">
+        <v>5</v>
+      </c>
+      <c r="J51" s="34">
+        <f>((J50 * COUNT(C42:C51))-J50+C51)/COUNT(C42:C51)</f>
+        <v>1685.0878458292834</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="33">
         <v>41502</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="45">
         <v>1655.83</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="12">
-        <f>AVERAGE(C43:C52)</f>
+      <c r="E52" s="43">
+        <f t="shared" si="5"/>
         <v>1687.0489999999998</v>
       </c>
       <c r="F52" s="9" t="s">
@@ -2641,29 +2850,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H52" s="15">
-        <f>G52*(C52-H51)+H51</f>
+      <c r="H52" s="40">
+        <f t="shared" si="4"/>
         <v>1680.9818745672178</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="37">
+        <v>5</v>
+      </c>
+      <c r="J52" s="34">
+        <f>((J51 * COUNT(C43:C52))-J51+C52)/COUNT(C43:C52)</f>
+        <v>1682.1620612463551</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="33">
         <v>41505</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="45">
         <v>1646.06</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="12">
-        <f>AVERAGE(C44:C53)</f>
+      <c r="E53" s="43">
+        <f t="shared" si="5"/>
         <v>1680.941</v>
       </c>
       <c r="F53" s="9" t="s">
@@ -2673,29 +2886,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H53" s="15">
-        <f>G53*(C53-H52)+H52</f>
+      <c r="H53" s="40">
+        <f t="shared" si="4"/>
         <v>1674.6324428277237</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="37">
+        <v>5</v>
+      </c>
+      <c r="J53" s="34">
+        <f>((J52 * COUNT(C44:C53))-J52+C53)/COUNT(C44:C53)</f>
+        <v>1678.5518551217197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="33">
         <v>41506</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="45">
         <v>1652.35</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E54" s="12">
-        <f>AVERAGE(C45:C54)</f>
+      <c r="E54" s="43">
+        <f t="shared" si="5"/>
         <v>1676.4389999999999</v>
       </c>
       <c r="F54" s="9" t="s">
@@ -2705,29 +2922,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H54" s="15">
-        <f>G54*(C54-H53)+H53</f>
+      <c r="H54" s="40">
+        <f t="shared" si="4"/>
         <v>1670.5810895863194</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="37">
+        <v>5</v>
+      </c>
+      <c r="J54" s="34">
+        <f>((J53 * COUNT(C45:C54))-J53+C54)/COUNT(C45:C54)</f>
+        <v>1675.9316696095477</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="33">
         <v>41507</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="45">
         <v>1642.8</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E55" s="12">
-        <f>AVERAGE(C46:C55)</f>
+      <c r="E55" s="43">
+        <f t="shared" si="5"/>
         <v>1671.6279999999999</v>
       </c>
       <c r="F55" s="9" t="s">
@@ -2737,29 +2958,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H55" s="15">
-        <f>G55*(C55-H54)+H54</f>
+      <c r="H55" s="40">
+        <f t="shared" si="4"/>
         <v>1665.5299823888067</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="37">
+        <v>5</v>
+      </c>
+      <c r="J55" s="34">
+        <f>((J54 * COUNT(C46:C55))-J54+C55)/COUNT(C46:C55)</f>
+        <v>1672.6185026485928</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="33">
         <v>41508</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="45">
         <v>1656.96</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E56" s="12">
-        <f>AVERAGE(C47:C56)</f>
+      <c r="E56" s="43">
+        <f t="shared" si="5"/>
         <v>1667.5759999999998</v>
       </c>
       <c r="F56" s="9" t="s">
@@ -2769,29 +2994,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H56" s="15">
-        <f>G56*(C56-H55)+H55</f>
+      <c r="H56" s="40">
+        <f t="shared" si="4"/>
         <v>1663.97180377266</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="37">
+        <v>5</v>
+      </c>
+      <c r="J56" s="34">
+        <f>((J55 * COUNT(C47:C56))-J55+C56)/COUNT(C47:C56)</f>
+        <v>1671.0526523837336</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="33">
         <v>41509</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="45">
         <v>1663.5</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="12">
-        <f>AVERAGE(C48:C57)</f>
+      <c r="E57" s="43">
+        <f t="shared" si="5"/>
         <v>1664.7840000000001</v>
       </c>
       <c r="F57" s="9" t="s">
@@ -2801,29 +3030,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H57" s="15">
-        <f>G57*(C57-H56)+H56</f>
+      <c r="H57" s="40">
+        <f t="shared" si="4"/>
         <v>1663.8860212685399</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="37">
+        <v>5</v>
+      </c>
+      <c r="J57" s="34">
+        <f>((J56 * COUNT(C48:C57))-J56+C57)/COUNT(C48:C57)</f>
+        <v>1670.2973871453601</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="33">
         <v>41512</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="45">
         <v>1656.78</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="12">
-        <f>AVERAGE(C49:C58)</f>
+      <c r="E58" s="43">
+        <f t="shared" si="5"/>
         <v>1661.5149999999999</v>
       </c>
       <c r="F58" s="9" t="s">
@@ -2833,29 +3066,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H58" s="15">
-        <f>G58*(C58-H57)+H57</f>
+      <c r="H58" s="40">
+        <f t="shared" si="4"/>
         <v>1662.5940174015327</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="37">
+        <v>5</v>
+      </c>
+      <c r="J58" s="34">
+        <f>((J57 * COUNT(C49:C58))-J57+C58)/COUNT(C49:C58)</f>
+        <v>1668.9456484308241</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="33">
         <v>41513</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="45">
         <v>1630.48</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="12">
-        <f>AVERAGE(C50:C59)</f>
+      <c r="E59" s="43">
+        <f t="shared" si="5"/>
         <v>1655.1470000000002</v>
       </c>
       <c r="F59" s="9" t="s">
@@ -2865,29 +3102,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H59" s="15">
-        <f>G59*(C59-H58)+H58</f>
+      <c r="H59" s="40">
+        <f t="shared" si="4"/>
         <v>1656.7551051467085</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="37">
+        <v>5</v>
+      </c>
+      <c r="J59" s="34">
+        <f>((J58 * COUNT(C50:C59))-J58+C59)/COUNT(C50:C59)</f>
+        <v>1665.0990835877415</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="33">
         <v>41514</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="45">
         <v>1634.96</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E60" s="12">
-        <f>AVERAGE(C51:C60)</f>
+      <c r="E60" s="43">
+        <f t="shared" si="5"/>
         <v>1650.104</v>
       </c>
       <c r="F60" s="9" t="s">
@@ -2897,29 +3138,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H60" s="15">
-        <f>G60*(C60-H59)+H59</f>
+      <c r="H60" s="40">
+        <f t="shared" si="4"/>
         <v>1652.7923587563978</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="37">
+        <v>5</v>
+      </c>
+      <c r="J60" s="34">
+        <f>((J59 * COUNT(C51:C60))-J59+C60)/COUNT(C51:C60)</f>
+        <v>1662.0851752289673</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="33">
         <v>41515</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="45">
         <v>1638.17</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E61" s="12">
-        <f>AVERAGE(C52:C61)</f>
+      <c r="E61" s="43">
+        <f t="shared" si="5"/>
         <v>1647.789</v>
       </c>
       <c r="F61" s="9" t="s">
@@ -2929,29 +3174,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H61" s="15">
-        <f>G61*(C61-H60)+H60</f>
+      <c r="H61" s="40">
+        <f t="shared" si="4"/>
         <v>1650.1337480734164</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="37">
+        <v>5</v>
+      </c>
+      <c r="J61" s="34">
+        <f>((J60 * COUNT(C52:C61))-J60+C61)/COUNT(C52:C61)</f>
+        <v>1659.6936577060703</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="33">
         <v>41516</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="45">
         <v>1632.97</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E62" s="12">
-        <f>AVERAGE(C53:C62)</f>
+      <c r="E62" s="43">
+        <f t="shared" si="5"/>
         <v>1645.5029999999999</v>
       </c>
       <c r="F62" s="9" t="s">
@@ -2961,29 +3210,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H62" s="15">
-        <f>G62*(C62-H61)+H61</f>
+      <c r="H62" s="40">
+        <f t="shared" ref="H62:H93" si="6">G62*(C62-H61)+H61</f>
         <v>1647.0130666055225</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="37">
+        <v>5</v>
+      </c>
+      <c r="J62" s="34">
+        <f>((J61 * COUNT(C53:C62))-J61+C62)/COUNT(C53:C62)</f>
+        <v>1657.0212919354635</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="33">
         <v>41520</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="45">
         <v>1639.77</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E63" s="12">
-        <f>AVERAGE(C54:C63)</f>
+      <c r="E63" s="43">
+        <f t="shared" si="5"/>
         <v>1644.8739999999998</v>
       </c>
       <c r="F63" s="9" t="s">
@@ -2993,29 +3246,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H63" s="15">
-        <f>G63*(C63-H62)+H62</f>
+      <c r="H63" s="40">
+        <f t="shared" si="6"/>
         <v>1645.6961454045183</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="37">
+        <v>5</v>
+      </c>
+      <c r="J63" s="34">
+        <f>((J62 * COUNT(C54:C63))-J62+C63)/COUNT(C54:C63)</f>
+        <v>1655.2961627419172</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="33">
         <v>41521</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="45">
         <v>1653.08</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E64" s="12">
-        <f>AVERAGE(C55:C64)</f>
+      <c r="E64" s="43">
+        <f t="shared" si="5"/>
         <v>1644.9470000000001</v>
       </c>
       <c r="F64" s="9" t="s">
@@ -3025,29 +3282,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H64" s="15">
-        <f>G64*(C64-H63)+H63</f>
+      <c r="H64" s="40">
+        <f t="shared" si="6"/>
         <v>1647.0386644218786</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="37">
+        <v>5</v>
+      </c>
+      <c r="J64" s="34">
+        <f>((J63 * COUNT(C55:C64))-J63+C64)/COUNT(C55:C64)</f>
+        <v>1655.0745464677252</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="33">
         <v>41522</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="45">
         <v>1655.08</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="12">
-        <f>AVERAGE(C56:C65)</f>
+      <c r="E65" s="43">
+        <f t="shared" si="5"/>
         <v>1646.175</v>
       </c>
       <c r="F65" s="9" t="s">
@@ -3057,29 +3318,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H65" s="15">
-        <f>G65*(C65-H64)+H64</f>
+      <c r="H65" s="40">
+        <f t="shared" si="6"/>
         <v>1648.5007254360826</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="37">
+        <v>5</v>
+      </c>
+      <c r="J65" s="34">
+        <f>((J64 * COUNT(C56:C65))-J64+C65)/COUNT(C56:C65)</f>
+        <v>1655.0750918209528</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="33">
         <v>41523</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="45">
         <v>1655.17</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="12">
-        <f>AVERAGE(C57:C66)</f>
+      <c r="E66" s="43">
+        <f t="shared" si="5"/>
         <v>1645.9959999999999</v>
       </c>
       <c r="F66" s="9" t="s">
@@ -3089,29 +3354,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H66" s="15">
-        <f>G66*(C66-H65)+H65</f>
+      <c r="H66" s="40">
+        <f t="shared" si="6"/>
         <v>1649.7133208113403</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="37">
+        <v>5</v>
+      </c>
+      <c r="J66" s="34">
+        <f>((J65 * COUNT(C57:C66))-J65+C66)/COUNT(C57:C66)</f>
+        <v>1655.0845826388577</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="33">
         <v>41526</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="45">
         <v>1671.71</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E67" s="12">
-        <f>AVERAGE(C58:C67)</f>
+      <c r="E67" s="43">
+        <f t="shared" si="5"/>
         <v>1646.8170000000002</v>
       </c>
       <c r="F67" s="9" t="s">
@@ -3121,29 +3390,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H67" s="15">
-        <f>G67*(C67-H66)+H66</f>
+      <c r="H67" s="40">
+        <f t="shared" si="6"/>
         <v>1653.7127170274603</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="37">
+        <v>5</v>
+      </c>
+      <c r="J67" s="34">
+        <f>((J66 * COUNT(C58:C67))-J66+C67)/COUNT(C58:C67)</f>
+        <v>1656.7471243749719</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="33">
         <v>41527</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="45">
         <v>1683.99</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E68" s="12">
-        <f>AVERAGE(C59:C68)</f>
+      <c r="E68" s="43">
+        <f t="shared" si="5"/>
         <v>1649.538</v>
       </c>
       <c r="F68" s="9" t="s">
@@ -3153,29 +3426,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H68" s="15">
-        <f>G68*(C68-H67)+H67</f>
+      <c r="H68" s="40">
+        <f t="shared" si="6"/>
         <v>1659.217677567922</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="37">
+        <v>5</v>
+      </c>
+      <c r="J68" s="34">
+        <f>((J67 * COUNT(C59:C68))-J67+C68)/COUNT(C59:C68)</f>
+        <v>1659.4714119374748</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="33">
         <v>41528</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="45">
         <v>1689.13</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E69" s="12">
-        <f>AVERAGE(C60:C69)</f>
+      <c r="E69" s="43">
+        <f t="shared" si="5"/>
         <v>1655.4029999999998</v>
       </c>
       <c r="F69" s="9" t="s">
@@ -3185,29 +3462,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H69" s="15">
-        <f>G69*(C69-H68)+H68</f>
+      <c r="H69" s="40">
+        <f t="shared" si="6"/>
         <v>1664.6562816464816</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="37">
+        <v>5</v>
+      </c>
+      <c r="J69" s="34">
+        <f>((J68 * COUNT(C60:C69))-J68+C69)/COUNT(C60:C69)</f>
+        <v>1662.4372707437274</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="33">
         <v>41529</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="45">
         <v>1683.42</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="12">
-        <f>AVERAGE(C61:C70)</f>
+      <c r="E70" s="43">
+        <f t="shared" si="5"/>
         <v>1660.2489999999998</v>
       </c>
       <c r="F70" s="9" t="s">
@@ -3217,29 +3498,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H70" s="15">
-        <f>G70*(C70-H69)+H69</f>
+      <c r="H70" s="40">
+        <f t="shared" si="6"/>
         <v>1668.0678668016667</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="37">
+        <v>5</v>
+      </c>
+      <c r="J70" s="34">
+        <f>((J69 * COUNT(C61:C70))-J69+C70)/COUNT(C61:C70)</f>
+        <v>1664.5355436693546</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="33">
         <v>41530</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="45">
         <v>1687.99</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E71" s="12">
-        <f>AVERAGE(C62:C71)</f>
+      <c r="E71" s="43">
+        <f t="shared" si="5"/>
         <v>1665.2309999999998</v>
       </c>
       <c r="F71" s="9" t="s">
@@ -3249,29 +3534,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H71" s="15">
-        <f>G71*(C71-H70)+H70</f>
+      <c r="H71" s="40">
+        <f t="shared" si="6"/>
         <v>1671.6900728377273</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="37">
+        <v>5</v>
+      </c>
+      <c r="J71" s="34">
+        <f>((J70 * COUNT(C62:C71))-J70+C71)/COUNT(C62:C71)</f>
+        <v>1666.880989302419</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="33">
         <v>41533</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="45">
         <v>1697.6</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="12">
-        <f>AVERAGE(C63:C72)</f>
+      <c r="E72" s="43">
+        <f t="shared" si="5"/>
         <v>1671.694</v>
       </c>
       <c r="F72" s="9" t="s">
@@ -3281,29 +3570,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H72" s="15">
-        <f>G72*(C72-H71)+H71</f>
+      <c r="H72" s="40">
+        <f t="shared" si="6"/>
         <v>1676.4009686854131</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="37">
+        <v>5</v>
+      </c>
+      <c r="J72" s="34">
+        <f>((J71 * COUNT(C63:C72))-J71+C72)/COUNT(C63:C72)</f>
+        <v>1669.9528903721771</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="33">
         <v>41534</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="45">
         <v>1704.76</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E73" s="12">
-        <f>AVERAGE(C64:C73)</f>
+      <c r="E73" s="43">
+        <f t="shared" si="5"/>
         <v>1678.193</v>
       </c>
       <c r="F73" s="9" t="s">
@@ -3313,29 +3606,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H73" s="15">
-        <f>G73*(C73-H72)+H72</f>
+      <c r="H73" s="40">
+        <f t="shared" si="6"/>
         <v>1681.5571561971562</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="37">
+        <v>5</v>
+      </c>
+      <c r="J73" s="34">
+        <f>((J72 * COUNT(C64:C73))-J72+C73)/COUNT(C64:C73)</f>
+        <v>1673.4336013349591</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="33">
         <v>41535</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="45">
         <v>1725.52</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E74" s="12">
-        <f>AVERAGE(C65:C74)</f>
+      <c r="E74" s="43">
+        <f t="shared" si="5"/>
         <v>1685.4369999999999</v>
       </c>
       <c r="F74" s="9" t="s">
@@ -3345,29 +3642,33 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H74" s="15">
-        <f>G74*(C74-H73)+H73</f>
+      <c r="H74" s="40">
+        <f t="shared" si="6"/>
         <v>1689.5504005249461</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="37">
+        <v>5</v>
+      </c>
+      <c r="J74" s="34">
+        <f>((J73 * COUNT(C65:C74))-J73+C74)/COUNT(C65:C74)</f>
+        <v>1678.6422412014631</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="33">
         <v>41536</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="45">
         <v>1722.34</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E75" s="12">
-        <f>AVERAGE(C66:C75)</f>
+      <c r="E75" s="43">
+        <f t="shared" si="5"/>
         <v>1692.163</v>
       </c>
       <c r="F75" s="9" t="s">
@@ -3377,1213 +3678,1364 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H75" s="15">
-        <f>G75*(C75-H74)+H74</f>
+      <c r="H75" s="40">
+        <f t="shared" si="6"/>
         <v>1695.5121458840467</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="37">
+        <v>5</v>
+      </c>
+      <c r="J75" s="34">
+        <f>((J74 * COUNT(C66:C75))-J74+C75)/COUNT(C66:C75)</f>
+        <v>1683.0120170813166</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="33">
         <v>41537</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="45">
         <v>1709.91</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E76" s="12">
-        <f>AVERAGE(C67:C76)</f>
+      <c r="E76" s="43">
+        <f t="shared" si="5"/>
         <v>1697.6370000000002</v>
       </c>
       <c r="F76" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G76" s="2">
-        <f t="shared" ref="G76:G112" si="2">2/(10+1)</f>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H76" s="15">
-        <f>G76*(C76-H75)+H75</f>
+        <f t="shared" ref="G76:G112" si="7">2/(10+1)</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H76" s="40">
+        <f t="shared" si="6"/>
         <v>1698.1299375414928</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="37">
+        <v>5</v>
+      </c>
+      <c r="J76" s="34">
+        <f>((J75 * COUNT(C67:C76))-J75+C76)/COUNT(C67:C76)</f>
+        <v>1685.7018153731849</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="33">
         <v>41540</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="45">
         <v>1701.84</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E77" s="12">
-        <f t="shared" ref="E77:E112" si="3">AVERAGE(C68:C77)</f>
+      <c r="E77" s="43">
+        <f t="shared" ref="E77:E112" si="8">AVERAGE(C68:C77)</f>
         <v>1700.65</v>
       </c>
       <c r="F77" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G77" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H77" s="15">
-        <f>G77*(C77-H76)+H76</f>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H77" s="40">
+        <f t="shared" si="6"/>
         <v>1698.8044943521304</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="37">
+        <v>5</v>
+      </c>
+      <c r="J77" s="34">
+        <f>((J76 * COUNT(C68:C77))-J76+C77)/COUNT(C68:C77)</f>
+        <v>1687.3156338358665</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="33">
         <v>41541</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="45">
         <v>1697.42</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E78" s="12">
-        <f t="shared" si="3"/>
+      <c r="E78" s="43">
+        <f t="shared" si="8"/>
         <v>1701.9929999999999</v>
       </c>
       <c r="F78" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G78" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H78" s="15">
-        <f>G78*(C78-H77)+H77</f>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H78" s="40">
+        <f t="shared" si="6"/>
         <v>1698.5527681062886</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="37">
+        <v>5</v>
+      </c>
+      <c r="J78" s="34">
+        <f>((J77 * COUNT(C69:C78))-J77+C78)/COUNT(C69:C78)</f>
+        <v>1688.32607045228</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="33">
         <v>41542</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="45">
         <v>1692.77</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E79" s="12">
-        <f t="shared" si="3"/>
+      <c r="E79" s="43">
+        <f t="shared" si="8"/>
         <v>1702.357</v>
       </c>
       <c r="F79" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G79" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H79" s="15">
-        <f>G79*(C79-H78)+H78</f>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H79" s="40">
+        <f t="shared" si="6"/>
         <v>1697.5013557233269</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="37">
+        <v>5</v>
+      </c>
+      <c r="J79" s="34">
+        <f>((J78 * COUNT(C70:C79))-J78+C79)/COUNT(C70:C79)</f>
+        <v>1688.7704634070519</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="33">
         <v>41543</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="45">
         <v>1698.67</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E80" s="12">
-        <f t="shared" si="3"/>
+      <c r="E80" s="43">
+        <f t="shared" si="8"/>
         <v>1703.8820000000001</v>
       </c>
       <c r="F80" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G80" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H80" s="15">
-        <f>G80*(C80-H79)+H79</f>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H80" s="40">
+        <f t="shared" si="6"/>
         <v>1697.7138365009039</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="37">
+        <v>5</v>
+      </c>
+      <c r="J80" s="34">
+        <f>((J79 * COUNT(C71:C80))-J79+C80)/COUNT(C71:C80)</f>
+        <v>1689.7604170663467</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="33">
         <v>41544</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="45">
         <v>1691.75</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E81" s="12">
-        <f t="shared" si="3"/>
+      <c r="E81" s="43">
+        <f t="shared" si="8"/>
         <v>1704.2580000000003</v>
       </c>
       <c r="F81" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G81" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H81" s="15">
-        <f>G81*(C81-H80)+H80</f>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H81" s="40">
+        <f t="shared" si="6"/>
         <v>1696.6295025916486</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="37">
+        <v>5</v>
+      </c>
+      <c r="J81" s="34">
+        <f>((J80 * COUNT(C72:C81))-J80+C81)/COUNT(C72:C81)</f>
+        <v>1689.9593753597121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="33">
         <v>41547</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="45">
         <v>1681.55</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E82" s="12">
-        <f t="shared" si="3"/>
+      <c r="E82" s="43">
+        <f t="shared" si="8"/>
         <v>1702.6529999999998</v>
       </c>
       <c r="F82" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G82" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H82" s="15">
-        <f>G82*(C82-H81)+H81</f>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H82" s="40">
+        <f t="shared" si="6"/>
         <v>1693.8877748477125</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="37">
+        <v>5</v>
+      </c>
+      <c r="J82" s="34">
+        <f>((J81 * COUNT(C73:C82))-J81+C82)/COUNT(C73:C82)</f>
+        <v>1689.1184378237408</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="33">
         <v>41548</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="45">
         <v>1695</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="12">
-        <f t="shared" si="3"/>
+      <c r="E83" s="43">
+        <f t="shared" si="8"/>
         <v>1701.6769999999997</v>
       </c>
       <c r="F83" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G83" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H83" s="15">
-        <f>G83*(C83-H82)+H82</f>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H83" s="40">
+        <f t="shared" si="6"/>
         <v>1694.089997602674</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="37">
+        <v>5</v>
+      </c>
+      <c r="J83" s="34">
+        <f>((J82 * COUNT(C74:C83))-J82+C83)/COUNT(C74:C83)</f>
+        <v>1689.7065940413668</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="33">
         <v>41549</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="45">
         <v>1693.87</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E84" s="12">
-        <f t="shared" si="3"/>
+      <c r="E84" s="43">
+        <f t="shared" si="8"/>
         <v>1698.5119999999999</v>
       </c>
       <c r="F84" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G84" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H84" s="15">
-        <f>G84*(C84-H83)+H83</f>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H84" s="40">
+        <f t="shared" si="6"/>
         <v>1694.0499980385514</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="37">
+        <v>5</v>
+      </c>
+      <c r="J84" s="34">
+        <f>((J83 * COUNT(C75:C84))-J83+C84)/COUNT(C75:C84)</f>
+        <v>1690.1229346372299</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="33">
         <v>41550</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="45">
         <v>1678.66</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E85" s="12">
-        <f t="shared" si="3"/>
+      <c r="E85" s="43">
+        <f t="shared" si="8"/>
         <v>1694.1439999999998</v>
       </c>
       <c r="F85" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G85" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H85" s="15">
-        <f>G85*(C85-H84)+H84</f>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H85" s="40">
+        <f t="shared" si="6"/>
         <v>1691.2518165769966</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="37">
+        <v>5</v>
+      </c>
+      <c r="J85" s="34">
+        <f>((J84 * COUNT(C76:C85))-J84+C85)/COUNT(C76:C85)</f>
+        <v>1688.9766411735072</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="33">
         <v>41551</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="45">
         <v>1690.5</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E86" s="12">
-        <f t="shared" si="3"/>
+      <c r="E86" s="43">
+        <f t="shared" si="8"/>
         <v>1692.203</v>
       </c>
       <c r="F86" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G86" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H86" s="15">
-        <f>G86*(C86-H85)+H85</f>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H86" s="40">
+        <f t="shared" si="6"/>
         <v>1691.1151226539064</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="37">
+        <v>5</v>
+      </c>
+      <c r="J86" s="34">
+        <f>((J85 * COUNT(C77:C86))-J85+C86)/COUNT(C77:C86)</f>
+        <v>1689.1289770561566</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="33">
         <v>41554</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="45">
         <v>1676.12</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E87" s="12">
-        <f t="shared" si="3"/>
+      <c r="E87" s="43">
+        <f t="shared" si="8"/>
         <v>1689.6309999999999</v>
       </c>
       <c r="F87" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G87" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H87" s="15">
-        <f>G87*(C87-H86)+H86</f>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H87" s="40">
+        <f t="shared" si="6"/>
         <v>1688.3887367168325</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="37">
+        <v>5</v>
+      </c>
+      <c r="J87" s="34">
+        <f>((J86 * COUNT(C78:C87))-J86+C87)/COUNT(C78:C87)</f>
+        <v>1687.8280793505407</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="33">
         <v>41555</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="45">
         <v>1655.45</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E88" s="12">
-        <f t="shared" si="3"/>
+      <c r="E88" s="43">
+        <f t="shared" si="8"/>
         <v>1685.434</v>
       </c>
       <c r="F88" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G88" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H88" s="15">
-        <f>G88*(C88-H87)+H87</f>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H88" s="40">
+        <f t="shared" si="6"/>
         <v>1682.3998754955901</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="37">
+        <v>5</v>
+      </c>
+      <c r="J88" s="34">
+        <f>((J87 * COUNT(C79:C88))-J87+C88)/COUNT(C79:C88)</f>
+        <v>1684.5902714154868</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="33">
         <v>41556</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="45">
         <v>1656.4</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E89" s="12">
-        <f t="shared" si="3"/>
+      <c r="E89" s="43">
+        <f t="shared" si="8"/>
         <v>1681.797</v>
       </c>
       <c r="F89" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G89" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H89" s="15">
-        <f>G89*(C89-H88)+H88</f>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H89" s="40">
+        <f t="shared" si="6"/>
         <v>1677.6726254054829</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="37">
+        <v>5</v>
+      </c>
+      <c r="J89" s="34">
+        <f>((J88 * COUNT(C80:C89))-J88+C89)/COUNT(C80:C89)</f>
+        <v>1681.7712442739382</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="33">
         <v>41557</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="45">
         <v>1692.56</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E90" s="12">
-        <f t="shared" si="3"/>
+      <c r="E90" s="43">
+        <f t="shared" si="8"/>
         <v>1681.1860000000001</v>
       </c>
       <c r="F90" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G90" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H90" s="15">
-        <f>G90*(C90-H89)+H89</f>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H90" s="40">
+        <f t="shared" si="6"/>
         <v>1680.3794207863041</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="37">
+        <v>5</v>
+      </c>
+      <c r="J90" s="34">
+        <f>((J89 * COUNT(C81:C90))-J89+C90)/COUNT(C81:C90)</f>
+        <v>1682.8501198465444</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="33">
         <v>41558</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="45">
         <v>1703.2</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="12">
-        <f t="shared" si="3"/>
+      <c r="E91" s="43">
+        <f t="shared" si="8"/>
         <v>1682.3310000000001</v>
       </c>
       <c r="F91" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G91" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H91" s="15">
-        <f>G91*(C91-H90)+H90</f>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H91" s="40">
+        <f t="shared" si="6"/>
         <v>1684.528617006976</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="37">
+        <v>5</v>
+      </c>
+      <c r="J91" s="34">
+        <f>((J90 * COUNT(C82:C91))-J90+C91)/COUNT(C82:C91)</f>
+        <v>1684.88510786189</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="33">
         <v>41561</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" s="45">
         <v>1710.14</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E92" s="12">
-        <f t="shared" si="3"/>
+      <c r="E92" s="43">
+        <f t="shared" si="8"/>
         <v>1685.19</v>
       </c>
       <c r="F92" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G92" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H92" s="15">
-        <f>G92*(C92-H91)+H91</f>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H92" s="40">
+        <f t="shared" si="6"/>
         <v>1689.1852320966168</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="37">
+        <v>5</v>
+      </c>
+      <c r="J92" s="34">
+        <f>((J91 * COUNT(C83:C92))-J91+C92)/COUNT(C83:C92)</f>
+        <v>1687.4105970757009</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="33">
         <v>41562</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="45">
         <v>1698.06</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E93" s="12">
-        <f t="shared" si="3"/>
+      <c r="E93" s="43">
+        <f t="shared" si="8"/>
         <v>1685.4959999999999</v>
       </c>
       <c r="F93" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G93" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H93" s="15">
-        <f>G93*(C93-H92)+H92</f>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H93" s="40">
+        <f t="shared" si="6"/>
         <v>1690.7988262608683</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="37">
+        <v>5</v>
+      </c>
+      <c r="J93" s="34">
+        <f>((J92 * COUNT(C84:C93))-J92+C93)/COUNT(C84:C93)</f>
+        <v>1688.475537368131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="33">
         <v>41563</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="45">
         <v>1721.54</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E94" s="12">
-        <f t="shared" si="3"/>
+      <c r="E94" s="43">
+        <f t="shared" si="8"/>
         <v>1688.2629999999997</v>
       </c>
       <c r="F94" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G94" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H94" s="15">
-        <f>G94*(C94-H93)+H93</f>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H94" s="40">
+        <f t="shared" ref="H94:H112" si="9">G94*(C94-H93)+H93</f>
         <v>1696.388130577074</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="37">
+        <v>5</v>
+      </c>
+      <c r="J94" s="34">
+        <f>((J93 * COUNT(C85:C94))-J93+C94)/COUNT(C85:C94)</f>
+        <v>1691.7819836313179</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="33">
         <v>41564</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="45">
         <v>1733.15</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E95" s="12">
-        <f t="shared" si="3"/>
+      <c r="E95" s="43">
+        <f t="shared" si="8"/>
         <v>1693.712</v>
       </c>
       <c r="F95" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G95" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H95" s="15">
-        <f>G95*(C95-H94)+H94</f>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H95" s="40">
+        <f t="shared" si="9"/>
         <v>1703.0721068357877</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="37">
+        <v>5</v>
+      </c>
+      <c r="J95" s="34">
+        <f>((J94 * COUNT(C86:C95))-J94+C95)/COUNT(C86:C95)</f>
+        <v>1695.9187852681862</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="33">
         <v>41565</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="45">
         <v>1744.5</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E96" s="12">
-        <f t="shared" si="3"/>
+      <c r="E96" s="43">
+        <f t="shared" si="8"/>
         <v>1699.1119999999996</v>
       </c>
       <c r="F96" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G96" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H96" s="15">
-        <f>G96*(C96-H95)+H95</f>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H96" s="40">
+        <f t="shared" si="9"/>
         <v>1710.6044510474626</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="37">
+        <v>5</v>
+      </c>
+      <c r="J96" s="34">
+        <f>((J95 * COUNT(C87:C96))-J95+C96)/COUNT(C87:C96)</f>
+        <v>1700.7769067413676</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="33">
         <v>41568</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="45">
         <v>1744.66</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E97" s="12">
-        <f t="shared" si="3"/>
+      <c r="E97" s="43">
+        <f t="shared" si="8"/>
         <v>1705.9659999999999</v>
       </c>
       <c r="F97" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G97" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H97" s="15">
-        <f>G97*(C97-H96)+H96</f>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H97" s="40">
+        <f t="shared" si="9"/>
         <v>1716.7963690388331</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="37">
+        <v>5</v>
+      </c>
+      <c r="J97" s="34">
+        <f>((J96 * COUNT(C88:C97))-J96+C97)/COUNT(C88:C97)</f>
+        <v>1705.1652160672306</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="33">
         <v>41569</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="45">
         <v>1754.67</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E98" s="12">
-        <f t="shared" si="3"/>
+      <c r="E98" s="43">
+        <f t="shared" si="8"/>
         <v>1715.8880000000001</v>
       </c>
       <c r="F98" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G98" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H98" s="15">
-        <f>G98*(C98-H97)+H97</f>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H98" s="40">
+        <f t="shared" si="9"/>
         <v>1723.6824837590452</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="37">
+        <v>5</v>
+      </c>
+      <c r="J98" s="34">
+        <f>((J97 * COUNT(C89:C98))-J97+C98)/COUNT(C89:C98)</f>
+        <v>1710.1156944605077</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="33">
         <v>41570</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="45">
         <v>1746.38</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E99" s="12">
-        <f t="shared" si="3"/>
+      <c r="E99" s="43">
+        <f t="shared" si="8"/>
         <v>1724.886</v>
       </c>
       <c r="F99" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G99" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H99" s="15">
-        <f>G99*(C99-H98)+H98</f>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H99" s="40">
+        <f t="shared" si="9"/>
         <v>1727.8093048937642</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="37">
+        <v>5</v>
+      </c>
+      <c r="J99" s="34">
+        <f>((J98 * COUNT(C90:C99))-J98+C99)/COUNT(C90:C99)</f>
+        <v>1713.7421250144569</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="33">
         <v>41571</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="45">
         <v>1752.07</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E100" s="12">
-        <f t="shared" si="3"/>
+      <c r="E100" s="43">
+        <f t="shared" si="8"/>
         <v>1730.837</v>
       </c>
       <c r="F100" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G100" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H100" s="15">
-        <f>G100*(C100-H99)+H99</f>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H100" s="40">
+        <f t="shared" si="9"/>
         <v>1732.2203403676253</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="37">
+        <v>5</v>
+      </c>
+      <c r="J100" s="34">
+        <f>((J99 * COUNT(C91:C100))-J99+C100)/COUNT(C91:C100)</f>
+        <v>1717.5749125130114</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="33">
         <v>41572</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="45">
         <v>1759.77</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E101" s="12">
-        <f t="shared" si="3"/>
+      <c r="E101" s="43">
+        <f t="shared" si="8"/>
         <v>1736.4939999999999</v>
       </c>
       <c r="F101" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G101" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H101" s="15">
-        <f>G101*(C101-H100)+H100</f>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H101" s="40">
+        <f t="shared" si="9"/>
         <v>1737.2293693916934</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="37">
+        <v>5</v>
+      </c>
+      <c r="J101" s="34">
+        <f>((J100 * COUNT(C92:C101))-J100+C101)/COUNT(C92:C101)</f>
+        <v>1721.7944212617101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="33">
         <v>41575</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102" s="45">
         <v>1762.11</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E102" s="12">
-        <f t="shared" si="3"/>
+      <c r="E102" s="43">
+        <f t="shared" si="8"/>
         <v>1741.691</v>
       </c>
       <c r="F102" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G102" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H102" s="15">
-        <f>G102*(C102-H101)+H101</f>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H102" s="40">
+        <f t="shared" si="9"/>
         <v>1741.7531204113855</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="37">
+        <v>5</v>
+      </c>
+      <c r="J102" s="34">
+        <f>((J101 * COUNT(C93:C102))-J101+C102)/COUNT(C93:C102)</f>
+        <v>1725.825979135539</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="33">
         <v>41576</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="45">
         <v>1771.95</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E103" s="12">
-        <f t="shared" si="3"/>
+      <c r="E103" s="43">
+        <f t="shared" si="8"/>
         <v>1749.0800000000004</v>
       </c>
       <c r="F103" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G103" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H103" s="15">
-        <f>G103*(C103-H102)+H102</f>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H103" s="40">
+        <f t="shared" si="9"/>
         <v>1747.24346215477</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="37">
+        <v>5</v>
+      </c>
+      <c r="J103" s="34">
+        <f>((J102 * COUNT(C94:C103))-J102+C103)/COUNT(C94:C103)</f>
+        <v>1730.4383812219851</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="33">
         <v>41577</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104" s="45">
         <v>1763.31</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E104" s="12">
-        <f t="shared" si="3"/>
+      <c r="E104" s="43">
+        <f t="shared" si="8"/>
         <v>1753.2570000000003</v>
       </c>
       <c r="F104" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G104" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H104" s="15">
-        <f>G104*(C104-H103)+H103</f>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H104" s="40">
+        <f t="shared" si="9"/>
         <v>1750.1646508539027</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="37">
+        <v>5</v>
+      </c>
+      <c r="J104" s="34">
+        <f>((J103 * COUNT(C95:C104))-J103+C104)/COUNT(C95:C104)</f>
+        <v>1733.7255430997866</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="33">
         <v>41578</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105" s="45">
         <v>1756.54</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E105" s="12">
-        <f t="shared" si="3"/>
+      <c r="E105" s="43">
+        <f t="shared" si="8"/>
         <v>1755.5960000000002</v>
       </c>
       <c r="F105" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G105" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H105" s="15">
-        <f>G105*(C105-H104)+H104</f>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H105" s="40">
+        <f t="shared" si="9"/>
         <v>1751.3238052441022</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="37">
+        <v>5</v>
+      </c>
+      <c r="J105" s="34">
+        <f>((J104 * COUNT(C96:C105))-J104+C105)/COUNT(C96:C105)</f>
+        <v>1736.006988789808</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="33">
         <v>41579</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106" s="45">
         <v>1761.64</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E106" s="12">
-        <f t="shared" si="3"/>
+      <c r="E106" s="43">
+        <f t="shared" si="8"/>
         <v>1757.31</v>
       </c>
       <c r="F106" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G106" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H106" s="15">
-        <f>G106*(C106-H105)+H105</f>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H106" s="40">
+        <f t="shared" si="9"/>
         <v>1753.1994770179019</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="37">
+        <v>5</v>
+      </c>
+      <c r="J106" s="34">
+        <f>((J105 * COUNT(C97:C106))-J105+C106)/COUNT(C97:C106)</f>
+        <v>1738.5702899108273</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="33">
         <v>41582</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107" s="45">
         <v>1767.93</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E107" s="12">
-        <f t="shared" si="3"/>
+      <c r="E107" s="43">
+        <f t="shared" si="8"/>
         <v>1759.6369999999999</v>
       </c>
       <c r="F107" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G107" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H107" s="15">
-        <f>G107*(C107-H106)+H106</f>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H107" s="40">
+        <f t="shared" si="9"/>
         <v>1755.8777539237381</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="37">
+        <v>5</v>
+      </c>
+      <c r="J107" s="34">
+        <f>((J106 * COUNT(C98:C107))-J106+C107)/COUNT(C98:C107)</f>
+        <v>1741.5062609197444</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="33">
         <v>41583</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108" s="45">
         <v>1762.97</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E108" s="12">
-        <f t="shared" si="3"/>
+      <c r="E108" s="43">
+        <f t="shared" si="8"/>
         <v>1760.4669999999999</v>
       </c>
       <c r="F108" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G108" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H108" s="15">
-        <f>G108*(C108-H107)+H107</f>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H108" s="40">
+        <f t="shared" si="9"/>
         <v>1757.1672532103312</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="37">
+        <v>5</v>
+      </c>
+      <c r="J108" s="34">
+        <f>((J107 * COUNT(C99:C108))-J107+C108)/COUNT(C99:C108)</f>
+        <v>1743.65263482777</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="33">
         <v>41584</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109" s="45">
         <v>1770.49</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E109" s="12">
-        <f t="shared" si="3"/>
+      <c r="E109" s="43">
+        <f t="shared" si="8"/>
         <v>1762.8779999999999</v>
       </c>
       <c r="F109" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G109" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H109" s="15">
-        <f>G109*(C109-H108)+H108</f>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H109" s="40">
+        <f t="shared" si="9"/>
         <v>1759.5895708084529</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="37">
+        <v>5</v>
+      </c>
+      <c r="J109" s="34">
+        <f>((J108 * COUNT(C100:C109))-J108+C109)/COUNT(C100:C109)</f>
+        <v>1746.3363713449933</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="33">
         <v>41585</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110" s="45">
         <v>1747.15</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E110" s="12">
-        <f t="shared" si="3"/>
+      <c r="E110" s="43">
+        <f t="shared" si="8"/>
         <v>1762.386</v>
       </c>
       <c r="F110" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G110" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H110" s="15">
-        <f>G110*(C110-H109)+H109</f>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H110" s="40">
+        <f t="shared" si="9"/>
         <v>1757.3278306614616</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="37">
+        <v>5</v>
+      </c>
+      <c r="J110" s="34">
+        <f>((J109 * COUNT(C101:C110))-J109+C110)/COUNT(C101:C110)</f>
+        <v>1746.417734210494</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="33">
         <v>41586</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111" s="45">
         <v>1770.61</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E111" s="12">
-        <f t="shared" si="3"/>
+      <c r="E111" s="43">
+        <f t="shared" si="8"/>
         <v>1763.4699999999998</v>
       </c>
       <c r="F111" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G111" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H111" s="15">
-        <f>G111*(C111-H110)+H110</f>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H111" s="40">
+        <f t="shared" si="9"/>
         <v>1759.7427705411958</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="37">
+        <v>5</v>
+      </c>
+      <c r="J111" s="34">
+        <f>((J110 * COUNT(C102:C111))-J110+C111)/COUNT(C102:C111)</f>
+        <v>1748.8369607894444</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="33">
         <v>41589</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112" s="45">
         <v>1771.89</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E112" s="12">
-        <f t="shared" si="3"/>
+      <c r="E112" s="43">
+        <f t="shared" si="8"/>
         <v>1764.4479999999999</v>
       </c>
       <c r="F112" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G112" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="H112" s="15">
-        <f>G112*(C112-H111)+H111</f>
+        <f t="shared" si="7"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H112" s="40">
+        <f t="shared" si="9"/>
         <v>1761.951357715524</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="J112" s="34">
+        <f>((J111 * COUNT(C103:C112))-J111+C112)/COUNT(C103:C112)</f>
+        <v>1751.1422647105003</v>
       </c>
     </row>
     <row r="113" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C113" s="1">
+      <c r="C113" s="45">
         <f>COUNT(C3:C112)</f>
         <v>110</v>
       </c>
-      <c r="E113" s="12">
+      <c r="E113" s="43">
         <f>COUNTIF(E3:E112, "&gt;0")</f>
         <v>100</v>
       </c>
-      <c r="F113" s="12"/>
-      <c r="G113" s="12">
+      <c r="G113" s="11">
         <f>COUNTIF(G3:G112, "&gt;0")</f>
         <v>109</v>
       </c>
-      <c r="H113" s="12">
+      <c r="H113" s="40">
         <f>COUNTIF(H3:H112, "&gt;0")</f>
         <v>100</v>
       </c>
@@ -4610,35 +5062,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="34" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="30" customWidth="1"/>
     <col min="2" max="2" width="2" style="7" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="2.140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="10" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.140625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="12"/>
+    <col min="7" max="7" width="9.140625" style="11"/>
     <col min="8" max="8" width="2.140625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="12"/>
-    <col min="10" max="10" width="2.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="31"/>
+    <col min="9" max="9" width="9.140625" style="11"/>
+    <col min="10" max="10" width="2.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="35"/>
+      <c r="B1" s="18"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="31"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6"/>
@@ -4646,7 +5098,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="14" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="8"/>
@@ -4657,12 +5109,12 @@
       <c r="I2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="28" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="34">
+      <c r="A3" s="30">
         <v>41435</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -4674,27 +5126,27 @@
       <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="15">
         <v>0</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>0</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-      <c r="J3" s="20" t="s">
+      <c r="I3" s="11">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="34">
+      <c r="A4" s="30">
         <v>41436</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -4706,27 +5158,27 @@
       <c r="D4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="15">
         <v>0</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>0</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="12">
-        <v>0</v>
-      </c>
-      <c r="J4" s="20" t="s">
+      <c r="I4" s="11">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="34">
+      <c r="A5" s="30">
         <v>41437</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -4738,27 +5190,27 @@
       <c r="D5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="15">
         <v>0</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>0</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-      <c r="J5" s="20" t="s">
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="34">
+      <c r="A6" s="30">
         <v>41438</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -4770,27 +5222,27 @@
       <c r="D6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="15">
         <v>0</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>0</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="12">
-        <v>0</v>
-      </c>
-      <c r="J6" s="20" t="s">
+      <c r="I6" s="11">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="34">
+      <c r="A7" s="30">
         <v>41439</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -4802,27 +5254,27 @@
       <c r="D7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="15">
         <v>0</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>0</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="12">
-        <v>0</v>
-      </c>
-      <c r="J7" s="20" t="s">
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
+      <c r="A8" s="30">
         <v>41442</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -4834,27 +5286,27 @@
       <c r="D8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="15">
         <v>0</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>0</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="12">
-        <v>0</v>
-      </c>
-      <c r="J8" s="20" t="s">
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
+      <c r="A9" s="30">
         <v>41443</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -4866,27 +5318,27 @@
       <c r="D9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="15">
         <v>0</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>0</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="12">
-        <v>0</v>
-      </c>
-      <c r="J9" s="20" t="s">
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="34">
+      <c r="A10" s="30">
         <v>41444</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -4898,27 +5350,27 @@
       <c r="D10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="15">
         <v>0</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <v>0</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="12">
-        <v>0</v>
-      </c>
-      <c r="J10" s="20" t="s">
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="34">
+      <c r="A11" s="30">
         <v>41445</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -4930,27 +5382,27 @@
       <c r="D11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="15">
         <v>0</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>0</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="12">
-        <v>0</v>
-      </c>
-      <c r="J11" s="20" t="s">
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="34">
+      <c r="A12" s="30">
         <v>41446</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -4962,27 +5414,27 @@
       <c r="D12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="15">
         <v>0</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <v>0</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="12">
-        <v>0</v>
-      </c>
-      <c r="J12" s="20" t="s">
+      <c r="I12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="34">
+      <c r="A13" s="30">
         <v>41449</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -4994,27 +5446,27 @@
       <c r="D13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="15">
         <v>0</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>0</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="12">
-        <v>0</v>
-      </c>
-      <c r="J13" s="20" t="s">
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
+      <c r="A14" s="30">
         <v>41450</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -5026,27 +5478,27 @@
       <c r="D14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="15">
         <v>0</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <v>0</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="12">
-        <v>0</v>
-      </c>
-      <c r="J14" s="20" t="s">
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="34">
+      <c r="A15" s="30">
         <v>41451</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -5058,27 +5510,27 @@
       <c r="D15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="15">
         <v>0</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="11">
         <v>0</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="12">
-        <v>0</v>
-      </c>
-      <c r="J15" s="20" t="s">
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+      <c r="J15" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="34">
+      <c r="A16" s="30">
         <v>41452</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -5090,27 +5542,27 @@
       <c r="D16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="15">
         <v>0</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="11">
         <v>0</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="12">
-        <v>0</v>
-      </c>
-      <c r="J16" s="20" t="s">
+      <c r="I16" s="11">
+        <v>0</v>
+      </c>
+      <c r="J16" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="34">
+      <c r="A17" s="30">
         <v>41453</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -5122,27 +5574,27 @@
       <c r="D17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="15">
         <v>0</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="11">
         <v>0</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="12">
-        <v>0</v>
-      </c>
-      <c r="J17" s="20" t="s">
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="34">
+      <c r="A18" s="30">
         <v>41456</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -5154,27 +5606,27 @@
       <c r="D18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="15">
         <v>0</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="11">
         <v>0</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="12">
-        <v>0</v>
-      </c>
-      <c r="J18" s="20" t="s">
+      <c r="I18" s="11">
+        <v>0</v>
+      </c>
+      <c r="J18" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="34">
+      <c r="A19" s="30">
         <v>41457</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -5186,27 +5638,27 @@
       <c r="D19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="15">
         <v>0</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="11">
         <v>0</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="12">
-        <v>0</v>
-      </c>
-      <c r="J19" s="20" t="s">
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="34">
+      <c r="A20" s="30">
         <v>41458</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -5218,27 +5670,27 @@
       <c r="D20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="15">
         <v>0</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="11">
         <v>0</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="12">
-        <v>0</v>
-      </c>
-      <c r="J20" s="20" t="s">
+      <c r="I20" s="11">
+        <v>0</v>
+      </c>
+      <c r="J20" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="34">
+      <c r="A21" s="30">
         <v>41460</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -5250,27 +5702,27 @@
       <c r="D21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="15">
         <v>0</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="11">
         <v>0</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="12">
-        <v>0</v>
-      </c>
-      <c r="J21" s="20" t="s">
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="34">
+      <c r="A22" s="30">
         <v>41463</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -5282,34 +5734,34 @@
       <c r="D22" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="15">
         <f>ROUND(AVERAGE(C3:C22),2)</f>
         <v>1617.28</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="11">
         <f>E22+(2*STDEVP(C3:C22))</f>
         <v>1658.2282861546121</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="11">
         <f>E22-(2*STDEVP(C3:C22))</f>
         <v>1576.3317138453879</v>
       </c>
-      <c r="J22" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" s="31">
+      <c r="J22" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="27">
         <f>STDEVP(C3:C22)</f>
         <v>20.474143077306067</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="34">
+      <c r="A23" s="30">
         <v>41464</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -5321,34 +5773,34 @@
       <c r="D23" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="15">
         <f t="shared" ref="E23:E72" si="0">ROUND(AVERAGE(C4:C23),2)</f>
         <v>1617.76</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="12">
-        <f t="shared" ref="G23:G86" si="1">E23+(2*STDEVP(C4:C23))</f>
+      <c r="G23" s="11">
+        <f t="shared" ref="G23:G72" si="1">E23+(2*STDEVP(C4:C23))</f>
         <v>1660.080916530718</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="12">
-        <f t="shared" ref="I23:I86" si="2">E23-(2*STDEVP(C4:C23))</f>
+      <c r="I23" s="11">
+        <f t="shared" ref="I23:I72" si="2">E23-(2*STDEVP(C4:C23))</f>
         <v>1575.439083469282</v>
       </c>
-      <c r="J23" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" s="31">
-        <f t="shared" ref="K23:K86" si="3">STDEVP(C4:C23)</f>
+      <c r="J23" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="27">
+        <f t="shared" ref="K23:K72" si="3">STDEVP(C4:C23)</f>
         <v>21.160458265358997</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="34">
+      <c r="A24" s="30">
         <v>41465</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -5360,34 +5812,34 @@
       <c r="D24" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="15">
         <f t="shared" si="0"/>
         <v>1619.08</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="11">
         <f t="shared" si="1"/>
         <v>1663.9477801880146</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="11">
         <f t="shared" si="2"/>
         <v>1574.2122198119853</v>
       </c>
-      <c r="J24" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K24" s="31">
+      <c r="J24" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="27">
         <f t="shared" si="3"/>
         <v>22.43389009400731</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="34">
+      <c r="A25" s="30">
         <v>41466</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -5399,34 +5851,34 @@
       <c r="D25" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="15">
         <f t="shared" si="0"/>
         <v>1622.21</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="11">
         <f t="shared" si="1"/>
         <v>1673.1147414196359</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="11">
         <f t="shared" si="2"/>
         <v>1571.3052585803641</v>
       </c>
-      <c r="J25" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25" s="31">
+      <c r="J25" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="27">
         <f t="shared" si="3"/>
         <v>25.452370709817966</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="34">
+      <c r="A26" s="30">
         <v>41467</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -5438,34 +5890,34 @@
       <c r="D26" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="15">
         <f t="shared" si="0"/>
         <v>1624.4</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="11">
         <f t="shared" si="1"/>
         <v>1681.0078835852394</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="11">
         <f t="shared" si="2"/>
         <v>1567.7921164147608</v>
       </c>
-      <c r="J26" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K26" s="31">
+      <c r="J26" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="27">
         <f t="shared" si="3"/>
         <v>28.303941792619622</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="34">
+      <c r="A27" s="30">
         <v>41470</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -5477,34 +5929,34 @@
       <c r="D27" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="15">
         <f t="shared" si="0"/>
         <v>1627.19</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="11">
         <f t="shared" si="1"/>
         <v>1689.2178380970997</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="11">
         <f t="shared" si="2"/>
         <v>1565.1621619029004</v>
       </c>
-      <c r="J27" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K27" s="31">
+      <c r="J27" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="27">
         <f t="shared" si="3"/>
         <v>31.013919048549791</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="34">
+      <c r="A28" s="30">
         <v>41471</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -5516,34 +5968,34 @@
       <c r="D28" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="15">
         <f t="shared" si="0"/>
         <v>1629.05</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="11">
         <f t="shared" si="1"/>
         <v>1694.5263689509429</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="11">
         <f t="shared" si="2"/>
         <v>1563.573631049057</v>
       </c>
-      <c r="J28" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K28" s="31">
+      <c r="J28" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="27">
         <f t="shared" si="3"/>
         <v>32.738184475471449</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="34">
+      <c r="A29" s="30">
         <v>41472</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -5555,34 +6007,34 @@
       <c r="D29" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="15">
         <f t="shared" si="0"/>
         <v>1630.5</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="11">
         <f t="shared" si="1"/>
         <v>1699.1514088056465</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="11">
         <f t="shared" si="2"/>
         <v>1561.8485911943535</v>
       </c>
-      <c r="J29" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K29" s="31">
+      <c r="J29" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="27">
         <f t="shared" si="3"/>
         <v>34.325704402823263</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="34">
+      <c r="A30" s="30">
         <v>41473</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -5594,34 +6046,34 @@
       <c r="D30" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="15">
         <f t="shared" si="0"/>
         <v>1633.52</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="11">
         <f t="shared" si="1"/>
         <v>1706.7940890833861</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="11">
         <f t="shared" si="2"/>
         <v>1560.2459109166139</v>
       </c>
-      <c r="J30" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K30" s="31">
+      <c r="J30" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" s="27">
         <f t="shared" si="3"/>
         <v>36.637044541693037</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="34">
+      <c r="A31" s="30">
         <v>41474</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -5633,34 +6085,34 @@
       <c r="D31" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="15">
         <f t="shared" si="0"/>
         <v>1638.72</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="11">
         <f t="shared" si="1"/>
         <v>1713.1251192526429</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="11">
         <f t="shared" si="2"/>
         <v>1564.3148807473572</v>
       </c>
-      <c r="J31" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K31" s="31">
+      <c r="J31" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="27">
         <f t="shared" si="3"/>
         <v>37.20255962632141</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="34">
+      <c r="A32" s="30">
         <v>41477</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -5672,34 +6124,34 @@
       <c r="D32" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="15">
         <f t="shared" si="0"/>
         <v>1643.87</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="11">
         <f t="shared" si="1"/>
         <v>1719.0152588723997</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="11">
         <f t="shared" si="2"/>
         <v>1568.7247411276001</v>
       </c>
-      <c r="J32" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="31">
+      <c r="J32" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="27">
         <f t="shared" si="3"/>
         <v>37.572629436199961</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="34">
+      <c r="A33" s="30">
         <v>41478</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -5711,34 +6163,34 @@
       <c r="D33" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="15">
         <f t="shared" si="0"/>
         <v>1649.84</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="11">
         <f t="shared" si="1"/>
         <v>1720.3608792557211</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I33" s="11">
         <f t="shared" si="2"/>
         <v>1579.3191207442787</v>
       </c>
-      <c r="J33" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K33" s="31">
+      <c r="J33" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="27">
         <f t="shared" si="3"/>
         <v>35.260439627860563</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="34">
+      <c r="A34" s="30">
         <v>41479</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -5750,34 +6202,34 @@
       <c r="D34" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="15">
         <f t="shared" si="0"/>
         <v>1654.73</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="11">
         <f t="shared" si="1"/>
         <v>1720.8657411389636</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="11">
         <f t="shared" si="2"/>
         <v>1588.5942588610365</v>
       </c>
-      <c r="J34" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K34" s="31">
+      <c r="J34" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" s="27">
         <f t="shared" si="3"/>
         <v>33.067870569481791</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="34">
+      <c r="A35" s="30">
         <v>41480</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -5789,34 +6241,34 @@
       <c r="D35" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="15">
         <f t="shared" si="0"/>
         <v>1659.08</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="11">
         <f t="shared" si="1"/>
         <v>1722.4884093082296</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="11">
         <f t="shared" si="2"/>
         <v>1595.6715906917702</v>
       </c>
-      <c r="J35" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K35" s="31">
+      <c r="J35" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K35" s="27">
         <f t="shared" si="3"/>
         <v>31.704204654114875</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="34">
+      <c r="A36" s="30">
         <v>41481</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -5828,34 +6280,34 @@
       <c r="D36" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="15">
         <f t="shared" si="0"/>
         <v>1663.01</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="11">
         <f t="shared" si="1"/>
         <v>1724.2483753540212</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I36" s="11">
         <f t="shared" si="2"/>
         <v>1601.7716246459788</v>
       </c>
-      <c r="J36" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K36" s="31">
+      <c r="J36" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36" s="27">
         <f t="shared" si="3"/>
         <v>30.619187677010636</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="34">
+      <c r="A37" s="30">
         <v>41484</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -5867,34 +6319,34 @@
       <c r="D37" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="15">
         <f t="shared" si="0"/>
         <v>1666.96</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="11">
         <f t="shared" si="1"/>
         <v>1723.0291891416312</v>
       </c>
       <c r="H37" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I37" s="12">
+      <c r="I37" s="11">
         <f t="shared" si="2"/>
         <v>1610.8908108583689</v>
       </c>
-      <c r="J37" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K37" s="31">
+      <c r="J37" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37" s="27">
         <f t="shared" si="3"/>
         <v>28.034594570815532</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="34">
+      <c r="A38" s="30">
         <v>41485</v>
       </c>
       <c r="B38" s="7" t="s">
@@ -5906,34 +6358,34 @@
       <c r="D38" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="15">
         <f t="shared" si="0"/>
         <v>1670.51</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="11">
         <f t="shared" si="1"/>
         <v>1721.7426709336924</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="11">
         <f t="shared" si="2"/>
         <v>1619.2773290663076</v>
       </c>
-      <c r="J38" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K38" s="31">
+      <c r="J38" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" s="27">
         <f t="shared" si="3"/>
         <v>25.616335466846149</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="34">
+      <c r="A39" s="30">
         <v>41486</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -5945,34 +6397,34 @@
       <c r="D39" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="15">
         <f t="shared" si="0"/>
         <v>1674.09</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="11">
         <f t="shared" si="1"/>
         <v>1718.6203608339299</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I39" s="11">
         <f t="shared" si="2"/>
         <v>1629.5596391660699</v>
       </c>
-      <c r="J39" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K39" s="31">
+      <c r="J39" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K39" s="27">
         <f t="shared" si="3"/>
         <v>22.265180416964952</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="34">
+      <c r="A40" s="30">
         <v>41487</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -5984,34 +6436,34 @@
       <c r="D40" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="15">
         <f t="shared" si="0"/>
         <v>1678.66</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="11">
         <f t="shared" si="1"/>
         <v>1716.4158516789121</v>
       </c>
       <c r="H40" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I40" s="11">
         <f t="shared" si="2"/>
         <v>1640.9041483210881</v>
       </c>
-      <c r="J40" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K40" s="31">
+      <c r="J40" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K40" s="27">
         <f t="shared" si="3"/>
         <v>18.877925839455976</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="34">
+      <c r="A41" s="30">
         <v>41488</v>
       </c>
       <c r="B41" s="7" t="s">
@@ -6023,34 +6475,34 @@
       <c r="D41" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="15">
         <f t="shared" si="0"/>
         <v>1682.55</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="11">
         <f t="shared" si="1"/>
         <v>1716.0122181571992</v>
       </c>
       <c r="H41" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I41" s="11">
         <f t="shared" si="2"/>
         <v>1649.0877818428007</v>
       </c>
-      <c r="J41" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K41" s="31">
+      <c r="J41" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K41" s="27">
         <f t="shared" si="3"/>
         <v>16.731109078599673</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="34">
+      <c r="A42" s="30">
         <v>41491</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -6062,34 +6514,34 @@
       <c r="D42" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="15">
         <f t="shared" si="0"/>
         <v>1685.89</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="11">
         <f t="shared" si="1"/>
         <v>1714.9037519807421</v>
       </c>
       <c r="H42" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I42" s="12">
+      <c r="I42" s="11">
         <f t="shared" si="2"/>
         <v>1656.8762480192581</v>
       </c>
-      <c r="J42" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K42" s="31">
+      <c r="J42" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K42" s="27">
         <f t="shared" si="3"/>
         <v>14.506875990370935</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="34">
+      <c r="A43" s="30">
         <v>41492</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -6101,34 +6553,34 @@
       <c r="D43" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="15">
         <f t="shared" si="0"/>
         <v>1688.14</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="11">
         <f t="shared" si="1"/>
         <v>1713.0904697150174</v>
       </c>
       <c r="H43" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I43" s="12">
+      <c r="I43" s="11">
         <f t="shared" si="2"/>
         <v>1663.1895302849828</v>
       </c>
-      <c r="J43" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K43" s="31">
+      <c r="J43" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K43" s="27">
         <f t="shared" si="3"/>
         <v>12.47523485750871</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="34">
+      <c r="A44" s="30">
         <v>41493</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -6140,34 +6592,34 @@
       <c r="D44" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="15">
         <f t="shared" si="0"/>
         <v>1690.05</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="11">
         <f t="shared" si="1"/>
         <v>1708.9463715035454</v>
       </c>
       <c r="H44" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I44" s="12">
+      <c r="I44" s="11">
         <f t="shared" si="2"/>
         <v>1671.1536284964545</v>
       </c>
-      <c r="J44" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K44" s="31">
+      <c r="J44" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K44" s="27">
         <f t="shared" si="3"/>
         <v>9.4481857517726642</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="34">
+      <c r="A45" s="30">
         <v>41494</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -6179,34 +6631,34 @@
       <c r="D45" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E45" s="15">
         <f t="shared" si="0"/>
         <v>1691.18</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G45" s="11">
         <f t="shared" si="1"/>
         <v>1709.0084380695562</v>
       </c>
       <c r="H45" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I45" s="12">
+      <c r="I45" s="11">
         <f t="shared" si="2"/>
         <v>1673.3515619304439</v>
       </c>
-      <c r="J45" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K45" s="31">
+      <c r="J45" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K45" s="27">
         <f t="shared" si="3"/>
         <v>8.9142190347780854</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="34">
+      <c r="A46" s="30">
         <v>41495</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -6218,34 +6670,34 @@
       <c r="D46" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E46" s="15">
         <f t="shared" si="0"/>
         <v>1691.74</v>
       </c>
       <c r="F46" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="11">
         <f t="shared" si="1"/>
         <v>1708.8414926541516</v>
       </c>
       <c r="H46" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I46" s="12">
+      <c r="I46" s="11">
         <f t="shared" si="2"/>
         <v>1674.6385073458484</v>
       </c>
-      <c r="J46" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K46" s="31">
+      <c r="J46" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K46" s="27">
         <f t="shared" si="3"/>
         <v>8.5507463270757817</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="34">
+      <c r="A47" s="30">
         <v>41498</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -6257,34 +6709,34 @@
       <c r="D47" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E47" s="15">
         <f t="shared" si="0"/>
         <v>1692.09</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G47" s="11">
         <f t="shared" si="1"/>
         <v>1708.7012758089195</v>
       </c>
       <c r="H47" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I47" s="12">
+      <c r="I47" s="11">
         <f t="shared" si="2"/>
         <v>1675.4787241910803</v>
       </c>
-      <c r="J47" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K47" s="31">
+      <c r="J47" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K47" s="27">
         <f t="shared" si="3"/>
         <v>8.3056379044598359</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="34">
+      <c r="A48" s="30">
         <v>41499</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -6296,34 +6748,34 @@
       <c r="D48" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="15">
         <f t="shared" si="0"/>
         <v>1692.98</v>
       </c>
       <c r="F48" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="11">
         <f t="shared" si="1"/>
         <v>1707.929617520191</v>
       </c>
       <c r="H48" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="12">
+      <c r="I48" s="11">
         <f t="shared" si="2"/>
         <v>1678.0303824798091</v>
       </c>
-      <c r="J48" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K48" s="31">
+      <c r="J48" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K48" s="27">
         <f t="shared" si="3"/>
         <v>7.4748087600954678</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="34">
+      <c r="A49" s="30">
         <v>41500</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -6335,34 +6787,34 @@
       <c r="D49" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="15">
         <f t="shared" si="0"/>
         <v>1693.21</v>
       </c>
       <c r="F49" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G49" s="11">
         <f t="shared" si="1"/>
         <v>1707.5512487601325</v>
       </c>
       <c r="H49" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="12">
+      <c r="I49" s="11">
         <f t="shared" si="2"/>
         <v>1678.8687512398676</v>
       </c>
-      <c r="J49" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K49" s="31">
+      <c r="J49" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K49" s="27">
         <f t="shared" si="3"/>
         <v>7.1706243800662133</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="34">
+      <c r="A50" s="30">
         <v>41501</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -6374,34 +6826,34 @@
       <c r="D50" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E50" s="15">
         <f t="shared" si="0"/>
         <v>1691.8</v>
       </c>
       <c r="F50" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G50" s="11">
         <f t="shared" si="1"/>
         <v>1711.7550447506389</v>
       </c>
       <c r="H50" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I50" s="12">
+      <c r="I50" s="11">
         <f t="shared" si="2"/>
         <v>1671.844955249361</v>
       </c>
-      <c r="J50" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K50" s="31">
+      <c r="J50" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K50" s="27">
         <f t="shared" si="3"/>
         <v>9.9775223753194435</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="34">
+      <c r="A51" s="30">
         <v>41502</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -6413,34 +6865,34 @@
       <c r="D51" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="15">
         <f t="shared" si="0"/>
         <v>1689.99</v>
       </c>
       <c r="F51" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G51" s="11">
         <f t="shared" si="1"/>
         <v>1715.3643582973048</v>
       </c>
       <c r="H51" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I51" s="12">
+      <c r="I51" s="11">
         <f t="shared" si="2"/>
         <v>1664.6156417026953</v>
       </c>
-      <c r="J51" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K51" s="31">
+      <c r="J51" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K51" s="27">
         <f t="shared" si="3"/>
         <v>12.687179148652412</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="34">
+      <c r="A52" s="30">
         <v>41505</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -6452,34 +6904,34 @@
       <c r="D52" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E52" s="15">
         <f t="shared" si="0"/>
         <v>1687.52</v>
       </c>
       <c r="F52" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G52" s="11">
         <f t="shared" si="1"/>
         <v>1719.130533117934</v>
       </c>
       <c r="H52" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I52" s="12">
+      <c r="I52" s="11">
         <f t="shared" si="2"/>
         <v>1655.909466882066</v>
       </c>
-      <c r="J52" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K52" s="31">
+      <c r="J52" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K52" s="27">
         <f t="shared" si="3"/>
         <v>15.805266558967009</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="34">
+      <c r="A53" s="30">
         <v>41506</v>
       </c>
       <c r="B53" s="7" t="s">
@@ -6491,34 +6943,34 @@
       <c r="D53" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="15">
         <f t="shared" si="0"/>
         <v>1685.52</v>
       </c>
       <c r="F53" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G53" s="12">
+      <c r="G53" s="11">
         <f t="shared" si="1"/>
         <v>1720.5312573324638</v>
       </c>
       <c r="H53" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I53" s="12">
+      <c r="I53" s="11">
         <f t="shared" si="2"/>
         <v>1650.5087426675361</v>
       </c>
-      <c r="J53" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K53" s="31">
+      <c r="J53" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K53" s="27">
         <f t="shared" si="3"/>
         <v>17.505628666231932</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="34">
+      <c r="A54" s="30">
         <v>41507</v>
       </c>
       <c r="B54" s="7" t="s">
@@ -6530,34 +6982,34 @@
       <c r="D54" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E54" s="18">
+      <c r="E54" s="15">
         <f t="shared" si="0"/>
         <v>1683.36</v>
       </c>
       <c r="F54" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G54" s="12">
+      <c r="G54" s="11">
         <f t="shared" si="1"/>
         <v>1723.0091571663256</v>
       </c>
       <c r="H54" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I54" s="12">
+      <c r="I54" s="11">
         <f t="shared" si="2"/>
         <v>1643.7108428336742</v>
       </c>
-      <c r="J54" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K54" s="31">
+      <c r="J54" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K54" s="27">
         <f t="shared" si="3"/>
         <v>19.824578583162907</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="34">
+      <c r="A55" s="30">
         <v>41508</v>
       </c>
       <c r="B55" s="7" t="s">
@@ -6569,34 +7021,34 @@
       <c r="D55" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E55" s="18">
+      <c r="E55" s="15">
         <f t="shared" si="0"/>
         <v>1681.69</v>
       </c>
       <c r="F55" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G55" s="11">
         <f t="shared" si="1"/>
         <v>1722.8098780518621</v>
       </c>
       <c r="H55" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I55" s="12">
+      <c r="I55" s="11">
         <f t="shared" si="2"/>
         <v>1640.570121948138</v>
       </c>
-      <c r="J55" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K55" s="31">
+      <c r="J55" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K55" s="27">
         <f t="shared" si="3"/>
         <v>20.559939025931019</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="34">
+      <c r="A56" s="30">
         <v>41509</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -6608,34 +7060,34 @@
       <c r="D56" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E56" s="15">
         <f t="shared" si="0"/>
         <v>1680.29</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G56" s="11">
         <f t="shared" si="1"/>
         <v>1721.8747863527035</v>
       </c>
       <c r="H56" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I56" s="12">
+      <c r="I56" s="11">
         <f t="shared" si="2"/>
         <v>1638.7052136472964</v>
       </c>
-      <c r="J56" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K56" s="31">
+      <c r="J56" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K56" s="27">
         <f t="shared" si="3"/>
         <v>20.792393176351805</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="34">
+      <c r="A57" s="30">
         <v>41512</v>
       </c>
       <c r="B57" s="7" t="s">
@@ -6647,34 +7099,34 @@
       <c r="D57" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="18">
+      <c r="E57" s="15">
         <f t="shared" si="0"/>
         <v>1678.86</v>
       </c>
       <c r="F57" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G57" s="11">
         <f t="shared" si="1"/>
         <v>1721.5982902208311</v>
       </c>
       <c r="H57" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I57" s="12">
+      <c r="I57" s="11">
         <f t="shared" si="2"/>
         <v>1636.1217097791687</v>
       </c>
-      <c r="J57" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K57" s="31">
+      <c r="J57" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K57" s="27">
         <f t="shared" si="3"/>
         <v>21.369145110415655</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="34">
+      <c r="A58" s="30">
         <v>41513</v>
       </c>
       <c r="B58" s="7" t="s">
@@ -6686,34 +7138,34 @@
       <c r="D58" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="18">
+      <c r="E58" s="15">
         <f t="shared" si="0"/>
         <v>1676.08</v>
       </c>
       <c r="F58" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G58" s="11">
         <f t="shared" si="1"/>
         <v>1723.5541059842099</v>
       </c>
       <c r="H58" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I58" s="12">
+      <c r="I58" s="11">
         <f t="shared" si="2"/>
         <v>1628.60589401579</v>
       </c>
-      <c r="J58" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K58" s="31">
+      <c r="J58" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K58" s="27">
         <f t="shared" si="3"/>
         <v>23.73705299210501</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="34">
+      <c r="A59" s="30">
         <v>41514</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -6725,34 +7177,34 @@
       <c r="D59" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="18">
+      <c r="E59" s="15">
         <f t="shared" si="0"/>
         <v>1673.55</v>
       </c>
       <c r="F59" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G59" s="12">
+      <c r="G59" s="11">
         <f t="shared" si="1"/>
         <v>1724.0242763791616</v>
       </c>
       <c r="H59" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="12">
+      <c r="I59" s="11">
         <f t="shared" si="2"/>
         <v>1623.0757236208383</v>
       </c>
-      <c r="J59" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K59" s="31">
+      <c r="J59" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K59" s="27">
         <f t="shared" si="3"/>
         <v>25.237138189580872</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="34">
+      <c r="A60" s="30">
         <v>41515</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -6764,34 +7216,34 @@
       <c r="D60" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E60" s="18">
+      <c r="E60" s="15">
         <f t="shared" si="0"/>
         <v>1670.11</v>
       </c>
       <c r="F60" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G60" s="11">
         <f t="shared" si="1"/>
         <v>1720.3956853985305</v>
       </c>
       <c r="H60" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I60" s="12">
+      <c r="I60" s="11">
         <f t="shared" si="2"/>
         <v>1619.8243146014693</v>
       </c>
-      <c r="J60" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K60" s="31">
+      <c r="J60" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K60" s="27">
         <f t="shared" si="3"/>
         <v>25.142842699265358</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="34">
+      <c r="A61" s="30">
         <v>41516</v>
       </c>
       <c r="B61" s="7" t="s">
@@ -6803,34 +7255,34 @@
       <c r="D61" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E61" s="18">
+      <c r="E61" s="15">
         <f t="shared" si="0"/>
         <v>1666.28</v>
       </c>
       <c r="F61" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G61" s="12">
+      <c r="G61" s="11">
         <f t="shared" si="1"/>
         <v>1715.6027040621254</v>
       </c>
       <c r="H61" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I61" s="12">
+      <c r="I61" s="11">
         <f t="shared" si="2"/>
         <v>1616.9572959378745</v>
       </c>
-      <c r="J61" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K61" s="31">
+      <c r="J61" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K61" s="27">
         <f t="shared" si="3"/>
         <v>24.661352031062712</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="34">
+      <c r="A62" s="30">
         <v>41520</v>
       </c>
       <c r="B62" s="7" t="s">
@@ -6842,34 +7294,34 @@
       <c r="D62" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E62" s="18">
+      <c r="E62" s="15">
         <f t="shared" si="0"/>
         <v>1662.91</v>
       </c>
       <c r="F62" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G62" s="12">
+      <c r="G62" s="11">
         <f t="shared" si="1"/>
         <v>1709.7488970301395</v>
       </c>
       <c r="H62" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I62" s="12">
+      <c r="I62" s="11">
         <f t="shared" si="2"/>
         <v>1616.0711029698607</v>
       </c>
-      <c r="J62" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K62" s="31">
+      <c r="J62" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K62" s="27">
         <f t="shared" si="3"/>
         <v>23.4194485150697</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="34">
+      <c r="A63" s="30">
         <v>41521</v>
       </c>
       <c r="B63" s="7" t="s">
@@ -6881,34 +7333,34 @@
       <c r="D63" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E63" s="18">
+      <c r="E63" s="15">
         <f t="shared" si="0"/>
         <v>1660.69</v>
       </c>
       <c r="F63" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G63" s="12">
+      <c r="G63" s="11">
         <f t="shared" si="1"/>
         <v>1704.9172473029919</v>
       </c>
       <c r="H63" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I63" s="12">
+      <c r="I63" s="11">
         <f t="shared" si="2"/>
         <v>1616.4627526970082</v>
       </c>
-      <c r="J63" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K63" s="31">
+      <c r="J63" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K63" s="27">
         <f t="shared" si="3"/>
         <v>22.113623651495949</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="34">
+      <c r="A64" s="30">
         <v>41522</v>
       </c>
       <c r="B64" s="7" t="s">
@@ -6920,34 +7372,34 @@
       <c r="D64" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E64" s="18">
+      <c r="E64" s="15">
         <f t="shared" si="0"/>
         <v>1658.9</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G64" s="11">
         <f t="shared" si="1"/>
         <v>1700.9345007226209</v>
       </c>
       <c r="H64" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I64" s="12">
+      <c r="I64" s="11">
         <f t="shared" si="2"/>
         <v>1616.8654992773793</v>
       </c>
-      <c r="J64" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K64" s="31">
+      <c r="J64" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K64" s="27">
         <f t="shared" si="3"/>
         <v>21.017250361310371</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="34">
+      <c r="A65" s="30">
         <v>41523</v>
       </c>
       <c r="B65" s="7" t="s">
@@ -6959,34 +7411,34 @@
       <c r="D65" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="18">
+      <c r="E65" s="15">
         <f t="shared" si="0"/>
         <v>1656.79</v>
       </c>
       <c r="F65" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G65" s="12">
+      <c r="G65" s="11">
         <f t="shared" si="1"/>
         <v>1694.9229591823137</v>
       </c>
       <c r="H65" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I65" s="12">
+      <c r="I65" s="11">
         <f t="shared" si="2"/>
         <v>1618.6570408176863</v>
       </c>
-      <c r="J65" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K65" s="31">
+      <c r="J65" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K65" s="27">
         <f t="shared" si="3"/>
         <v>19.066479591156853</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="34">
+      <c r="A66" s="30">
         <v>41526</v>
       </c>
       <c r="B66" s="7" t="s">
@@ -6998,34 +7450,34 @@
       <c r="D66" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="18">
+      <c r="E66" s="15">
         <f t="shared" si="0"/>
         <v>1655.8</v>
       </c>
       <c r="F66" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G66" s="12">
+      <c r="G66" s="11">
         <f t="shared" si="1"/>
         <v>1691.2242868523842</v>
       </c>
       <c r="H66" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I66" s="12">
+      <c r="I66" s="11">
         <f t="shared" si="2"/>
         <v>1620.3757131476157</v>
       </c>
-      <c r="J66" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K66" s="31">
+      <c r="J66" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K66" s="27">
         <f t="shared" si="3"/>
         <v>17.712143426192117</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="34">
+      <c r="A67" s="30">
         <v>41527</v>
       </c>
       <c r="B67" s="7" t="s">
@@ -7037,34 +7489,34 @@
       <c r="D67" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E67" s="18">
+      <c r="E67" s="15">
         <f t="shared" si="0"/>
         <v>1655.53</v>
       </c>
       <c r="F67" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G67" s="12">
+      <c r="G67" s="11">
         <f t="shared" si="1"/>
         <v>1689.9797072701642</v>
       </c>
       <c r="H67" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I67" s="12">
+      <c r="I67" s="11">
         <f t="shared" si="2"/>
         <v>1621.0802927298357</v>
       </c>
-      <c r="J67" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K67" s="31">
+      <c r="J67" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K67" s="27">
         <f t="shared" si="3"/>
         <v>17.224853635082084</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="34">
+      <c r="A68" s="30">
         <v>41528</v>
       </c>
       <c r="B68" s="7" t="s">
@@ -7076,34 +7528,34 @@
       <c r="D68" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E68" s="18">
+      <c r="E68" s="15">
         <f t="shared" si="0"/>
         <v>1655.28</v>
       </c>
       <c r="F68" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G68" s="12">
+      <c r="G68" s="11">
         <f t="shared" si="1"/>
         <v>1688.6545247157169</v>
       </c>
       <c r="H68" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I68" s="12">
+      <c r="I68" s="11">
         <f t="shared" si="2"/>
         <v>1621.9054752842831</v>
       </c>
-      <c r="J68" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K68" s="31">
+      <c r="J68" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K68" s="27">
         <f t="shared" si="3"/>
         <v>16.687262357858483</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="34">
+      <c r="A69" s="30">
         <v>41529</v>
       </c>
       <c r="B69" s="7" t="s">
@@ -7115,34 +7567,34 @@
       <c r="D69" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E69" s="18">
+      <c r="E69" s="15">
         <f t="shared" si="0"/>
         <v>1655.18</v>
       </c>
       <c r="F69" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G69" s="12">
+      <c r="G69" s="11">
         <f t="shared" si="1"/>
         <v>1688.2082553429636</v>
       </c>
       <c r="H69" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I69" s="12">
+      <c r="I69" s="11">
         <f t="shared" si="2"/>
         <v>1622.1517446570365</v>
       </c>
-      <c r="J69" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K69" s="31">
+      <c r="J69" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K69" s="27">
         <f t="shared" si="3"/>
         <v>16.514127671481788</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="34">
+      <c r="A70" s="30">
         <v>41530</v>
       </c>
       <c r="B70" s="7" t="s">
@@ -7154,34 +7606,34 @@
       <c r="D70" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="18">
+      <c r="E70" s="15">
         <f t="shared" si="0"/>
         <v>1656.51</v>
       </c>
       <c r="F70" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G70" s="12">
+      <c r="G70" s="11">
         <f t="shared" si="1"/>
         <v>1692.4481329509479</v>
       </c>
       <c r="H70" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I70" s="12">
+      <c r="I70" s="11">
         <f t="shared" si="2"/>
         <v>1620.5718670490521</v>
       </c>
-      <c r="J70" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K70" s="31">
+      <c r="J70" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K70" s="27">
         <f t="shared" si="3"/>
         <v>17.969066475473916</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="34">
+      <c r="A71" s="30">
         <v>41533</v>
       </c>
       <c r="B71" s="7" t="s">
@@ -7193,34 +7645,34 @@
       <c r="D71" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E71" s="18">
+      <c r="E71" s="15">
         <f t="shared" si="0"/>
         <v>1658.6</v>
       </c>
       <c r="F71" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G71" s="12">
+      <c r="G71" s="11">
         <f t="shared" si="1"/>
         <v>1698.7458243283158</v>
       </c>
       <c r="H71" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I71" s="12">
+      <c r="I71" s="11">
         <f t="shared" si="2"/>
         <v>1618.454175671684</v>
       </c>
-      <c r="J71" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K71" s="31">
+      <c r="J71" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K71" s="27">
         <f t="shared" si="3"/>
         <v>20.072912164157948</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="34">
+      <c r="A72" s="30">
         <v>41534</v>
       </c>
       <c r="B72" s="7" t="s">
@@ -7232,28 +7684,28 @@
       <c r="D72" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="18">
+      <c r="E72" s="15">
         <f t="shared" si="0"/>
         <v>1661.53</v>
       </c>
       <c r="F72" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G72" s="12">
+      <c r="G72" s="11">
         <f t="shared" si="1"/>
         <v>1705.9368050077912</v>
       </c>
       <c r="H72" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I72" s="12">
+      <c r="I72" s="11">
         <f t="shared" si="2"/>
         <v>1617.1231949922087</v>
       </c>
-      <c r="J72" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K72" s="31">
+      <c r="J72" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K72" s="27">
         <f t="shared" si="3"/>
         <v>22.203402503895656</v>
       </c>
@@ -7268,30 +7720,30 @@
       <c r="D73" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E73" s="18">
+      <c r="E73" s="15">
         <v>0</v>
       </c>
       <c r="F73" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G73" s="12">
+      <c r="G73" s="11">
         <v>0</v>
       </c>
       <c r="H73" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I73" s="12">
-        <v>0</v>
-      </c>
-      <c r="J73" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K73" s="31">
+      <c r="I73" s="11">
+        <v>0</v>
+      </c>
+      <c r="J73" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K73" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="34">
+      <c r="A74" s="30">
         <v>41535</v>
       </c>
       <c r="B74" s="7" t="s">
@@ -7303,34 +7755,34 @@
       <c r="D74" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E74" s="29">
+      <c r="E74" s="25">
         <f>ROUND(AVERAGE(C54:C$72,C$74:C74), 2)</f>
         <v>1665.19</v>
       </c>
       <c r="F74" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G74" s="15">
+      <c r="G74" s="12">
         <f>E74+(2*STDEVP(C54:C$72,C$74:C74))</f>
         <v>1717.3475780112535</v>
       </c>
       <c r="H74" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I74" s="15">
+      <c r="I74" s="12">
         <f>E74-(2*STDEVP(C54:C$72,C$74:C74))</f>
         <v>1613.0324219887466</v>
       </c>
-      <c r="J74" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K74" s="31">
+      <c r="J74" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K74" s="27">
         <f>STDEVP(C54:C$72,C$74:C74)</f>
         <v>26.078789005626774</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="34">
+      <c r="A75" s="30">
         <v>41536</v>
       </c>
       <c r="B75" s="7" t="s">
@@ -7342,34 +7794,34 @@
       <c r="D75" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E75" s="29">
+      <c r="E75" s="25">
         <f>ROUND(AVERAGE(C55:C$72,C$74:C75), 2)</f>
         <v>1669.17</v>
       </c>
       <c r="F75" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G75" s="15">
+      <c r="G75" s="12">
         <f>E75+(2*STDEVP(C55:C$72,C$74:C75))</f>
         <v>1725.8272614587045</v>
       </c>
       <c r="H75" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I75" s="15">
+      <c r="I75" s="12">
         <f>E75-(2*STDEVP(C55:C$72,C$74:C75))</f>
         <v>1612.5127385412957</v>
       </c>
-      <c r="J75" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K75" s="31">
+      <c r="J75" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K75" s="27">
         <f>STDEVP(C55:C$72,C$74:C75)</f>
         <v>28.328630729352227</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="34">
+      <c r="A76" s="30">
         <v>41537</v>
       </c>
       <c r="B76" s="7" t="s">
@@ -7381,34 +7833,34 @@
       <c r="D76" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E76" s="29">
+      <c r="E76" s="25">
         <f>ROUND(AVERAGE(C56:C$72,C$74:C76), 2)</f>
         <v>1671.82</v>
       </c>
       <c r="F76" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G76" s="15">
+      <c r="G76" s="12">
         <f>E76+(2*STDEVP(C56:C$72,C$74:C76))</f>
         <v>1730.8467916373572</v>
       </c>
       <c r="H76" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I76" s="15">
+      <c r="I76" s="12">
         <f>E76-(2*STDEVP(C56:C$72,C$74:C76))</f>
         <v>1612.7932083626426</v>
       </c>
-      <c r="J76" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K76" s="31">
+      <c r="J76" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K76" s="27">
         <f>STDEVP(C56:C$72,C$74:C76)</f>
         <v>29.513395818678671</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="34">
+      <c r="A77" s="30">
         <v>41540</v>
       </c>
       <c r="B77" s="7" t="s">
@@ -7420,34 +7872,34 @@
       <c r="D77" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E77" s="29">
+      <c r="E77" s="25">
         <f>ROUND(AVERAGE(C57:C$72,C$74:C77), 2)</f>
         <v>1673.73</v>
       </c>
       <c r="F77" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G77" s="15">
+      <c r="G77" s="12">
         <f>E77+(2*STDEVP(C57:C$72,C$74:C77))</f>
         <v>1734.0285227928512</v>
       </c>
       <c r="H77" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I77" s="15">
+      <c r="I77" s="12">
         <f>E77-(2*STDEVP(C57:C$72,C$74:C77))</f>
         <v>1613.4314772071489</v>
       </c>
-      <c r="J77" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K77" s="31">
+      <c r="J77" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K77" s="27">
         <f>STDEVP(C57:C$72,C$74:C77)</f>
         <v>30.149261396425612</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="34">
+      <c r="A78" s="30">
         <v>41541</v>
       </c>
       <c r="B78" s="7" t="s">
@@ -7459,34 +7911,34 @@
       <c r="D78" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E78" s="29">
+      <c r="E78" s="25">
         <f>ROUND(AVERAGE(C58:C$72,C$74:C78), 2)</f>
         <v>1675.77</v>
       </c>
       <c r="F78" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G78" s="15">
+      <c r="G78" s="12">
         <f>E78+(2*STDEVP(C58:C$72,C$74:C78))</f>
         <v>1736.3845327376198</v>
       </c>
       <c r="H78" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I78" s="15">
+      <c r="I78" s="12">
         <f>E78-(2*STDEVP(C58:C$72,C$74:C78))</f>
         <v>1615.1554672623802</v>
       </c>
-      <c r="J78" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K78" s="31">
+      <c r="J78" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K78" s="27">
         <f>STDEVP(C58:C$72,C$74:C78)</f>
         <v>30.307266368809962</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="34">
+      <c r="A79" s="30">
         <v>41542</v>
       </c>
       <c r="B79" s="7" t="s">
@@ -7498,34 +7950,34 @@
       <c r="D79" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E79" s="29">
+      <c r="E79" s="25">
         <f>ROUND(AVERAGE(C59:C$72,C$74:C79), 2)</f>
         <v>1678.88</v>
       </c>
       <c r="F79" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G79" s="15">
+      <c r="G79" s="12">
         <f>E79+(2*STDEVP(C59:C$72,C$74:C79))</f>
         <v>1736.1774383371544</v>
       </c>
       <c r="H79" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I79" s="15">
+      <c r="I79" s="12">
         <f>E79-(2*STDEVP(C59:C$72,C$74:C79))</f>
         <v>1621.5825616628458</v>
       </c>
-      <c r="J79" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K79" s="31">
+      <c r="J79" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K79" s="27">
         <f>STDEVP(C59:C$72,C$74:C79)</f>
         <v>28.648719168577145</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="34">
+      <c r="A80" s="30">
         <v>41543</v>
       </c>
       <c r="B80" s="7" t="s">
@@ -7537,34 +7989,34 @@
       <c r="D80" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E80" s="29">
+      <c r="E80" s="25">
         <f>ROUND(AVERAGE(C60:C$72,C$74:C80), 2)</f>
         <v>1682.07</v>
       </c>
       <c r="F80" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G80" s="15">
+      <c r="G80" s="12">
         <f>E80+(2*STDEVP(C60:C$72,C$74:C80))</f>
         <v>1736.24510811249</v>
       </c>
       <c r="H80" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I80" s="15">
+      <c r="I80" s="12">
         <f>E80-(2*STDEVP(C60:C$72,C$74:C80))</f>
         <v>1627.8948918875099</v>
       </c>
-      <c r="J80" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K80" s="31">
+      <c r="J80" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K80" s="27">
         <f>STDEVP(C60:C$72,C$74:C80)</f>
         <v>27.087554056245086</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="34">
+      <c r="A81" s="30">
         <v>41544</v>
       </c>
       <c r="B81" s="7" t="s">
@@ -7576,34 +8028,34 @@
       <c r="D81" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E81" s="29">
+      <c r="E81" s="25">
         <f>ROUND(AVERAGE(C61:C$72,C$74:C81), 2)</f>
         <v>1684.74</v>
       </c>
       <c r="F81" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G81" s="15">
+      <c r="G81" s="12">
         <f>E81+(2*STDEVP(C61:C$72,C$74:C81))</f>
         <v>1735.1347328497732</v>
       </c>
       <c r="H81" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I81" s="15">
+      <c r="I81" s="12">
         <f>E81-(2*STDEVP(C61:C$72,C$74:C81))</f>
         <v>1634.3452671502268</v>
       </c>
-      <c r="J81" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K81" s="31">
+      <c r="J81" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K81" s="27">
         <f>STDEVP(C61:C$72,C$74:C81)</f>
         <v>25.197366424886546</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="34">
+      <c r="A82" s="30">
         <v>41547</v>
       </c>
       <c r="B82" s="7" t="s">
@@ -7615,34 +8067,34 @@
       <c r="D82" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E82" s="29">
+      <c r="E82" s="25">
         <f>ROUND(AVERAGE(C62:C$72,C$74:C82), 2)</f>
         <v>1687.17</v>
       </c>
       <c r="F82" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G82" s="15">
+      <c r="G82" s="12">
         <f>E82+(2*STDEVP(C62:C$72,C$74:C82))</f>
         <v>1731.6890984971619</v>
       </c>
       <c r="H82" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I82" s="15">
+      <c r="I82" s="12">
         <f>E82-(2*STDEVP(C62:C$72,C$74:C82))</f>
         <v>1642.6509015028382</v>
       </c>
-      <c r="J82" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K82" s="31">
+      <c r="J82" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K82" s="27">
         <f>STDEVP(C62:C$72,C$74:C82)</f>
         <v>22.259549248580932</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="34">
+      <c r="A83" s="30">
         <v>41548</v>
       </c>
       <c r="B83" s="7" t="s">
@@ -7654,34 +8106,34 @@
       <c r="D83" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="29">
+      <c r="E83" s="25">
         <f>ROUND(AVERAGE(C63:C$72,C$74:C83), 2)</f>
         <v>1689.94</v>
       </c>
       <c r="F83" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G83" s="15">
+      <c r="G83" s="12">
         <f>E83+(2*STDEVP(C63:C$72,C$74:C83))</f>
         <v>1728.8537387049871</v>
       </c>
       <c r="H83" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I83" s="15">
+      <c r="I83" s="12">
         <f>E83-(2*STDEVP(C63:C$72,C$74:C83))</f>
         <v>1651.026261295013</v>
       </c>
-      <c r="J83" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K83" s="31">
+      <c r="J83" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K83" s="27">
         <f>STDEVP(C63:C$72,C$74:C83)</f>
         <v>19.456869352493477</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="34">
+      <c r="A84" s="30">
         <v>41549</v>
       </c>
       <c r="B84" s="7" t="s">
@@ -7693,34 +8145,34 @@
       <c r="D84" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E84" s="29">
+      <c r="E84" s="25">
         <f>ROUND(AVERAGE(C64:C$72,C$74:C84), 2)</f>
         <v>1691.97</v>
       </c>
       <c r="F84" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G84" s="15">
+      <c r="G84" s="12">
         <f>E84+(2*STDEVP(C64:C$72,C$74:C84))</f>
         <v>1727.0282295474258</v>
       </c>
       <c r="H84" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I84" s="15">
+      <c r="I84" s="12">
         <f>E84-(2*STDEVP(C64:C$72,C$74:C84))</f>
         <v>1656.9117704525743</v>
       </c>
-      <c r="J84" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K84" s="31">
+      <c r="J84" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K84" s="27">
         <f>STDEVP(C64:C$72,C$74:C84)</f>
         <v>17.529114773712891</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="34">
+      <c r="A85" s="30">
         <v>41550</v>
       </c>
       <c r="B85" s="7" t="s">
@@ -7732,34 +8184,34 @@
       <c r="D85" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E85" s="29">
+      <c r="E85" s="25">
         <f>ROUND(AVERAGE(C65:C$72,C$74:C85), 2)</f>
         <v>1693.15</v>
       </c>
       <c r="F85" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G85" s="15">
+      <c r="G85" s="12">
         <f>E85+(2*STDEVP(C65:C$72,C$74:C85))</f>
         <v>1724.5623168677512</v>
       </c>
       <c r="H85" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I85" s="15">
+      <c r="I85" s="12">
         <f>E85-(2*STDEVP(C65:C$72,C$74:C85))</f>
         <v>1661.737683132249</v>
       </c>
-      <c r="J85" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K85" s="31">
+      <c r="J85" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K85" s="27">
         <f>STDEVP(C65:C$72,C$74:C85)</f>
         <v>15.706158433875524</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="34">
+      <c r="A86" s="30">
         <v>41551</v>
       </c>
       <c r="B86" s="7" t="s">
@@ -7771,34 +8223,34 @@
       <c r="D86" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E86" s="29">
+      <c r="E86" s="25">
         <f>ROUND(AVERAGE(C66:C$72,C$74:C86), 2)</f>
         <v>1694.92</v>
       </c>
       <c r="F86" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G86" s="15">
+      <c r="G86" s="12">
         <f>E86+(2*STDEVP(C66:C$72,C$74:C86))</f>
         <v>1721.1327930598782</v>
       </c>
       <c r="H86" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I86" s="15">
+      <c r="I86" s="12">
         <f>E86-(2*STDEVP(C66:C$72,C$74:C86))</f>
         <v>1668.707206940122</v>
       </c>
-      <c r="J86" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K86" s="31">
+      <c r="J86" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K86" s="27">
         <f>STDEVP(C66:C$72,C$74:C86)</f>
         <v>13.106396529939092</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="34">
+      <c r="A87" s="30">
         <v>41554</v>
       </c>
       <c r="B87" s="7" t="s">
@@ -7810,34 +8262,34 @@
       <c r="D87" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E87" s="29">
+      <c r="E87" s="25">
         <f>ROUND(AVERAGE(C67:C$72,C$74:C87), 2)</f>
         <v>1695.14</v>
       </c>
       <c r="F87" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G87" s="15">
+      <c r="G87" s="12">
         <f>E87+(2*STDEVP(C67:C$72,C$74:C87))</f>
         <v>1720.6324149307202</v>
       </c>
       <c r="H87" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I87" s="15">
+      <c r="I87" s="12">
         <f>E87-(2*STDEVP(C67:C$72,C$74:C87))</f>
         <v>1669.64758506928</v>
       </c>
-      <c r="J87" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K87" s="31">
+      <c r="J87" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K87" s="27">
         <f>STDEVP(C67:C$72,C$74:C87)</f>
         <v>12.74620746536003</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="34">
+      <c r="A88" s="30">
         <v>41555</v>
       </c>
       <c r="B88" s="7" t="s">
@@ -7849,34 +8301,34 @@
       <c r="D88" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E88" s="29">
+      <c r="E88" s="25">
         <f>ROUND(AVERAGE(C68:C$72,C$74:C88), 2)</f>
         <v>1693.71</v>
       </c>
       <c r="F88" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G88" s="15">
+      <c r="G88" s="12">
         <f>E88+(2*STDEVP(C68:C$72,C$74:C88))</f>
         <v>1724.2373374371234</v>
       </c>
       <c r="H88" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I88" s="15">
+      <c r="I88" s="12">
         <f>E88-(2*STDEVP(C68:C$72,C$74:C88))</f>
         <v>1663.1826625628767</v>
       </c>
-      <c r="J88" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K88" s="31">
+      <c r="J88" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K88" s="27">
         <f>STDEVP(C68:C$72,C$74:C88)</f>
         <v>15.263668718561719</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="34">
+      <c r="A89" s="30">
         <v>41556</v>
       </c>
       <c r="B89" s="7" t="s">
@@ -7888,34 +8340,34 @@
       <c r="D89" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E89" s="29">
+      <c r="E89" s="25">
         <f>ROUND(AVERAGE(C69:C$72,C$74:C89), 2)</f>
         <v>1692.08</v>
       </c>
       <c r="F89" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G89" s="15">
+      <c r="G89" s="12">
         <f>E89+(2*STDEVP(C69:C$72,C$74:C89))</f>
         <v>1726.6554763380057</v>
       </c>
       <c r="H89" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I89" s="15">
+      <c r="I89" s="12">
         <f>E89-(2*STDEVP(C69:C$72,C$74:C89))</f>
         <v>1657.5045236619942</v>
       </c>
-      <c r="J89" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K89" s="31">
+      <c r="J89" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K89" s="27">
         <f>STDEVP(C69:C$72,C$74:C89)</f>
         <v>17.287738169002886</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="34">
+      <c r="A90" s="30">
         <v>41557</v>
       </c>
       <c r="B90" s="7" t="s">
@@ -7927,34 +8379,34 @@
       <c r="D90" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E90" s="29">
+      <c r="E90" s="25">
         <f>ROUND(AVERAGE(C70:C$72,C$74:C90), 2)</f>
         <v>1692.53</v>
       </c>
       <c r="F90" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G90" s="15">
+      <c r="G90" s="12">
         <f>E90+(2*STDEVP(C70:C$72,C$74:C90))</f>
         <v>1726.8765587213625</v>
       </c>
       <c r="H90" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I90" s="15">
+      <c r="I90" s="12">
         <f>E90-(2*STDEVP(C70:C$72,C$74:C90))</f>
         <v>1658.1834412786375</v>
       </c>
-      <c r="J90" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K90" s="31">
+      <c r="J90" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K90" s="27">
         <f>STDEVP(C70:C$72,C$74:C90)</f>
         <v>17.17327936068121</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="34">
+      <c r="A91" s="30">
         <v>41558</v>
       </c>
       <c r="B91" s="7" t="s">
@@ -7966,34 +8418,34 @@
       <c r="D91" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="29">
+      <c r="E91" s="25">
         <f>ROUND(AVERAGE(C71:C$72,C$74:C91), 2)</f>
         <v>1693.29</v>
       </c>
       <c r="F91" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G91" s="15">
+      <c r="G91" s="12">
         <f>E91+(2*STDEVP(C71:C$72,C$74:C91))</f>
         <v>1727.873171904844</v>
       </c>
       <c r="H91" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="15">
+      <c r="I91" s="12">
         <f>E91-(2*STDEVP(C71:C$72,C$74:C91))</f>
         <v>1658.706828095156</v>
       </c>
-      <c r="J91" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K91" s="31">
+      <c r="J91" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K91" s="27">
         <f>STDEVP(C71:C$72,C$74:C91)</f>
         <v>17.291585952422047</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="34">
+      <c r="A92" s="30">
         <v>41561</v>
       </c>
       <c r="B92" s="7" t="s">
@@ -8005,34 +8457,34 @@
       <c r="D92" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E92" s="29">
+      <c r="E92" s="25">
         <f>ROUND(AVERAGE(C72:C$72,C$74:C92), 2)</f>
         <v>1693.92</v>
       </c>
       <c r="F92" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G92" s="15">
+      <c r="G92" s="12">
         <f>E92+(2*STDEVP(C72:C$72,C$74:C92))</f>
         <v>1729.2395409228377</v>
       </c>
       <c r="H92" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I92" s="15">
+      <c r="I92" s="12">
         <f>E92-(2*STDEVP(C72:C$72,C$74:C92))</f>
         <v>1658.6004590771624</v>
       </c>
-      <c r="J92" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K92" s="31">
+      <c r="J92" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K92" s="27">
         <f>STDEVP(C72:C$72,C$74:C92)</f>
         <v>17.659770461418791</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="34">
+      <c r="A93" s="30">
         <v>41562</v>
       </c>
       <c r="B93" s="7" t="s">
@@ -8044,34 +8496,34 @@
       <c r="D93" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E93" s="18">
+      <c r="E93" s="15">
         <f>ROUND(AVERAGE(C74:C93),2)</f>
         <v>1693.59</v>
       </c>
       <c r="F93" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G93" s="12">
-        <f t="shared" ref="G87:G112" si="4">E93+(2*STDEVP(C74:C93))</f>
+      <c r="G93" s="11">
+        <f t="shared" ref="G93:G112" si="4">E93+(2*STDEVP(C74:C93))</f>
         <v>1728.6178730584659</v>
       </c>
       <c r="H93" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I93" s="12">
-        <f t="shared" ref="I87:I112" si="5">E93-(2*STDEVP(C74:C93))</f>
+      <c r="I93" s="11">
+        <f t="shared" ref="I93:I112" si="5">E93-(2*STDEVP(C74:C93))</f>
         <v>1658.562126941534</v>
       </c>
-      <c r="J93" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K93" s="31">
-        <f t="shared" ref="K87:K112" si="6">STDEVP(C74:C93)</f>
+      <c r="J93" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K93" s="27">
+        <f t="shared" ref="K93:K112" si="6">STDEVP(C74:C93)</f>
         <v>17.513936529232932</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="34">
+      <c r="A94" s="30">
         <v>41563</v>
       </c>
       <c r="B94" s="7" t="s">
@@ -8083,34 +8535,34 @@
       <c r="D94" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E94" s="18">
+      <c r="E94" s="15">
         <f t="shared" ref="E94:E112" si="7">ROUND(AVERAGE(C75:C94),2)</f>
         <v>1693.39</v>
       </c>
       <c r="F94" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G94" s="12">
+      <c r="G94" s="11">
         <f t="shared" si="4"/>
         <v>1727.7283668074067</v>
       </c>
       <c r="H94" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="12">
+      <c r="I94" s="11">
         <f t="shared" si="5"/>
         <v>1659.0516331925935</v>
       </c>
-      <c r="J94" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K94" s="31">
+      <c r="J94" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K94" s="27">
         <f t="shared" si="6"/>
         <v>17.169183403703265</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="34">
+      <c r="A95" s="30">
         <v>41564</v>
       </c>
       <c r="B95" s="7" t="s">
@@ -8122,34 +8574,34 @@
       <c r="D95" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E95" s="18">
+      <c r="E95" s="15">
         <f t="shared" si="7"/>
         <v>1693.93</v>
       </c>
       <c r="F95" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G95" s="12">
+      <c r="G95" s="11">
         <f t="shared" si="4"/>
         <v>1730.3513770195473</v>
       </c>
       <c r="H95" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I95" s="12">
+      <c r="I95" s="11">
         <f t="shared" si="5"/>
         <v>1657.5086229804529</v>
       </c>
-      <c r="J95" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K95" s="31">
+      <c r="J95" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K95" s="27">
         <f t="shared" si="6"/>
         <v>18.2106885097736</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="34">
+      <c r="A96" s="30">
         <v>41565</v>
       </c>
       <c r="B96" s="7" t="s">
@@ -8161,34 +8613,34 @@
       <c r="D96" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E96" s="18">
+      <c r="E96" s="15">
         <f t="shared" si="7"/>
         <v>1695.66</v>
       </c>
       <c r="F96" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G96" s="12">
+      <c r="G96" s="11">
         <f t="shared" si="4"/>
         <v>1737.7904236271131</v>
       </c>
       <c r="H96" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I96" s="12">
+      <c r="I96" s="11">
         <f t="shared" si="5"/>
         <v>1653.529576372887</v>
       </c>
-      <c r="J96" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K96" s="31">
+      <c r="J96" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K96" s="27">
         <f t="shared" si="6"/>
         <v>21.065211813556491</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="34">
+      <c r="A97" s="30">
         <v>41568</v>
       </c>
       <c r="B97" s="7" t="s">
@@ -8200,34 +8652,34 @@
       <c r="D97" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E97" s="18">
+      <c r="E97" s="15">
         <f t="shared" si="7"/>
         <v>1697.8</v>
       </c>
       <c r="F97" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G97" s="12">
+      <c r="G97" s="11">
         <f t="shared" si="4"/>
         <v>1745.0148431216285</v>
       </c>
       <c r="H97" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I97" s="12">
+      <c r="I97" s="11">
         <f t="shared" si="5"/>
         <v>1650.5851568783714</v>
       </c>
-      <c r="J97" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K97" s="31">
+      <c r="J97" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K97" s="27">
         <f t="shared" si="6"/>
         <v>23.607421560814309</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="34">
+      <c r="A98" s="30">
         <v>41569</v>
       </c>
       <c r="B98" s="7" t="s">
@@ -8239,34 +8691,34 @@
       <c r="D98" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E98" s="18">
+      <c r="E98" s="15">
         <f t="shared" si="7"/>
         <v>1700.66</v>
       </c>
       <c r="F98" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G98" s="12">
+      <c r="G98" s="11">
         <f t="shared" si="4"/>
         <v>1753.9827028197185</v>
       </c>
       <c r="H98" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I98" s="12">
+      <c r="I98" s="11">
         <f t="shared" si="5"/>
         <v>1647.3372971802817</v>
       </c>
-      <c r="J98" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K98" s="31">
+      <c r="J98" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K98" s="27">
         <f t="shared" si="6"/>
         <v>26.661351409859193</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="34">
+      <c r="A99" s="30">
         <v>41570</v>
       </c>
       <c r="B99" s="7" t="s">
@@ -8278,34 +8730,34 @@
       <c r="D99" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E99" s="18">
+      <c r="E99" s="15">
         <f t="shared" si="7"/>
         <v>1703.34</v>
       </c>
       <c r="F99" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G99" s="12">
+      <c r="G99" s="11">
         <f t="shared" si="4"/>
         <v>1760.0864724101859</v>
       </c>
       <c r="H99" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I99" s="12">
+      <c r="I99" s="11">
         <f t="shared" si="5"/>
         <v>1646.5935275898139</v>
       </c>
-      <c r="J99" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K99" s="31">
+      <c r="J99" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K99" s="27">
         <f t="shared" si="6"/>
         <v>28.373236205093015</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="34">
+      <c r="A100" s="30">
         <v>41571</v>
       </c>
       <c r="B100" s="7" t="s">
@@ -8317,34 +8769,34 @@
       <c r="D100" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E100" s="18">
+      <c r="E100" s="15">
         <f t="shared" si="7"/>
         <v>1706.01</v>
       </c>
       <c r="F100" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G100" s="12">
+      <c r="G100" s="11">
         <f t="shared" si="4"/>
         <v>1766.5259094040566</v>
       </c>
       <c r="H100" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I100" s="12">
+      <c r="I100" s="11">
         <f t="shared" si="5"/>
         <v>1645.4940905959434</v>
       </c>
-      <c r="J100" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K100" s="31">
+      <c r="J100" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K100" s="27">
         <f t="shared" si="6"/>
         <v>30.257954702028368</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="34">
+      <c r="A101" s="30">
         <v>41572</v>
       </c>
       <c r="B101" s="7" t="s">
@@ -8356,34 +8808,34 @@
       <c r="D101" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E101" s="18">
+      <c r="E101" s="15">
         <f t="shared" si="7"/>
         <v>1709.41</v>
       </c>
       <c r="F101" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G101" s="12">
+      <c r="G101" s="11">
         <f t="shared" si="4"/>
         <v>1773.8555217606313</v>
       </c>
       <c r="H101" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I101" s="12">
+      <c r="I101" s="11">
         <f t="shared" si="5"/>
         <v>1644.9644782393689</v>
       </c>
-      <c r="J101" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K101" s="31">
+      <c r="J101" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K101" s="27">
         <f t="shared" si="6"/>
         <v>32.222760880315647</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="34">
+      <c r="A102" s="30">
         <v>41575</v>
       </c>
       <c r="B102" s="7" t="s">
@@ -8395,34 +8847,34 @@
       <c r="D102" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E102" s="18">
+      <c r="E102" s="15">
         <f t="shared" si="7"/>
         <v>1713.44</v>
       </c>
       <c r="F102" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G102" s="12">
+      <c r="G102" s="11">
         <f t="shared" si="4"/>
         <v>1780.4360271881849</v>
       </c>
       <c r="H102" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I102" s="12">
+      <c r="I102" s="11">
         <f t="shared" si="5"/>
         <v>1646.4439728118152</v>
       </c>
-      <c r="J102" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K102" s="31">
+      <c r="J102" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K102" s="27">
         <f t="shared" si="6"/>
         <v>33.498013594092413</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="34">
+      <c r="A103" s="30">
         <v>41576</v>
       </c>
       <c r="B103" s="7" t="s">
@@ -8434,34 +8886,34 @@
       <c r="D103" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E103" s="18">
+      <c r="E103" s="15">
         <f t="shared" si="7"/>
         <v>1717.29</v>
       </c>
       <c r="F103" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G103" s="12">
+      <c r="G103" s="11">
         <f t="shared" si="4"/>
         <v>1788.3246151112257</v>
       </c>
       <c r="H103" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I103" s="12">
+      <c r="I103" s="11">
         <f t="shared" si="5"/>
         <v>1646.2553848887742</v>
       </c>
-      <c r="J103" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K103" s="31">
+      <c r="J103" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K103" s="27">
         <f t="shared" si="6"/>
         <v>35.517307555612945</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="34">
+      <c r="A104" s="30">
         <v>41577</v>
       </c>
       <c r="B104" s="7" t="s">
@@ -8473,34 +8925,34 @@
       <c r="D104" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E104" s="18">
+      <c r="E104" s="15">
         <f t="shared" si="7"/>
         <v>1720.76</v>
       </c>
       <c r="F104" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G104" s="12">
+      <c r="G104" s="11">
         <f t="shared" si="4"/>
         <v>1793.6408737598556</v>
       </c>
       <c r="H104" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I104" s="12">
+      <c r="I104" s="11">
         <f t="shared" si="5"/>
         <v>1647.8791262401444</v>
       </c>
-      <c r="J104" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K104" s="31">
+      <c r="J104" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K104" s="27">
         <f t="shared" si="6"/>
         <v>36.440436879927766</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="34">
+      <c r="A105" s="30">
         <v>41578</v>
       </c>
       <c r="B105" s="7" t="s">
@@ -8512,34 +8964,34 @@
       <c r="D105" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E105" s="18">
+      <c r="E105" s="15">
         <f t="shared" si="7"/>
         <v>1724.65</v>
       </c>
       <c r="F105" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G105" s="12">
+      <c r="G105" s="11">
         <f t="shared" si="4"/>
         <v>1796.4311151766258</v>
       </c>
       <c r="H105" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I105" s="12">
+      <c r="I105" s="11">
         <f t="shared" si="5"/>
         <v>1652.8688848233744</v>
       </c>
-      <c r="J105" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K105" s="31">
+      <c r="J105" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K105" s="27">
         <f t="shared" si="6"/>
         <v>35.890557588312831</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="34">
+      <c r="A106" s="30">
         <v>41579</v>
       </c>
       <c r="B106" s="7" t="s">
@@ -8551,34 +9003,34 @@
       <c r="D106" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E106" s="18">
+      <c r="E106" s="15">
         <f t="shared" si="7"/>
         <v>1728.21</v>
       </c>
       <c r="F106" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G106" s="12">
+      <c r="G106" s="11">
         <f t="shared" si="4"/>
         <v>1799.9192267145588</v>
       </c>
       <c r="H106" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I106" s="12">
+      <c r="I106" s="11">
         <f t="shared" si="5"/>
         <v>1656.5007732854413</v>
       </c>
-      <c r="J106" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K106" s="31">
+      <c r="J106" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K106" s="27">
         <f t="shared" si="6"/>
         <v>35.854613357279419</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="34">
+      <c r="A107" s="30">
         <v>41582</v>
       </c>
       <c r="B107" s="7" t="s">
@@ -8590,34 +9042,34 @@
       <c r="D107" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E107" s="18">
+      <c r="E107" s="15">
         <f t="shared" si="7"/>
         <v>1732.8</v>
       </c>
       <c r="F107" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G107" s="12">
+      <c r="G107" s="11">
         <f t="shared" si="4"/>
         <v>1802.3035809940752</v>
       </c>
       <c r="H107" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I107" s="12">
+      <c r="I107" s="11">
         <f t="shared" si="5"/>
         <v>1663.2964190059247</v>
       </c>
-      <c r="J107" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K107" s="31">
+      <c r="J107" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K107" s="27">
         <f t="shared" si="6"/>
         <v>34.751790497037689</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="34">
+      <c r="A108" s="30">
         <v>41583</v>
       </c>
       <c r="B108" s="7" t="s">
@@ -8629,34 +9081,34 @@
       <c r="D108" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E108" s="18">
+      <c r="E108" s="15">
         <f t="shared" si="7"/>
         <v>1738.18</v>
       </c>
       <c r="F108" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G108" s="12">
+      <c r="G108" s="11">
         <f t="shared" si="4"/>
         <v>1799.0118915947878</v>
       </c>
       <c r="H108" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I108" s="12">
+      <c r="I108" s="11">
         <f t="shared" si="5"/>
         <v>1677.3481084052123</v>
       </c>
-      <c r="J108" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K108" s="31">
+      <c r="J108" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K108" s="27">
         <f t="shared" si="6"/>
         <v>30.415945797393835</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="34">
+      <c r="A109" s="30">
         <v>41584</v>
       </c>
       <c r="B109" s="7" t="s">
@@ -8668,34 +9120,34 @@
       <c r="D109" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E109" s="18">
+      <c r="E109" s="15">
         <f t="shared" si="7"/>
         <v>1743.88</v>
       </c>
       <c r="F109" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G109" s="12">
+      <c r="G109" s="11">
         <f t="shared" si="4"/>
         <v>1793.2931701472392</v>
       </c>
       <c r="H109" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I109" s="12">
+      <c r="I109" s="11">
         <f t="shared" si="5"/>
         <v>1694.4668298527611</v>
       </c>
-      <c r="J109" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K109" s="31">
+      <c r="J109" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K109" s="27">
         <f t="shared" si="6"/>
         <v>24.706585073619546</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="34">
+      <c r="A110" s="30">
         <v>41585</v>
       </c>
       <c r="B110" s="7" t="s">
@@ -8707,34 +9159,34 @@
       <c r="D110" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E110" s="18">
+      <c r="E110" s="15">
         <f t="shared" si="7"/>
         <v>1746.61</v>
       </c>
       <c r="F110" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G110" s="12">
+      <c r="G110" s="11">
         <f t="shared" si="4"/>
         <v>1790.0519973182631</v>
       </c>
       <c r="H110" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I110" s="12">
+      <c r="I110" s="11">
         <f t="shared" si="5"/>
         <v>1703.1680026817367</v>
       </c>
-      <c r="J110" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K110" s="31">
+      <c r="J110" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K110" s="27">
         <f t="shared" si="6"/>
         <v>21.72099865913167</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="34">
+      <c r="A111" s="30">
         <v>41586</v>
       </c>
       <c r="B111" s="7" t="s">
@@ -8746,34 +9198,34 @@
       <c r="D111" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E111" s="18">
+      <c r="E111" s="15">
         <f t="shared" si="7"/>
         <v>1749.98</v>
       </c>
       <c r="F111" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G111" s="12">
+      <c r="G111" s="11">
         <f t="shared" si="4"/>
         <v>1789.7297167788652</v>
       </c>
       <c r="H111" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I111" s="12">
+      <c r="I111" s="11">
         <f t="shared" si="5"/>
         <v>1710.2302832211349</v>
       </c>
-      <c r="J111" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K111" s="31">
+      <c r="J111" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K111" s="27">
         <f t="shared" si="6"/>
         <v>19.874858389432607</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="34">
+      <c r="A112" s="30">
         <v>41589</v>
       </c>
       <c r="B112" s="7" t="s">
@@ -8785,28 +9237,28 @@
       <c r="D112" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E112" s="18">
+      <c r="E112" s="15">
         <f t="shared" si="7"/>
         <v>1753.07</v>
       </c>
       <c r="F112" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G112" s="12">
+      <c r="G112" s="11">
         <f t="shared" si="4"/>
         <v>1789.4076452043882</v>
       </c>
       <c r="H112" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I112" s="12">
+      <c r="I112" s="11">
         <f t="shared" si="5"/>
         <v>1716.7323547956116</v>
       </c>
-      <c r="J112" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K112" s="31">
+      <c r="J112" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K112" s="27">
         <f t="shared" si="6"/>
         <v>18.16882260219413</v>
       </c>
@@ -8816,17 +9268,17 @@
         <f>COUNT(C3:C112)</f>
         <v>110</v>
       </c>
-      <c r="D113" s="16"/>
-      <c r="E113" s="19">
+      <c r="D113" s="13"/>
+      <c r="E113" s="16">
         <f>COUNTIF(E3:E112, "&gt;0")</f>
         <v>90</v>
       </c>
-      <c r="F113" s="16"/>
-      <c r="H113" s="16"/>
+      <c r="F113" s="13"/>
+      <c r="H113" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1"/>
+    <hyperlink ref="A1" display="http://www.bollingeronbollingerbands.com/chart/main.php?symbol=SPX&amp;_c=4&amp;_c2=&amp;period=0&amp;charttype=0&amp;length=3&amp;size=1&amp;scale=0&amp;pc=0&amp;co_bb[]=20%2C2&amp;co_bb[]=&amp;co_bb[]=&amp;co_bb[]=&amp;co_be[]=&amp;co_be[]=&amp;co_be[]=&amp;co_be[]=&amp;co_sma[]=&amp;co_sma[]=&amp;co_sma[]=&amp;co_sma[]=&amp;co_ema[]=&amp;"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/sources/Tests/Indicators.xlsx
+++ b/sources/Tests/Indicators.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -666,7 +666,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -701,21 +701,18 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="18" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="17" fillId="25" borderId="0" xfId="34" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="26" fillId="25" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="8" fillId="4" borderId="0" xfId="8" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="21" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="18" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="21" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="17" fillId="25" borderId="0" xfId="34" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="21" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="0" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="21" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="26" fillId="25" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="17" fillId="25" borderId="0" xfId="34" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="17" fillId="25" borderId="0" xfId="34" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1038,50 +1035,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J113"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H113" sqref="H113"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" style="33" customWidth="1"/>
     <col min="2" max="2" width="2" style="7" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="45"/>
+    <col min="3" max="3" width="9.140625" style="35"/>
     <col min="4" max="4" width="2.5703125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="43"/>
+    <col min="5" max="5" width="9.140625" style="11"/>
     <col min="6" max="6" width="2.140625" style="9" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="40"/>
+    <col min="8" max="8" width="9.140625" style="12"/>
     <col min="9" max="9" width="1.7109375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="34"/>
+    <col min="10" max="10" width="9.140625" style="43"/>
+    <col min="11" max="11" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="18"/>
-      <c r="C1" s="37"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="21"/>
-      <c r="E1" s="37"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="21"/>
-      <c r="H1" s="37"/>
+      <c r="H1" s="22"/>
       <c r="I1" s="21"/>
-      <c r="J1"/>
-    </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="40"/>
+    </row>
+    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="34" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="8"/>
@@ -1092,24 +1090,25 @@
         <v>4</v>
       </c>
       <c r="I2" s="8"/>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="41" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33">
         <v>41435</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="35">
         <v>1642.81</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="36">
         <v>0</v>
       </c>
       <c r="F3" s="9" t="s">
@@ -1125,24 +1124,27 @@
       <c r="I3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="46">
+      <c r="J3" s="42">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33">
         <v>41436</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="35">
         <v>1626.13</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="36">
         <v>0</v>
       </c>
       <c r="F4" s="9" t="s">
@@ -1158,24 +1160,27 @@
       <c r="I4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="46">
+      <c r="J4" s="42">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <v>41437</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="35">
         <v>1612.52</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="36">
         <v>0</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -1191,24 +1196,27 @@
       <c r="I5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="46">
+      <c r="J5" s="42">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>41438</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="35">
         <v>1636.36</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="36">
         <v>0</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -1224,24 +1232,27 @@
       <c r="I6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="46">
+      <c r="J6" s="42">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>41439</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="35">
         <v>1626.73</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="36">
         <v>0</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -1257,24 +1268,27 @@
       <c r="I7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="46">
+      <c r="J7" s="42">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>41442</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="35">
         <v>1639.04</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="36">
         <v>0</v>
       </c>
       <c r="F8" s="9" t="s">
@@ -1290,24 +1304,27 @@
       <c r="I8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="46">
+      <c r="J8" s="42">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>41443</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="35">
         <v>1651.81</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="36">
         <v>0</v>
       </c>
       <c r="F9" s="9" t="s">
@@ -1323,24 +1340,27 @@
       <c r="I9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="46">
+      <c r="J9" s="42">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
         <v>41444</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="35">
         <v>1628.93</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="11">
         <v>0</v>
       </c>
       <c r="F10" s="9" t="s">
@@ -1356,24 +1376,27 @@
       <c r="I10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="46">
+      <c r="J10" s="42">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
         <v>41445</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="35">
         <v>1588.19</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="11">
         <v>0</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -1389,24 +1412,27 @@
       <c r="I11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="46">
+      <c r="J11" s="42">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
         <v>41446</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="35">
         <v>1592.43</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="11">
         <f t="shared" ref="E12:E27" si="2">AVERAGE(C3:C12)</f>
         <v>1624.4950000000001</v>
       </c>
@@ -1417,32 +1443,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="12">
         <f>G12*(C12-E12)+E12</f>
         <v>1618.6650000000002</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="43">
         <f>E12</f>
         <v>1624.4950000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
         <v>41449</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="35">
         <v>1573.09</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="11">
         <f t="shared" si="2"/>
         <v>1617.5230000000001</v>
       </c>
@@ -1453,32 +1482,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="12">
         <f t="shared" ref="H13:H27" si="3">G13*(C13-H12)+H12</f>
         <v>1610.3786363636366</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="43">
         <f>((J12 * COUNT(C4:C13))-J12+C13)/COUNT(C4:C13)</f>
         <v>1619.3544999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
         <v>41450</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="35">
         <v>1588.03</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="11">
         <f t="shared" si="2"/>
         <v>1613.7130000000002</v>
       </c>
@@ -1489,32 +1521,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="12">
         <f t="shared" si="3"/>
         <v>1606.3152479338844</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14" s="43">
         <f>((J13 * COUNT(C5:C14))-J13+C14)/COUNT(C5:C14)</f>
         <v>1616.2220499999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
         <v>41451</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="35">
         <v>1603.26</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="11">
         <f t="shared" si="2"/>
         <v>1612.7870000000003</v>
       </c>
@@ -1525,32 +1560,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="12">
         <f t="shared" si="3"/>
         <v>1605.7597483095417</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="43">
         <f>((J14 * COUNT(C6:C15))-J14+C15)/COUNT(C6:C15)</f>
         <v>1614.925845</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>41452</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="35">
         <v>1613.2</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="11">
         <f t="shared" si="2"/>
         <v>1610.4710000000002</v>
       </c>
@@ -1561,32 +1599,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="12">
         <f t="shared" si="3"/>
         <v>1607.1125213441705</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="43">
         <f>((J15 * COUNT(C7:C16))-J15+C16)/COUNT(C7:C16)</f>
         <v>1614.7532605000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
         <v>41453</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="35">
         <v>1606.28</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="11">
         <f t="shared" si="2"/>
         <v>1608.4260000000002</v>
       </c>
@@ -1597,32 +1638,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H17" s="40">
+      <c r="H17" s="12">
         <f t="shared" si="3"/>
         <v>1606.9611538270485</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J17" s="34">
+      <c r="J17" s="43">
         <f>((J16 * COUNT(C8:C17))-J16+C17)/COUNT(C8:C17)</f>
         <v>1613.9059344500001</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
         <v>41456</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="35">
         <v>1614.96</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="11">
         <f t="shared" si="2"/>
         <v>1606.0180000000005</v>
       </c>
@@ -1633,32 +1677,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H18" s="40">
+      <c r="H18" s="12">
         <f t="shared" si="3"/>
         <v>1608.4154894948579</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="34">
+      <c r="J18" s="43">
         <f>((J17 * COUNT(C9:C18))-J17+C18)/COUNT(C9:C18)</f>
         <v>1614.0113410050003</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
         <v>41457</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="35">
         <v>1614.08</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="43">
+      <c r="E19" s="11">
         <f t="shared" si="2"/>
         <v>1602.2450000000003</v>
       </c>
@@ -1669,32 +1716,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H19" s="40">
+      <c r="H19" s="12">
         <f t="shared" si="3"/>
         <v>1609.4454004957927</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J19" s="43">
         <f>((J18 * COUNT(C10:C19))-J18+C19)/COUNT(C10:C19)</f>
         <v>1614.0182069045002</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
         <v>41458</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="35">
         <v>1615.41</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="43">
+      <c r="E20" s="11">
         <f t="shared" si="2"/>
         <v>1600.8930000000003</v>
       </c>
@@ -1705,32 +1755,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H20" s="40">
+      <c r="H20" s="12">
         <f t="shared" si="3"/>
         <v>1610.5298731329212</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J20" s="34">
+      <c r="J20" s="43">
         <f>((J19 * COUNT(C11:C20))-J19+C20)/COUNT(C11:C20)</f>
         <v>1614.1573862140501</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
         <v>41460</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="35">
         <v>1631.89</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="43">
+      <c r="E21" s="11">
         <f t="shared" si="2"/>
         <v>1605.2629999999999</v>
       </c>
@@ -1741,32 +1794,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H21" s="40">
+      <c r="H21" s="12">
         <f t="shared" si="3"/>
         <v>1614.4135325632992</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="34">
+      <c r="J21" s="43">
         <f>((J20 * COUNT(C12:C21))-J20+C21)/COUNT(C12:C21)</f>
         <v>1615.9306475926451</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
         <v>41463</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="35">
         <v>1640.46</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="43">
+      <c r="E22" s="11">
         <f t="shared" si="2"/>
         <v>1610.066</v>
       </c>
@@ -1777,32 +1833,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H22" s="40">
+      <c r="H22" s="12">
         <f t="shared" si="3"/>
         <v>1619.1492539154267</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J22" s="34">
+      <c r="J22" s="43">
         <f>((J21 * COUNT(C13:C22))-J21+C22)/COUNT(C13:C22)</f>
         <v>1618.3835828333806</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
         <v>41464</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="45">
+      <c r="C23" s="35">
         <v>1652.32</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="43">
+      <c r="E23" s="11">
         <f t="shared" si="2"/>
         <v>1617.989</v>
       </c>
@@ -1813,32 +1872,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H23" s="40">
+      <c r="H23" s="12">
         <f t="shared" si="3"/>
         <v>1625.1802986580765</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J23" s="34">
+      <c r="J23" s="43">
         <f>((J22 * COUNT(C14:C23))-J22+C23)/COUNT(C14:C23)</f>
         <v>1621.7772245500423</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
         <v>41465</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="45">
+      <c r="C24" s="35">
         <v>1652.62</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="43">
+      <c r="E24" s="11">
         <f t="shared" si="2"/>
         <v>1624.4479999999999</v>
       </c>
@@ -1849,32 +1911,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H24" s="40">
+      <c r="H24" s="12">
         <f t="shared" si="3"/>
         <v>1630.1693352656989</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J24" s="34">
+      <c r="J24" s="43">
         <f>((J23 * COUNT(C15:C24))-J23+C24)/COUNT(C15:C24)</f>
         <v>1624.8615020950378</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
         <v>41466</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="45">
+      <c r="C25" s="35">
         <v>1675.02</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="43">
+      <c r="E25" s="11">
         <f t="shared" si="2"/>
         <v>1631.6239999999998</v>
       </c>
@@ -1885,32 +1950,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H25" s="40">
+      <c r="H25" s="12">
         <f t="shared" si="3"/>
         <v>1638.3240015810263</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J25" s="34">
+      <c r="J25" s="43">
         <f>((J24 * COUNT(C16:C25))-J24+C25)/COUNT(C16:C25)</f>
         <v>1629.8773518855342</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <v>41467</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="45">
+      <c r="C26" s="35">
         <v>1680.19</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="43">
+      <c r="E26" s="11">
         <f t="shared" si="2"/>
         <v>1638.3230000000001</v>
       </c>
@@ -1921,32 +1989,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H26" s="40">
+      <c r="H26" s="12">
         <f t="shared" si="3"/>
         <v>1645.936001293567</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J26" s="34">
+      <c r="J26" s="43">
         <f>((J25 * COUNT(C17:C26))-J25+C26)/COUNT(C17:C26)</f>
         <v>1634.9086166969807</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
         <v>41470</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="45">
+      <c r="C27" s="35">
         <v>1682.5</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="43">
+      <c r="E27" s="11">
         <f t="shared" si="2"/>
         <v>1645.9450000000004</v>
       </c>
@@ -1957,29 +2028,32 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H27" s="40">
+      <c r="H27" s="12">
         <f t="shared" si="3"/>
         <v>1652.5840010583729</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J27" s="34">
+      <c r="J27" s="43">
         <f>((J26 * COUNT(C18:C27))-J26+C27)/COUNT(C18:C27)</f>
         <v>1639.6677550272827</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="45">
+      <c r="C28" s="35">
         <v>0</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="43">
+      <c r="E28" s="11">
         <v>0</v>
       </c>
       <c r="F28" s="9" t="s">
@@ -1988,30 +2062,33 @@
       <c r="G28" s="2">
         <v>0</v>
       </c>
-      <c r="H28" s="40">
+      <c r="H28" s="12">
         <v>0</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J28" s="34">
+      <c r="J28" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
         <v>41471</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="45">
+      <c r="C29" s="35">
         <v>1676.26</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="37">
         <f>AVERAGE(C19:C$27,C$29:C29)</f>
         <v>1652.075</v>
       </c>
@@ -2022,32 +2099,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H29" s="36">
+      <c r="H29" s="37">
         <f>G29*(C29-H27)+H27</f>
         <v>1656.8887281386687</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="34">
+      <c r="J29" s="37">
         <f>((J27 * COUNT(C19:C$27,C$29:C29))-J27+C29)/COUNT(C19:C$27,C$29:C29)</f>
         <v>1643.3269795245542</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
         <v>41472</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="45">
+      <c r="C30" s="35">
         <v>1680.91</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="37">
         <f>AVERAGE(C20:C$27,C$29:C30)</f>
         <v>1658.7580000000003</v>
       </c>
@@ -2058,32 +2138,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H30" s="40">
+      <c r="H30" s="12">
         <f t="shared" ref="H30:H61" si="4">G30*(C30-H29)+H29</f>
         <v>1661.2562321134562</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J30" s="34">
+      <c r="J30" s="37">
         <f>((J29 * COUNT(C20:C$27,C$29:C30))-J29+C30)/COUNT(C20:C$27,C$29:C30)</f>
         <v>1647.0852815720987</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="33">
         <v>41473</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="45">
+      <c r="C31" s="35">
         <v>1689.37</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="37">
         <f>AVERAGE(C21:C$27,C$29:C31)</f>
         <v>1666.154</v>
       </c>
@@ -2094,32 +2177,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H31" s="40">
+      <c r="H31" s="12">
         <f t="shared" si="4"/>
         <v>1666.3678262746459</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J31" s="34">
+      <c r="J31" s="37">
         <f>((J30 * COUNT(C21:C$27,C$29:C31))-J30+C31)/COUNT(C21:C$27,C$29:C31)</f>
         <v>1651.3137534148889</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="33">
         <v>41474</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="45">
+      <c r="C32" s="35">
         <v>1692.09</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E32" s="37">
         <f>AVERAGE(C22:C$27,C$29:C32)</f>
         <v>1672.1740000000002</v>
       </c>
@@ -2130,32 +2216,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H32" s="40">
+      <c r="H32" s="12">
         <f t="shared" si="4"/>
         <v>1671.0445851338013</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J32" s="34">
+      <c r="J32" s="37">
         <f>((J31 * COUNT(C22:C$27,C$29:C32))-J31+C32)/COUNT(C22:C$27,C$29:C32)</f>
         <v>1655.3913780734001</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="33">
         <v>41477</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="45">
+      <c r="C33" s="35">
         <v>1695.53</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E33" s="37">
         <f>AVERAGE(C23:C$27,C$29:C33)</f>
         <v>1677.6809999999998</v>
       </c>
@@ -2166,32 +2255,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H33" s="40">
+      <c r="H33" s="12">
         <f t="shared" si="4"/>
         <v>1675.4964787458375</v>
       </c>
       <c r="I33" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J33" s="34">
+      <c r="J33" s="37">
         <f>((J32 * COUNT(C23:C$27,C$29:C33))-J32+C33)/COUNT(C23:C$27,C$29:C33)</f>
         <v>1659.40524026606</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="33">
         <v>41478</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="45">
+      <c r="C34" s="35">
         <v>1692.39</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="37">
         <f>AVERAGE(C24:C$27,C$29:C34)</f>
         <v>1681.6880000000001</v>
       </c>
@@ -2202,32 +2294,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H34" s="40">
+      <c r="H34" s="12">
         <f t="shared" si="4"/>
         <v>1678.5680280647762</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J34" s="34">
+      <c r="J34" s="37">
         <f>((J33 * COUNT(C24:C$27,C$29:C34))-J33+C34)/COUNT(C24:C$27,C$29:C34)</f>
         <v>1662.703716239454</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="33">
         <v>41479</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="45">
+      <c r="C35" s="35">
         <v>1685.94</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E35" s="37">
         <f>AVERAGE(C25:C$27,C$29:C35)</f>
         <v>1685.02</v>
       </c>
@@ -2238,32 +2333,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H35" s="40">
+      <c r="H35" s="12">
         <f t="shared" si="4"/>
         <v>1679.9083865984533</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="34">
+      <c r="J35" s="37">
         <f>((J34 * COUNT(C25:C$27,C$29:C35))-J34+C35)/COUNT(C25:C$27,C$29:C35)</f>
         <v>1665.0273446155086</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="33">
         <v>41480</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="45">
+      <c r="C36" s="35">
         <v>1690.25</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="36">
+      <c r="E36" s="37">
         <f>AVERAGE(C26:C$27,C$29:C36)</f>
         <v>1686.5430000000001</v>
       </c>
@@ -2274,32 +2372,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H36" s="40">
+      <c r="H36" s="12">
         <f t="shared" si="4"/>
         <v>1681.788679944189</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J36" s="34">
+      <c r="J36" s="37">
         <f>((J35 * COUNT(C26:C$27,C$29:C36))-J35+C36)/COUNT(C26:C$27,C$29:C36)</f>
         <v>1667.5496101539579</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="33">
         <v>41481</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="45">
+      <c r="C37" s="35">
         <v>1691.65</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37" s="37">
         <f>AVERAGE(C27:C$27,C$29:C37)</f>
         <v>1687.6889999999999</v>
       </c>
@@ -2310,32 +2411,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H37" s="40">
+      <c r="H37" s="12">
         <f t="shared" si="4"/>
         <v>1683.5816472270637</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J37" s="34">
+      <c r="J37" s="37">
         <f>((J36 * COUNT(C27:C$27,C$29:C37))-J36+C37)/COUNT(C27:C$27,C$29:C37)</f>
         <v>1669.9596491385623</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="33">
         <v>41484</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="45">
+      <c r="C38" s="35">
         <v>1685.33</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="43">
+      <c r="E38" s="11">
         <f t="shared" ref="E38:E76" si="5">AVERAGE(C29:C38)</f>
         <v>1687.9720000000002</v>
       </c>
@@ -2346,32 +2450,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H38" s="40">
+      <c r="H38" s="12">
         <f t="shared" si="4"/>
         <v>1683.8995295494158</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J38" s="34">
+      <c r="J38" s="43">
         <f>((J37 * COUNT(C29:C38))-J37+C38)/COUNT(C29:C38)</f>
         <v>1671.4966842247061</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="33">
         <v>41485</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="45">
+      <c r="C39" s="35">
         <v>1685.96</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="43">
+      <c r="E39" s="11">
         <f t="shared" si="5"/>
         <v>1688.9419999999998</v>
       </c>
@@ -2382,32 +2489,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H39" s="40">
+      <c r="H39" s="12">
         <f t="shared" si="4"/>
         <v>1684.274160540431</v>
       </c>
       <c r="I39" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J39" s="34">
+      <c r="J39" s="43">
         <f>((J38 * COUNT(C30:C39))-J38+C39)/COUNT(C30:C39)</f>
         <v>1672.9430158022355</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="33">
         <v>41486</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="45">
+      <c r="C40" s="35">
         <v>1685.73</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="43">
+      <c r="E40" s="11">
         <f t="shared" si="5"/>
         <v>1689.4239999999998</v>
       </c>
@@ -2418,32 +2528,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H40" s="40">
+      <c r="H40" s="12">
         <f t="shared" si="4"/>
         <v>1684.538858623989</v>
       </c>
       <c r="I40" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="34">
+      <c r="J40" s="43">
         <f>((J39 * COUNT(C31:C40))-J39+C40)/COUNT(C31:C40)</f>
         <v>1674.221714222012</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="33">
         <v>41487</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="45">
+      <c r="C41" s="35">
         <v>1706.87</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="43">
+      <c r="E41" s="11">
         <f t="shared" si="5"/>
         <v>1691.1739999999998</v>
       </c>
@@ -2454,32 +2567,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H41" s="40">
+      <c r="H41" s="12">
         <f t="shared" si="4"/>
         <v>1688.5990661469</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J41" s="34">
+      <c r="J41" s="43">
         <f>((J40 * COUNT(C32:C41))-J40+C41)/COUNT(C32:C41)</f>
         <v>1677.4865427998109</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="33">
         <v>41488</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="45">
+      <c r="C42" s="35">
         <v>1709.67</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="43">
+      <c r="E42" s="11">
         <f t="shared" si="5"/>
         <v>1692.932</v>
       </c>
@@ -2490,32 +2606,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H42" s="40">
+      <c r="H42" s="12">
         <f t="shared" si="4"/>
         <v>1692.4301450292819</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J42" s="34">
+      <c r="J42" s="43">
         <f>((J41 * COUNT(C33:C42))-J41+C42)/COUNT(C33:C42)</f>
         <v>1680.7048885198299</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="33">
         <v>41491</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="45">
+      <c r="C43" s="35">
         <v>1707.14</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="43">
+      <c r="E43" s="11">
         <f t="shared" si="5"/>
         <v>1694.0930000000001</v>
       </c>
@@ -2526,32 +2645,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H43" s="40">
+      <c r="H43" s="12">
         <f t="shared" si="4"/>
         <v>1695.1046641148671</v>
       </c>
       <c r="I43" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J43" s="34">
+      <c r="J43" s="43">
         <f>((J42 * COUNT(C34:C43))-J42+C43)/COUNT(C34:C43)</f>
         <v>1683.3483996678472</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="33">
         <v>41492</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="45">
+      <c r="C44" s="35">
         <v>1697.37</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="43">
+      <c r="E44" s="11">
         <f t="shared" si="5"/>
         <v>1694.5909999999999</v>
       </c>
@@ -2562,32 +2684,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H44" s="40">
+      <c r="H44" s="12">
         <f t="shared" si="4"/>
         <v>1695.5165433667094</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J44" s="34">
+      <c r="J44" s="43">
         <f>((J43 * COUNT(C35:C44))-J43+C44)/COUNT(C35:C44)</f>
         <v>1684.7505597010622</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="33">
         <v>41493</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="45">
+      <c r="C45" s="35">
         <v>1690.91</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="43">
+      <c r="E45" s="11">
         <f t="shared" si="5"/>
         <v>1695.0880000000002</v>
       </c>
@@ -2598,32 +2723,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H45" s="40">
+      <c r="H45" s="12">
         <f t="shared" si="4"/>
         <v>1694.6789900273077</v>
       </c>
       <c r="I45" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J45" s="34">
+      <c r="J45" s="43">
         <f>((J44 * COUNT(C36:C45))-J44+C45)/COUNT(C36:C45)</f>
         <v>1685.3665037309561</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="33">
         <v>41494</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="45">
+      <c r="C46" s="35">
         <v>1697.48</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="43">
+      <c r="E46" s="11">
         <f t="shared" si="5"/>
         <v>1695.8110000000001</v>
       </c>
@@ -2634,32 +2762,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H46" s="40">
+      <c r="H46" s="12">
         <f t="shared" si="4"/>
         <v>1695.1882645677972</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J46" s="34">
+      <c r="J46" s="43">
         <f>((J45 * COUNT(C37:C46))-J45+C46)/COUNT(C37:C46)</f>
         <v>1686.5778533578607</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="33">
         <v>41495</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="45">
+      <c r="C47" s="35">
         <v>1691.42</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="43">
+      <c r="E47" s="11">
         <f t="shared" si="5"/>
         <v>1695.7879999999998</v>
       </c>
@@ -2670,32 +2801,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H47" s="40">
+      <c r="H47" s="12">
         <f t="shared" si="4"/>
         <v>1694.5031255554704</v>
       </c>
       <c r="I47" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J47" s="34">
+      <c r="J47" s="43">
         <f>((J46 * COUNT(C38:C47))-J46+C47)/COUNT(C38:C47)</f>
         <v>1687.0620680220745</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="33">
         <v>41498</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="45">
+      <c r="C48" s="35">
         <v>1689.47</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="43">
+      <c r="E48" s="11">
         <f t="shared" si="5"/>
         <v>1696.2019999999998</v>
       </c>
@@ -2706,32 +2840,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H48" s="40">
+      <c r="H48" s="12">
         <f t="shared" si="4"/>
         <v>1693.5880118181121</v>
       </c>
       <c r="I48" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="34">
+      <c r="J48" s="43">
         <f>((J47 * COUNT(C39:C48))-J47+C48)/COUNT(C39:C48)</f>
         <v>1687.3028612198673</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="33">
         <v>41499</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="45">
+      <c r="C49" s="35">
         <v>1694.16</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="43">
+      <c r="E49" s="11">
         <f t="shared" si="5"/>
         <v>1697.0220000000002</v>
       </c>
@@ -2742,32 +2879,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H49" s="40">
+      <c r="H49" s="12">
         <f t="shared" si="4"/>
         <v>1693.6920096693646</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="34">
+      <c r="J49" s="43">
         <f>((J48 * COUNT(C40:C49))-J48+C49)/COUNT(C40:C49)</f>
         <v>1687.9885750978806</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="33">
         <v>41500</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="45">
+      <c r="C50" s="35">
         <v>1685.39</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E50" s="43">
+      <c r="E50" s="11">
         <f t="shared" si="5"/>
         <v>1696.9880000000001</v>
       </c>
@@ -2778,32 +2918,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H50" s="40">
+      <c r="H50" s="12">
         <f t="shared" si="4"/>
         <v>1692.1825533658437</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J50" s="34">
+      <c r="J50" s="43">
         <f>((J49 * COUNT(C41:C50))-J49+C50)/COUNT(C41:C50)</f>
         <v>1687.7287175880926</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="33">
         <v>41501</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="45">
+      <c r="C51" s="35">
         <v>1661.32</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E51" s="43">
+      <c r="E51" s="11">
         <f t="shared" si="5"/>
         <v>1692.4329999999998</v>
       </c>
@@ -2814,32 +2957,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H51" s="40">
+      <c r="H51" s="12">
         <f t="shared" si="4"/>
         <v>1686.5711800265994</v>
       </c>
       <c r="I51" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J51" s="34">
+      <c r="J51" s="43">
         <f>((J50 * COUNT(C42:C51))-J50+C51)/COUNT(C42:C51)</f>
         <v>1685.0878458292834</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="33">
         <v>41502</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="45">
+      <c r="C52" s="35">
         <v>1655.83</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="43">
+      <c r="E52" s="11">
         <f t="shared" si="5"/>
         <v>1687.0489999999998</v>
       </c>
@@ -2850,32 +2996,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H52" s="40">
+      <c r="H52" s="12">
         <f t="shared" si="4"/>
         <v>1680.9818745672178</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J52" s="34">
+      <c r="J52" s="43">
         <f>((J51 * COUNT(C43:C52))-J51+C52)/COUNT(C43:C52)</f>
         <v>1682.1620612463551</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="33">
         <v>41505</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="45">
+      <c r="C53" s="35">
         <v>1646.06</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="43">
+      <c r="E53" s="11">
         <f t="shared" si="5"/>
         <v>1680.941</v>
       </c>
@@ -2886,32 +3035,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H53" s="40">
+      <c r="H53" s="12">
         <f t="shared" si="4"/>
         <v>1674.6324428277237</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J53" s="34">
+      <c r="J53" s="43">
         <f>((J52 * COUNT(C44:C53))-J52+C53)/COUNT(C44:C53)</f>
         <v>1678.5518551217197</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="33">
         <v>41506</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="45">
+      <c r="C54" s="35">
         <v>1652.35</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E54" s="43">
+      <c r="E54" s="11">
         <f t="shared" si="5"/>
         <v>1676.4389999999999</v>
       </c>
@@ -2922,32 +3074,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H54" s="40">
+      <c r="H54" s="12">
         <f t="shared" si="4"/>
         <v>1670.5810895863194</v>
       </c>
       <c r="I54" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J54" s="34">
+      <c r="J54" s="43">
         <f>((J53 * COUNT(C45:C54))-J53+C54)/COUNT(C45:C54)</f>
         <v>1675.9316696095477</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="33">
         <v>41507</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="45">
+      <c r="C55" s="35">
         <v>1642.8</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E55" s="43">
+      <c r="E55" s="11">
         <f t="shared" si="5"/>
         <v>1671.6279999999999</v>
       </c>
@@ -2958,32 +3113,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H55" s="40">
+      <c r="H55" s="12">
         <f t="shared" si="4"/>
         <v>1665.5299823888067</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J55" s="34">
+      <c r="J55" s="43">
         <f>((J54 * COUNT(C46:C55))-J54+C55)/COUNT(C46:C55)</f>
         <v>1672.6185026485928</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="33">
         <v>41508</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="45">
+      <c r="C56" s="35">
         <v>1656.96</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E56" s="43">
+      <c r="E56" s="11">
         <f t="shared" si="5"/>
         <v>1667.5759999999998</v>
       </c>
@@ -2994,32 +3152,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H56" s="40">
+      <c r="H56" s="12">
         <f t="shared" si="4"/>
         <v>1663.97180377266</v>
       </c>
       <c r="I56" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J56" s="34">
+      <c r="J56" s="43">
         <f>((J55 * COUNT(C47:C56))-J55+C56)/COUNT(C47:C56)</f>
         <v>1671.0526523837336</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="33">
         <v>41509</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="45">
+      <c r="C57" s="35">
         <v>1663.5</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="43">
+      <c r="E57" s="11">
         <f t="shared" si="5"/>
         <v>1664.7840000000001</v>
       </c>
@@ -3030,32 +3191,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H57" s="40">
+      <c r="H57" s="12">
         <f t="shared" si="4"/>
         <v>1663.8860212685399</v>
       </c>
       <c r="I57" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J57" s="34">
+      <c r="J57" s="43">
         <f>((J56 * COUNT(C48:C57))-J56+C57)/COUNT(C48:C57)</f>
         <v>1670.2973871453601</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="33">
         <v>41512</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="45">
+      <c r="C58" s="35">
         <v>1656.78</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="43">
+      <c r="E58" s="11">
         <f t="shared" si="5"/>
         <v>1661.5149999999999</v>
       </c>
@@ -3066,32 +3230,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H58" s="40">
+      <c r="H58" s="12">
         <f t="shared" si="4"/>
         <v>1662.5940174015327</v>
       </c>
       <c r="I58" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J58" s="34">
+      <c r="J58" s="43">
         <f>((J57 * COUNT(C49:C58))-J57+C58)/COUNT(C49:C58)</f>
         <v>1668.9456484308241</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="33">
         <v>41513</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="45">
+      <c r="C59" s="35">
         <v>1630.48</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="43">
+      <c r="E59" s="11">
         <f t="shared" si="5"/>
         <v>1655.1470000000002</v>
       </c>
@@ -3102,32 +3269,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H59" s="40">
+      <c r="H59" s="12">
         <f t="shared" si="4"/>
         <v>1656.7551051467085</v>
       </c>
       <c r="I59" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J59" s="34">
+      <c r="J59" s="43">
         <f>((J58 * COUNT(C50:C59))-J58+C59)/COUNT(C50:C59)</f>
         <v>1665.0990835877415</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="33">
         <v>41514</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="45">
+      <c r="C60" s="35">
         <v>1634.96</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E60" s="43">
+      <c r="E60" s="11">
         <f t="shared" si="5"/>
         <v>1650.104</v>
       </c>
@@ -3138,32 +3308,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H60" s="40">
+      <c r="H60" s="12">
         <f t="shared" si="4"/>
         <v>1652.7923587563978</v>
       </c>
       <c r="I60" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J60" s="34">
+      <c r="J60" s="43">
         <f>((J59 * COUNT(C51:C60))-J59+C60)/COUNT(C51:C60)</f>
         <v>1662.0851752289673</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="33">
         <v>41515</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="45">
+      <c r="C61" s="35">
         <v>1638.17</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E61" s="43">
+      <c r="E61" s="11">
         <f t="shared" si="5"/>
         <v>1647.789</v>
       </c>
@@ -3174,32 +3347,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H61" s="40">
+      <c r="H61" s="12">
         <f t="shared" si="4"/>
         <v>1650.1337480734164</v>
       </c>
       <c r="I61" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J61" s="34">
+      <c r="J61" s="43">
         <f>((J60 * COUNT(C52:C61))-J60+C61)/COUNT(C52:C61)</f>
         <v>1659.6936577060703</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="33">
         <v>41516</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="45">
+      <c r="C62" s="35">
         <v>1632.97</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E62" s="43">
+      <c r="E62" s="11">
         <f t="shared" si="5"/>
         <v>1645.5029999999999</v>
       </c>
@@ -3210,32 +3386,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H62" s="40">
+      <c r="H62" s="12">
         <f t="shared" ref="H62:H93" si="6">G62*(C62-H61)+H61</f>
         <v>1647.0130666055225</v>
       </c>
       <c r="I62" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J62" s="34">
+      <c r="J62" s="43">
         <f>((J61 * COUNT(C53:C62))-J61+C62)/COUNT(C53:C62)</f>
         <v>1657.0212919354635</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="33">
         <v>41520</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="45">
+      <c r="C63" s="35">
         <v>1639.77</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E63" s="43">
+      <c r="E63" s="11">
         <f t="shared" si="5"/>
         <v>1644.8739999999998</v>
       </c>
@@ -3246,32 +3425,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H63" s="40">
+      <c r="H63" s="12">
         <f t="shared" si="6"/>
         <v>1645.6961454045183</v>
       </c>
       <c r="I63" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J63" s="34">
+      <c r="J63" s="43">
         <f>((J62 * COUNT(C54:C63))-J62+C63)/COUNT(C54:C63)</f>
         <v>1655.2961627419172</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="33">
         <v>41521</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="45">
+      <c r="C64" s="35">
         <v>1653.08</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E64" s="43">
+      <c r="E64" s="11">
         <f t="shared" si="5"/>
         <v>1644.9470000000001</v>
       </c>
@@ -3282,32 +3464,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H64" s="40">
+      <c r="H64" s="12">
         <f t="shared" si="6"/>
         <v>1647.0386644218786</v>
       </c>
       <c r="I64" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J64" s="34">
+      <c r="J64" s="43">
         <f>((J63 * COUNT(C55:C64))-J63+C64)/COUNT(C55:C64)</f>
         <v>1655.0745464677252</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="33">
         <v>41522</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="45">
+      <c r="C65" s="35">
         <v>1655.08</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="43">
+      <c r="E65" s="11">
         <f t="shared" si="5"/>
         <v>1646.175</v>
       </c>
@@ -3318,32 +3503,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H65" s="40">
+      <c r="H65" s="12">
         <f t="shared" si="6"/>
         <v>1648.5007254360826</v>
       </c>
       <c r="I65" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J65" s="34">
+      <c r="J65" s="43">
         <f>((J64 * COUNT(C56:C65))-J64+C65)/COUNT(C56:C65)</f>
         <v>1655.0750918209528</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="33">
         <v>41523</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="45">
+      <c r="C66" s="35">
         <v>1655.17</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="43">
+      <c r="E66" s="11">
         <f t="shared" si="5"/>
         <v>1645.9959999999999</v>
       </c>
@@ -3354,32 +3542,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H66" s="40">
+      <c r="H66" s="12">
         <f t="shared" si="6"/>
         <v>1649.7133208113403</v>
       </c>
       <c r="I66" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J66" s="34">
+      <c r="J66" s="43">
         <f>((J65 * COUNT(C57:C66))-J65+C66)/COUNT(C57:C66)</f>
         <v>1655.0845826388577</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="33">
         <v>41526</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="45">
+      <c r="C67" s="35">
         <v>1671.71</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E67" s="43">
+      <c r="E67" s="11">
         <f t="shared" si="5"/>
         <v>1646.8170000000002</v>
       </c>
@@ -3390,32 +3581,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H67" s="40">
+      <c r="H67" s="12">
         <f t="shared" si="6"/>
         <v>1653.7127170274603</v>
       </c>
       <c r="I67" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J67" s="34">
+      <c r="J67" s="43">
         <f>((J66 * COUNT(C58:C67))-J66+C67)/COUNT(C58:C67)</f>
         <v>1656.7471243749719</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="33">
         <v>41527</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="45">
+      <c r="C68" s="35">
         <v>1683.99</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E68" s="43">
+      <c r="E68" s="11">
         <f t="shared" si="5"/>
         <v>1649.538</v>
       </c>
@@ -3426,32 +3620,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H68" s="40">
+      <c r="H68" s="12">
         <f t="shared" si="6"/>
         <v>1659.217677567922</v>
       </c>
       <c r="I68" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J68" s="34">
+      <c r="J68" s="43">
         <f>((J67 * COUNT(C59:C68))-J67+C68)/COUNT(C59:C68)</f>
         <v>1659.4714119374748</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="33">
         <v>41528</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="45">
+      <c r="C69" s="35">
         <v>1689.13</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E69" s="43">
+      <c r="E69" s="11">
         <f t="shared" si="5"/>
         <v>1655.4029999999998</v>
       </c>
@@ -3462,32 +3659,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H69" s="40">
+      <c r="H69" s="12">
         <f t="shared" si="6"/>
         <v>1664.6562816464816</v>
       </c>
       <c r="I69" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J69" s="34">
+      <c r="J69" s="43">
         <f>((J68 * COUNT(C60:C69))-J68+C69)/COUNT(C60:C69)</f>
         <v>1662.4372707437274</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="33">
         <v>41529</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C70" s="45">
+      <c r="C70" s="35">
         <v>1683.42</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="43">
+      <c r="E70" s="11">
         <f t="shared" si="5"/>
         <v>1660.2489999999998</v>
       </c>
@@ -3498,32 +3698,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H70" s="40">
+      <c r="H70" s="12">
         <f t="shared" si="6"/>
         <v>1668.0678668016667</v>
       </c>
       <c r="I70" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J70" s="34">
+      <c r="J70" s="43">
         <f>((J69 * COUNT(C61:C70))-J69+C70)/COUNT(C61:C70)</f>
         <v>1664.5355436693546</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="33">
         <v>41530</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="45">
+      <c r="C71" s="35">
         <v>1687.99</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E71" s="43">
+      <c r="E71" s="11">
         <f t="shared" si="5"/>
         <v>1665.2309999999998</v>
       </c>
@@ -3534,32 +3737,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H71" s="40">
+      <c r="H71" s="12">
         <f t="shared" si="6"/>
         <v>1671.6900728377273</v>
       </c>
       <c r="I71" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J71" s="34">
+      <c r="J71" s="43">
         <f>((J70 * COUNT(C62:C71))-J70+C71)/COUNT(C62:C71)</f>
         <v>1666.880989302419</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="33">
         <v>41533</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C72" s="45">
+      <c r="C72" s="35">
         <v>1697.6</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="43">
+      <c r="E72" s="11">
         <f t="shared" si="5"/>
         <v>1671.694</v>
       </c>
@@ -3570,32 +3776,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H72" s="40">
+      <c r="H72" s="12">
         <f t="shared" si="6"/>
         <v>1676.4009686854131</v>
       </c>
       <c r="I72" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J72" s="34">
+      <c r="J72" s="43">
         <f>((J71 * COUNT(C63:C72))-J71+C72)/COUNT(C63:C72)</f>
         <v>1669.9528903721771</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="33">
         <v>41534</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="45">
+      <c r="C73" s="35">
         <v>1704.76</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E73" s="43">
+      <c r="E73" s="11">
         <f t="shared" si="5"/>
         <v>1678.193</v>
       </c>
@@ -3606,32 +3815,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H73" s="40">
+      <c r="H73" s="12">
         <f t="shared" si="6"/>
         <v>1681.5571561971562</v>
       </c>
       <c r="I73" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J73" s="34">
+      <c r="J73" s="43">
         <f>((J72 * COUNT(C64:C73))-J72+C73)/COUNT(C64:C73)</f>
         <v>1673.4336013349591</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="33">
         <v>41535</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C74" s="45">
+      <c r="C74" s="35">
         <v>1725.52</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E74" s="43">
+      <c r="E74" s="11">
         <f t="shared" si="5"/>
         <v>1685.4369999999999</v>
       </c>
@@ -3642,32 +3854,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H74" s="40">
+      <c r="H74" s="12">
         <f t="shared" si="6"/>
         <v>1689.5504005249461</v>
       </c>
       <c r="I74" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J74" s="34">
+      <c r="J74" s="43">
         <f>((J73 * COUNT(C65:C74))-J73+C74)/COUNT(C65:C74)</f>
         <v>1678.6422412014631</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="33">
         <v>41536</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="45">
+      <c r="C75" s="35">
         <v>1722.34</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E75" s="43">
+      <c r="E75" s="11">
         <f t="shared" si="5"/>
         <v>1692.163</v>
       </c>
@@ -3678,32 +3893,35 @@
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H75" s="40">
+      <c r="H75" s="12">
         <f t="shared" si="6"/>
         <v>1695.5121458840467</v>
       </c>
       <c r="I75" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J75" s="34">
+      <c r="J75" s="43">
         <f>((J74 * COUNT(C66:C75))-J74+C75)/COUNT(C66:C75)</f>
         <v>1683.0120170813166</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="33">
         <v>41537</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C76" s="45">
+      <c r="C76" s="35">
         <v>1709.91</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E76" s="43">
+      <c r="E76" s="11">
         <f t="shared" si="5"/>
         <v>1697.6370000000002</v>
       </c>
@@ -3714,32 +3932,35 @@
         <f t="shared" ref="G76:G112" si="7">2/(10+1)</f>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H76" s="40">
+      <c r="H76" s="12">
         <f t="shared" si="6"/>
         <v>1698.1299375414928</v>
       </c>
       <c r="I76" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J76" s="34">
+      <c r="J76" s="43">
         <f>((J75 * COUNT(C67:C76))-J75+C76)/COUNT(C67:C76)</f>
         <v>1685.7018153731849</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="33">
         <v>41540</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="45">
+      <c r="C77" s="35">
         <v>1701.84</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E77" s="43">
+      <c r="E77" s="11">
         <f t="shared" ref="E77:E112" si="8">AVERAGE(C68:C77)</f>
         <v>1700.65</v>
       </c>
@@ -3750,32 +3971,35 @@
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H77" s="40">
+      <c r="H77" s="12">
         <f t="shared" si="6"/>
         <v>1698.8044943521304</v>
       </c>
       <c r="I77" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J77" s="34">
+      <c r="J77" s="43">
         <f>((J76 * COUNT(C68:C77))-J76+C77)/COUNT(C68:C77)</f>
         <v>1687.3156338358665</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="33">
         <v>41541</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C78" s="45">
+      <c r="C78" s="35">
         <v>1697.42</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E78" s="43">
+      <c r="E78" s="11">
         <f t="shared" si="8"/>
         <v>1701.9929999999999</v>
       </c>
@@ -3786,32 +4010,35 @@
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H78" s="40">
+      <c r="H78" s="12">
         <f t="shared" si="6"/>
         <v>1698.5527681062886</v>
       </c>
       <c r="I78" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J78" s="34">
+      <c r="J78" s="43">
         <f>((J77 * COUNT(C69:C78))-J77+C78)/COUNT(C69:C78)</f>
         <v>1688.32607045228</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="33">
         <v>41542</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C79" s="45">
+      <c r="C79" s="35">
         <v>1692.77</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E79" s="43">
+      <c r="E79" s="11">
         <f t="shared" si="8"/>
         <v>1702.357</v>
       </c>
@@ -3822,32 +4049,35 @@
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H79" s="40">
+      <c r="H79" s="12">
         <f t="shared" si="6"/>
         <v>1697.5013557233269</v>
       </c>
       <c r="I79" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J79" s="34">
+      <c r="J79" s="43">
         <f>((J78 * COUNT(C70:C79))-J78+C79)/COUNT(C70:C79)</f>
         <v>1688.7704634070519</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="33">
         <v>41543</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C80" s="45">
+      <c r="C80" s="35">
         <v>1698.67</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E80" s="43">
+      <c r="E80" s="11">
         <f t="shared" si="8"/>
         <v>1703.8820000000001</v>
       </c>
@@ -3858,32 +4088,35 @@
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H80" s="40">
+      <c r="H80" s="12">
         <f t="shared" si="6"/>
         <v>1697.7138365009039</v>
       </c>
       <c r="I80" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J80" s="34">
+      <c r="J80" s="43">
         <f>((J79 * COUNT(C71:C80))-J79+C80)/COUNT(C71:C80)</f>
         <v>1689.7604170663467</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="33">
         <v>41544</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C81" s="45">
+      <c r="C81" s="35">
         <v>1691.75</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E81" s="43">
+      <c r="E81" s="11">
         <f t="shared" si="8"/>
         <v>1704.2580000000003</v>
       </c>
@@ -3894,32 +4127,35 @@
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H81" s="40">
+      <c r="H81" s="12">
         <f t="shared" si="6"/>
         <v>1696.6295025916486</v>
       </c>
       <c r="I81" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J81" s="34">
+      <c r="J81" s="43">
         <f>((J80 * COUNT(C72:C81))-J80+C81)/COUNT(C72:C81)</f>
         <v>1689.9593753597121</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="33">
         <v>41547</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C82" s="45">
+      <c r="C82" s="35">
         <v>1681.55</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E82" s="43">
+      <c r="E82" s="11">
         <f t="shared" si="8"/>
         <v>1702.6529999999998</v>
       </c>
@@ -3930,32 +4166,35 @@
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H82" s="40">
+      <c r="H82" s="12">
         <f t="shared" si="6"/>
         <v>1693.8877748477125</v>
       </c>
       <c r="I82" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J82" s="34">
+      <c r="J82" s="43">
         <f>((J81 * COUNT(C73:C82))-J81+C82)/COUNT(C73:C82)</f>
         <v>1689.1184378237408</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="33">
         <v>41548</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C83" s="45">
+      <c r="C83" s="35">
         <v>1695</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="43">
+      <c r="E83" s="11">
         <f t="shared" si="8"/>
         <v>1701.6769999999997</v>
       </c>
@@ -3966,32 +4205,35 @@
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H83" s="40">
+      <c r="H83" s="12">
         <f t="shared" si="6"/>
         <v>1694.089997602674</v>
       </c>
       <c r="I83" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J83" s="34">
+      <c r="J83" s="43">
         <f>((J82 * COUNT(C74:C83))-J82+C83)/COUNT(C74:C83)</f>
         <v>1689.7065940413668</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="33">
         <v>41549</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C84" s="45">
+      <c r="C84" s="35">
         <v>1693.87</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E84" s="43">
+      <c r="E84" s="11">
         <f t="shared" si="8"/>
         <v>1698.5119999999999</v>
       </c>
@@ -4002,32 +4244,35 @@
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H84" s="40">
+      <c r="H84" s="12">
         <f t="shared" si="6"/>
         <v>1694.0499980385514</v>
       </c>
       <c r="I84" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J84" s="34">
+      <c r="J84" s="43">
         <f>((J83 * COUNT(C75:C84))-J83+C84)/COUNT(C75:C84)</f>
         <v>1690.1229346372299</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="33">
         <v>41550</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C85" s="45">
+      <c r="C85" s="35">
         <v>1678.66</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E85" s="43">
+      <c r="E85" s="11">
         <f t="shared" si="8"/>
         <v>1694.1439999999998</v>
       </c>
@@ -4038,32 +4283,35 @@
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H85" s="40">
+      <c r="H85" s="12">
         <f t="shared" si="6"/>
         <v>1691.2518165769966</v>
       </c>
       <c r="I85" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J85" s="34">
+      <c r="J85" s="43">
         <f>((J84 * COUNT(C76:C85))-J84+C85)/COUNT(C76:C85)</f>
         <v>1688.9766411735072</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="33">
         <v>41551</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="45">
+      <c r="C86" s="35">
         <v>1690.5</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E86" s="43">
+      <c r="E86" s="11">
         <f t="shared" si="8"/>
         <v>1692.203</v>
       </c>
@@ -4074,32 +4322,35 @@
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H86" s="40">
+      <c r="H86" s="12">
         <f t="shared" si="6"/>
         <v>1691.1151226539064</v>
       </c>
       <c r="I86" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J86" s="34">
+      <c r="J86" s="43">
         <f>((J85 * COUNT(C77:C86))-J85+C86)/COUNT(C77:C86)</f>
         <v>1689.1289770561566</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="33">
         <v>41554</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="45">
+      <c r="C87" s="35">
         <v>1676.12</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E87" s="43">
+      <c r="E87" s="11">
         <f t="shared" si="8"/>
         <v>1689.6309999999999</v>
       </c>
@@ -4110,32 +4361,35 @@
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H87" s="40">
+      <c r="H87" s="12">
         <f t="shared" si="6"/>
         <v>1688.3887367168325</v>
       </c>
       <c r="I87" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J87" s="34">
+      <c r="J87" s="43">
         <f>((J86 * COUNT(C78:C87))-J86+C87)/COUNT(C78:C87)</f>
         <v>1687.8280793505407</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K87" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="33">
         <v>41555</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C88" s="45">
+      <c r="C88" s="35">
         <v>1655.45</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E88" s="43">
+      <c r="E88" s="11">
         <f t="shared" si="8"/>
         <v>1685.434</v>
       </c>
@@ -4146,32 +4400,35 @@
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H88" s="40">
+      <c r="H88" s="12">
         <f t="shared" si="6"/>
         <v>1682.3998754955901</v>
       </c>
       <c r="I88" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J88" s="34">
+      <c r="J88" s="43">
         <f>((J87 * COUNT(C79:C88))-J87+C88)/COUNT(C79:C88)</f>
         <v>1684.5902714154868</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="33">
         <v>41556</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="45">
+      <c r="C89" s="35">
         <v>1656.4</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E89" s="43">
+      <c r="E89" s="11">
         <f t="shared" si="8"/>
         <v>1681.797</v>
       </c>
@@ -4182,32 +4439,35 @@
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H89" s="40">
+      <c r="H89" s="12">
         <f t="shared" si="6"/>
         <v>1677.6726254054829</v>
       </c>
       <c r="I89" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J89" s="34">
+      <c r="J89" s="43">
         <f>((J88 * COUNT(C80:C89))-J88+C89)/COUNT(C80:C89)</f>
         <v>1681.7712442739382</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="33">
         <v>41557</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C90" s="45">
+      <c r="C90" s="35">
         <v>1692.56</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E90" s="43">
+      <c r="E90" s="11">
         <f t="shared" si="8"/>
         <v>1681.1860000000001</v>
       </c>
@@ -4218,32 +4478,35 @@
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H90" s="40">
+      <c r="H90" s="12">
         <f t="shared" si="6"/>
         <v>1680.3794207863041</v>
       </c>
       <c r="I90" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J90" s="34">
+      <c r="J90" s="43">
         <f>((J89 * COUNT(C81:C90))-J89+C90)/COUNT(C81:C90)</f>
         <v>1682.8501198465444</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="33">
         <v>41558</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C91" s="45">
+      <c r="C91" s="35">
         <v>1703.2</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="43">
+      <c r="E91" s="11">
         <f t="shared" si="8"/>
         <v>1682.3310000000001</v>
       </c>
@@ -4254,32 +4517,35 @@
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H91" s="40">
+      <c r="H91" s="12">
         <f t="shared" si="6"/>
         <v>1684.528617006976</v>
       </c>
       <c r="I91" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J91" s="34">
+      <c r="J91" s="43">
         <f>((J90 * COUNT(C82:C91))-J90+C91)/COUNT(C82:C91)</f>
         <v>1684.88510786189</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K91" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="33">
         <v>41561</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="45">
+      <c r="C92" s="35">
         <v>1710.14</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E92" s="43">
+      <c r="E92" s="11">
         <f t="shared" si="8"/>
         <v>1685.19</v>
       </c>
@@ -4290,32 +4556,35 @@
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H92" s="40">
+      <c r="H92" s="12">
         <f t="shared" si="6"/>
         <v>1689.1852320966168</v>
       </c>
       <c r="I92" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J92" s="34">
+      <c r="J92" s="43">
         <f>((J91 * COUNT(C83:C92))-J91+C92)/COUNT(C83:C92)</f>
         <v>1687.4105970757009</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="33">
         <v>41562</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C93" s="45">
+      <c r="C93" s="35">
         <v>1698.06</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E93" s="43">
+      <c r="E93" s="11">
         <f t="shared" si="8"/>
         <v>1685.4959999999999</v>
       </c>
@@ -4326,32 +4595,35 @@
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H93" s="40">
+      <c r="H93" s="12">
         <f t="shared" si="6"/>
         <v>1690.7988262608683</v>
       </c>
       <c r="I93" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J93" s="34">
+      <c r="J93" s="43">
         <f>((J92 * COUNT(C84:C93))-J92+C93)/COUNT(C84:C93)</f>
         <v>1688.475537368131</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="33">
         <v>41563</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C94" s="45">
+      <c r="C94" s="35">
         <v>1721.54</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E94" s="43">
+      <c r="E94" s="11">
         <f t="shared" si="8"/>
         <v>1688.2629999999997</v>
       </c>
@@ -4362,32 +4634,35 @@
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H94" s="40">
+      <c r="H94" s="12">
         <f t="shared" ref="H94:H112" si="9">G94*(C94-H93)+H93</f>
         <v>1696.388130577074</v>
       </c>
       <c r="I94" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J94" s="34">
+      <c r="J94" s="43">
         <f>((J93 * COUNT(C85:C94))-J93+C94)/COUNT(C85:C94)</f>
         <v>1691.7819836313179</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="33">
         <v>41564</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C95" s="45">
+      <c r="C95" s="35">
         <v>1733.15</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E95" s="43">
+      <c r="E95" s="11">
         <f t="shared" si="8"/>
         <v>1693.712</v>
       </c>
@@ -4398,32 +4673,35 @@
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H95" s="40">
+      <c r="H95" s="12">
         <f t="shared" si="9"/>
         <v>1703.0721068357877</v>
       </c>
       <c r="I95" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J95" s="34">
+      <c r="J95" s="43">
         <f>((J94 * COUNT(C86:C95))-J94+C95)/COUNT(C86:C95)</f>
         <v>1695.9187852681862</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K95" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="33">
         <v>41565</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="45">
+      <c r="C96" s="35">
         <v>1744.5</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E96" s="43">
+      <c r="E96" s="11">
         <f t="shared" si="8"/>
         <v>1699.1119999999996</v>
       </c>
@@ -4434,32 +4712,35 @@
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H96" s="40">
+      <c r="H96" s="12">
         <f t="shared" si="9"/>
         <v>1710.6044510474626</v>
       </c>
       <c r="I96" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J96" s="34">
+      <c r="J96" s="43">
         <f>((J95 * COUNT(C87:C96))-J95+C96)/COUNT(C87:C96)</f>
         <v>1700.7769067413676</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="33">
         <v>41568</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C97" s="45">
+      <c r="C97" s="35">
         <v>1744.66</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E97" s="43">
+      <c r="E97" s="11">
         <f t="shared" si="8"/>
         <v>1705.9659999999999</v>
       </c>
@@ -4470,32 +4751,35 @@
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H97" s="40">
+      <c r="H97" s="12">
         <f t="shared" si="9"/>
         <v>1716.7963690388331</v>
       </c>
       <c r="I97" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J97" s="34">
+      <c r="J97" s="43">
         <f>((J96 * COUNT(C88:C97))-J96+C97)/COUNT(C88:C97)</f>
         <v>1705.1652160672306</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K97" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="33">
         <v>41569</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C98" s="45">
+      <c r="C98" s="35">
         <v>1754.67</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E98" s="43">
+      <c r="E98" s="11">
         <f t="shared" si="8"/>
         <v>1715.8880000000001</v>
       </c>
@@ -4506,32 +4790,35 @@
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H98" s="40">
+      <c r="H98" s="12">
         <f t="shared" si="9"/>
         <v>1723.6824837590452</v>
       </c>
       <c r="I98" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J98" s="34">
+      <c r="J98" s="43">
         <f>((J97 * COUNT(C89:C98))-J97+C98)/COUNT(C89:C98)</f>
         <v>1710.1156944605077</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K98" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="33">
         <v>41570</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C99" s="45">
+      <c r="C99" s="35">
         <v>1746.38</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E99" s="43">
+      <c r="E99" s="11">
         <f t="shared" si="8"/>
         <v>1724.886</v>
       </c>
@@ -4542,32 +4829,35 @@
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H99" s="40">
+      <c r="H99" s="12">
         <f t="shared" si="9"/>
         <v>1727.8093048937642</v>
       </c>
       <c r="I99" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J99" s="34">
+      <c r="J99" s="43">
         <f>((J98 * COUNT(C90:C99))-J98+C99)/COUNT(C90:C99)</f>
         <v>1713.7421250144569</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="33">
         <v>41571</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C100" s="45">
+      <c r="C100" s="35">
         <v>1752.07</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E100" s="43">
+      <c r="E100" s="11">
         <f t="shared" si="8"/>
         <v>1730.837</v>
       </c>
@@ -4578,32 +4868,35 @@
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H100" s="40">
+      <c r="H100" s="12">
         <f t="shared" si="9"/>
         <v>1732.2203403676253</v>
       </c>
       <c r="I100" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J100" s="34">
+      <c r="J100" s="43">
         <f>((J99 * COUNT(C91:C100))-J99+C100)/COUNT(C91:C100)</f>
         <v>1717.5749125130114</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K100" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="33">
         <v>41572</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C101" s="45">
+      <c r="C101" s="35">
         <v>1759.77</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E101" s="43">
+      <c r="E101" s="11">
         <f t="shared" si="8"/>
         <v>1736.4939999999999</v>
       </c>
@@ -4614,32 +4907,35 @@
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H101" s="40">
+      <c r="H101" s="12">
         <f t="shared" si="9"/>
         <v>1737.2293693916934</v>
       </c>
       <c r="I101" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J101" s="34">
+      <c r="J101" s="43">
         <f>((J100 * COUNT(C92:C101))-J100+C101)/COUNT(C92:C101)</f>
         <v>1721.7944212617101</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K101" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="33">
         <v>41575</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="45">
+      <c r="C102" s="35">
         <v>1762.11</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E102" s="43">
+      <c r="E102" s="11">
         <f t="shared" si="8"/>
         <v>1741.691</v>
       </c>
@@ -4650,32 +4946,35 @@
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H102" s="40">
+      <c r="H102" s="12">
         <f t="shared" si="9"/>
         <v>1741.7531204113855</v>
       </c>
       <c r="I102" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J102" s="34">
+      <c r="J102" s="43">
         <f>((J101 * COUNT(C93:C102))-J101+C102)/COUNT(C93:C102)</f>
         <v>1725.825979135539</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="33">
         <v>41576</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="45">
+      <c r="C103" s="35">
         <v>1771.95</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E103" s="43">
+      <c r="E103" s="11">
         <f t="shared" si="8"/>
         <v>1749.0800000000004</v>
       </c>
@@ -4686,32 +4985,35 @@
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H103" s="40">
+      <c r="H103" s="12">
         <f t="shared" si="9"/>
         <v>1747.24346215477</v>
       </c>
       <c r="I103" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J103" s="34">
+      <c r="J103" s="43">
         <f>((J102 * COUNT(C94:C103))-J102+C103)/COUNT(C94:C103)</f>
         <v>1730.4383812219851</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K103" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="33">
         <v>41577</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="45">
+      <c r="C104" s="35">
         <v>1763.31</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E104" s="43">
+      <c r="E104" s="11">
         <f t="shared" si="8"/>
         <v>1753.2570000000003</v>
       </c>
@@ -4722,32 +5024,35 @@
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H104" s="40">
+      <c r="H104" s="12">
         <f t="shared" si="9"/>
         <v>1750.1646508539027</v>
       </c>
       <c r="I104" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J104" s="34">
+      <c r="J104" s="43">
         <f>((J103 * COUNT(C95:C104))-J103+C104)/COUNT(C95:C104)</f>
         <v>1733.7255430997866</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K104" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="33">
         <v>41578</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C105" s="45">
+      <c r="C105" s="35">
         <v>1756.54</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E105" s="43">
+      <c r="E105" s="11">
         <f t="shared" si="8"/>
         <v>1755.5960000000002</v>
       </c>
@@ -4758,32 +5063,35 @@
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H105" s="40">
+      <c r="H105" s="12">
         <f t="shared" si="9"/>
         <v>1751.3238052441022</v>
       </c>
       <c r="I105" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J105" s="34">
+      <c r="J105" s="43">
         <f>((J104 * COUNT(C96:C105))-J104+C105)/COUNT(C96:C105)</f>
         <v>1736.006988789808</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K105" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="33">
         <v>41579</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C106" s="45">
+      <c r="C106" s="35">
         <v>1761.64</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E106" s="43">
+      <c r="E106" s="11">
         <f t="shared" si="8"/>
         <v>1757.31</v>
       </c>
@@ -4794,32 +5102,35 @@
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H106" s="40">
+      <c r="H106" s="12">
         <f t="shared" si="9"/>
         <v>1753.1994770179019</v>
       </c>
       <c r="I106" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J106" s="34">
+      <c r="J106" s="43">
         <f>((J105 * COUNT(C97:C106))-J105+C106)/COUNT(C97:C106)</f>
         <v>1738.5702899108273</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K106" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="33">
         <v>41582</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C107" s="45">
+      <c r="C107" s="35">
         <v>1767.93</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E107" s="43">
+      <c r="E107" s="11">
         <f t="shared" si="8"/>
         <v>1759.6369999999999</v>
       </c>
@@ -4830,32 +5141,35 @@
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H107" s="40">
+      <c r="H107" s="12">
         <f t="shared" si="9"/>
         <v>1755.8777539237381</v>
       </c>
       <c r="I107" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J107" s="34">
+      <c r="J107" s="43">
         <f>((J106 * COUNT(C98:C107))-J106+C107)/COUNT(C98:C107)</f>
         <v>1741.5062609197444</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K107" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="33">
         <v>41583</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C108" s="45">
+      <c r="C108" s="35">
         <v>1762.97</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E108" s="43">
+      <c r="E108" s="11">
         <f t="shared" si="8"/>
         <v>1760.4669999999999</v>
       </c>
@@ -4866,32 +5180,35 @@
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H108" s="40">
+      <c r="H108" s="12">
         <f t="shared" si="9"/>
         <v>1757.1672532103312</v>
       </c>
       <c r="I108" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J108" s="34">
+      <c r="J108" s="43">
         <f>((J107 * COUNT(C99:C108))-J107+C108)/COUNT(C99:C108)</f>
         <v>1743.65263482777</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K108" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="33">
         <v>41584</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C109" s="45">
+      <c r="C109" s="35">
         <v>1770.49</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E109" s="43">
+      <c r="E109" s="11">
         <f t="shared" si="8"/>
         <v>1762.8779999999999</v>
       </c>
@@ -4902,32 +5219,35 @@
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H109" s="40">
+      <c r="H109" s="12">
         <f t="shared" si="9"/>
         <v>1759.5895708084529</v>
       </c>
       <c r="I109" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J109" s="34">
+      <c r="J109" s="43">
         <f>((J108 * COUNT(C100:C109))-J108+C109)/COUNT(C100:C109)</f>
         <v>1746.3363713449933</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K109" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="33">
         <v>41585</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C110" s="45">
+      <c r="C110" s="35">
         <v>1747.15</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E110" s="43">
+      <c r="E110" s="11">
         <f t="shared" si="8"/>
         <v>1762.386</v>
       </c>
@@ -4938,32 +5258,35 @@
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H110" s="40">
+      <c r="H110" s="12">
         <f t="shared" si="9"/>
         <v>1757.3278306614616</v>
       </c>
       <c r="I110" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J110" s="34">
+      <c r="J110" s="43">
         <f>((J109 * COUNT(C101:C110))-J109+C110)/COUNT(C101:C110)</f>
         <v>1746.417734210494</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K110" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="33">
         <v>41586</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C111" s="45">
+      <c r="C111" s="35">
         <v>1770.61</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E111" s="43">
+      <c r="E111" s="11">
         <f t="shared" si="8"/>
         <v>1763.4699999999998</v>
       </c>
@@ -4974,32 +5297,35 @@
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H111" s="40">
+      <c r="H111" s="12">
         <f t="shared" si="9"/>
         <v>1759.7427705411958</v>
       </c>
       <c r="I111" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J111" s="34">
+      <c r="J111" s="43">
         <f>((J110 * COUNT(C102:C111))-J110+C111)/COUNT(C102:C111)</f>
         <v>1748.8369607894444</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K111" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="33">
         <v>41589</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C112" s="45">
+      <c r="C112" s="35">
         <v>1771.89</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E112" s="43">
+      <c r="E112" s="11">
         <f t="shared" si="8"/>
         <v>1764.4479999999999</v>
       </c>
@@ -5010,24 +5336,27 @@
         <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H112" s="40">
+      <c r="H112" s="12">
         <f t="shared" si="9"/>
         <v>1761.951357715524</v>
       </c>
       <c r="I112" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J112" s="34">
+      <c r="J112" s="43">
         <f>((J111 * COUNT(C103:C112))-J111+C112)/COUNT(C103:C112)</f>
         <v>1751.1422647105003</v>
       </c>
+      <c r="K112" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="113" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C113" s="45">
+      <c r="C113" s="35">
         <f>COUNT(C3:C112)</f>
         <v>110</v>
       </c>
-      <c r="E113" s="43">
+      <c r="E113" s="11">
         <f>COUNTIF(E3:E112, "&gt;0")</f>
         <v>100</v>
       </c>
@@ -5035,7 +5364,7 @@
         <f>COUNTIF(G3:G112, "&gt;0")</f>
         <v>109</v>
       </c>
-      <c r="H113" s="40">
+      <c r="H113" s="12">
         <f>COUNTIF(H3:H112, "&gt;0")</f>
         <v>100</v>
       </c>
